--- a/Code/Results/Cases/Case_3_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_1/res_bus/vm_pu.xlsx
@@ -421,22 +421,22 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9947562285805366</v>
+        <v>0.9947562285805358</v>
       </c>
       <c r="D2">
-        <v>1.013646050690525</v>
+        <v>1.013646050690524</v>
       </c>
       <c r="E2">
-        <v>1.002691759115654</v>
+        <v>1.002691759115653</v>
       </c>
       <c r="F2">
-        <v>1.001794028785039</v>
+        <v>1.001794028785038</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042513402141915</v>
+        <v>1.042513402141914</v>
       </c>
       <c r="J2">
         <v>1.017094919202551</v>
@@ -445,10 +445,10 @@
         <v>1.024918492365076</v>
       </c>
       <c r="L2">
-        <v>1.014113720408446</v>
+        <v>1.014113720408445</v>
       </c>
       <c r="M2">
-        <v>1.01322842639368</v>
+        <v>1.013228426393679</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -465,7 +465,7 @@
         <v>1.018195493096695</v>
       </c>
       <c r="E3">
-        <v>1.007964837044421</v>
+        <v>1.00796483704442</v>
       </c>
       <c r="F3">
         <v>1.009035540969487</v>
@@ -477,13 +477,13 @@
         <v>1.044719775511564</v>
       </c>
       <c r="J3">
-        <v>1.021385690298059</v>
+        <v>1.021385690298058</v>
       </c>
       <c r="K3">
         <v>1.028600734584858</v>
       </c>
       <c r="L3">
-        <v>1.018496810640741</v>
+        <v>1.01849681064074</v>
       </c>
       <c r="M3">
         <v>1.019554101159205</v>
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004800580973735</v>
+        <v>1.004800580973734</v>
       </c>
       <c r="D4">
-        <v>1.021061385732881</v>
+        <v>1.02106138573288</v>
       </c>
       <c r="E4">
-        <v>1.011289594635268</v>
+        <v>1.011289594635267</v>
       </c>
       <c r="F4">
         <v>1.013594556106711</v>
@@ -515,16 +515,16 @@
         <v>1.046094516794447</v>
       </c>
       <c r="J4">
-        <v>1.024082279491943</v>
+        <v>1.024082279491941</v>
       </c>
       <c r="K4">
-        <v>1.030912093823074</v>
+        <v>1.030912093823073</v>
       </c>
       <c r="L4">
-        <v>1.021253647288856</v>
+        <v>1.021253647288855</v>
       </c>
       <c r="M4">
-        <v>1.023531629566123</v>
+        <v>1.023531629566122</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,7 +535,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006407371262764</v>
+        <v>1.006407371262763</v>
       </c>
       <c r="D5">
         <v>1.022248394310094</v>
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006675752361674</v>
+        <v>1.006675752361675</v>
       </c>
       <c r="D6">
-        <v>1.022446676951938</v>
+        <v>1.022446676951939</v>
       </c>
       <c r="E6">
-        <v>1.012897631684488</v>
+        <v>1.012897631684489</v>
       </c>
       <c r="F6">
-        <v>1.015797749746256</v>
+        <v>1.015797749746257</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046754564564557</v>
+        <v>1.046754564564558</v>
       </c>
       <c r="J6">
-        <v>1.025383909575148</v>
+        <v>1.02538390957515</v>
       </c>
       <c r="K6">
-        <v>1.032026928541029</v>
+        <v>1.032026928541031</v>
       </c>
       <c r="L6">
-        <v>1.022585022802254</v>
+        <v>1.022585022802255</v>
       </c>
       <c r="M6">
-        <v>1.02545233939246</v>
+        <v>1.025452339392461</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004822145942635</v>
+        <v>1.004822145942634</v>
       </c>
       <c r="D7">
-        <v>1.021077315528051</v>
+        <v>1.02107731552805</v>
       </c>
       <c r="E7">
-        <v>1.011308082204887</v>
+        <v>1.011308082204885</v>
       </c>
       <c r="F7">
-        <v>1.013619892711506</v>
+        <v>1.013619892711504</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046102123715704</v>
+        <v>1.046102123715703</v>
       </c>
       <c r="J7">
-        <v>1.024097254089339</v>
+        <v>1.024097254089338</v>
       </c>
       <c r="K7">
-        <v>1.030924922666581</v>
+        <v>1.03092492266658</v>
       </c>
       <c r="L7">
-        <v>1.021268961570052</v>
+        <v>1.021268961570051</v>
       </c>
       <c r="M7">
-        <v>1.02355372322948</v>
+        <v>1.023553723229478</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9968624641807906</v>
+        <v>0.9968624641807899</v>
       </c>
       <c r="D8">
-        <v>1.015200209359457</v>
+        <v>1.015200209359456</v>
       </c>
       <c r="E8">
-        <v>1.004492516058629</v>
+        <v>1.004492516058628</v>
       </c>
       <c r="F8">
-        <v>1.004268565317802</v>
+        <v>1.004268565317801</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043270320222026</v>
+        <v>1.043270320222025</v>
       </c>
       <c r="J8">
         <v>1.018562072814124</v>
       </c>
       <c r="K8">
-        <v>1.026178146527836</v>
+        <v>1.026178146527835</v>
       </c>
       <c r="L8">
-        <v>1.015611975307342</v>
+        <v>1.015611975307341</v>
       </c>
       <c r="M8">
-        <v>1.015391024966555</v>
+        <v>1.015391024966554</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9819479848621706</v>
+        <v>0.9819479848621703</v>
       </c>
       <c r="D9">
         <v>1.004206332038632</v>
       </c>
       <c r="E9">
-        <v>0.9917652039772107</v>
+        <v>0.9917652039772105</v>
       </c>
       <c r="F9">
-        <v>0.9867415370801327</v>
+        <v>0.9867415370801325</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -708,13 +708,13 @@
         <v>1.00815471626689</v>
       </c>
       <c r="K9">
-        <v>1.017231531098359</v>
+        <v>1.017231531098358</v>
       </c>
       <c r="L9">
         <v>1.004993313029387</v>
       </c>
       <c r="M9">
-        <v>1.000053449788752</v>
+        <v>1.000053449788751</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9713115559081046</v>
+        <v>0.9713115559081048</v>
       </c>
       <c r="D10">
-        <v>0.9963849240517881</v>
+        <v>0.9963849240517884</v>
       </c>
       <c r="E10">
-        <v>0.9827221955560372</v>
+        <v>0.9827221955560373</v>
       </c>
       <c r="F10">
-        <v>0.9742298949827275</v>
+        <v>0.9742298949827273</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -749,10 +749,10 @@
         <v>1.010819758025728</v>
       </c>
       <c r="L10">
-        <v>0.997410574269694</v>
+        <v>0.9974105742696943</v>
       </c>
       <c r="M10">
-        <v>0.9890805649597426</v>
+        <v>0.9890805649597425</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9665167475362779</v>
+        <v>0.9665167475362768</v>
       </c>
       <c r="D11">
-        <v>0.9928652252510427</v>
+        <v>0.9928652252510416</v>
       </c>
       <c r="E11">
-        <v>0.9786546907301709</v>
+        <v>0.9786546907301698</v>
       </c>
       <c r="F11">
-        <v>0.9685846074522989</v>
+        <v>0.968584607452298</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.032120370712033</v>
       </c>
       <c r="J11">
-        <v>0.9973519987758616</v>
+        <v>0.9973519987758608</v>
       </c>
       <c r="K11">
-        <v>1.007922959052831</v>
+        <v>1.00792295905283</v>
       </c>
       <c r="L11">
-        <v>0.9939906961528082</v>
+        <v>0.9939906961528073</v>
       </c>
       <c r="M11">
-        <v>0.9841243279695921</v>
+        <v>0.9841243279695914</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9647049366475977</v>
+        <v>0.9647049366475975</v>
       </c>
       <c r="D12">
-        <v>0.9915363094888925</v>
+        <v>0.991536309488892</v>
       </c>
       <c r="E12">
-        <v>0.977119153481381</v>
+        <v>0.9771191534813811</v>
       </c>
       <c r="F12">
-        <v>0.9664504272870371</v>
+        <v>0.966450427287037</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,13 +819,13 @@
         <v>1.031440731153515</v>
       </c>
       <c r="J12">
-        <v>0.9960819804190383</v>
+        <v>0.9960819804190382</v>
       </c>
       <c r="K12">
         <v>1.006827476893203</v>
       </c>
       <c r="L12">
-        <v>0.9926982471595623</v>
+        <v>0.9926982471595625</v>
       </c>
       <c r="M12">
         <v>0.9822499022571928</v>
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9650950115714781</v>
+        <v>0.9650950115714791</v>
       </c>
       <c r="D13">
-        <v>0.9918223683435496</v>
+        <v>0.9918223683435503</v>
       </c>
       <c r="E13">
-        <v>0.9774496809257479</v>
+        <v>0.9774496809257485</v>
       </c>
       <c r="F13">
-        <v>0.9669099559491853</v>
+        <v>0.9669099559491857</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03158716343387</v>
+        <v>1.031587163433871</v>
       </c>
       <c r="J13">
-        <v>0.996355433668497</v>
+        <v>0.9963554336684977</v>
       </c>
       <c r="K13">
-        <v>1.007063367093659</v>
+        <v>1.00706336709366</v>
       </c>
       <c r="L13">
-        <v>0.9929765128684052</v>
+        <v>0.9929765128684059</v>
       </c>
       <c r="M13">
-        <v>0.9826535334491744</v>
+        <v>0.9826535334491749</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9663676258810325</v>
+        <v>0.9663676258810326</v>
       </c>
       <c r="D14">
-        <v>0.9927558258011752</v>
+        <v>0.9927558258011747</v>
       </c>
       <c r="E14">
-        <v>0.9785282779085788</v>
+        <v>0.9785282779085785</v>
       </c>
       <c r="F14">
-        <v>0.968408974771794</v>
+        <v>0.9684089747717938</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032064481809363</v>
+        <v>1.032064481809364</v>
       </c>
       <c r="J14">
-        <v>0.9972474803695804</v>
+        <v>0.9972474803695801</v>
       </c>
       <c r="K14">
         <v>1.007832812148903</v>
       </c>
       <c r="L14">
-        <v>0.9938843240397758</v>
+        <v>0.9938843240397756</v>
       </c>
       <c r="M14">
-        <v>0.9839700865018142</v>
+        <v>0.9839700865018138</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.967147567501302</v>
+        <v>0.9671475675013032</v>
       </c>
       <c r="D15">
-        <v>0.9933280553248798</v>
+        <v>0.993328055324881</v>
       </c>
       <c r="E15">
-        <v>0.9791895064170816</v>
+        <v>0.9791895064170827</v>
       </c>
       <c r="F15">
-        <v>0.9693275332827042</v>
+        <v>0.9693275332827055</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.032356695295941</v>
       </c>
       <c r="J15">
-        <v>0.9977941142352339</v>
+        <v>0.997794114235235</v>
       </c>
       <c r="K15">
         <v>1.00830426700497</v>
       </c>
       <c r="L15">
-        <v>0.994440668413287</v>
+        <v>0.9944406684132883</v>
       </c>
       <c r="M15">
-        <v>0.9847767392944621</v>
+        <v>0.9847767392944632</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9716255885505324</v>
+        <v>0.9716255885505328</v>
       </c>
       <c r="D16">
-        <v>0.9966155835590267</v>
+        <v>0.9966155835590271</v>
       </c>
       <c r="E16">
-        <v>0.982988788418004</v>
+        <v>0.9829887884180042</v>
       </c>
       <c r="F16">
-        <v>0.9745995041084561</v>
+        <v>0.9745995041084564</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -974,13 +974,13 @@
         <v>1.000931473310888</v>
       </c>
       <c r="K16">
-        <v>1.01100935643416</v>
+        <v>1.011009356434161</v>
       </c>
       <c r="L16">
-        <v>0.9976345280663785</v>
+        <v>0.9976345280663789</v>
       </c>
       <c r="M16">
-        <v>0.9894049558457032</v>
+        <v>0.9894049558457036</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9743822870073977</v>
+        <v>0.9743822870073985</v>
       </c>
       <c r="D17">
-        <v>0.9986411100131203</v>
+        <v>0.9986411100131208</v>
       </c>
       <c r="E17">
-        <v>0.9853300711442349</v>
+        <v>0.9853300711442354</v>
       </c>
       <c r="F17">
-        <v>0.977843467847848</v>
+        <v>0.977843467847849</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.03505506576987</v>
       </c>
       <c r="J17">
-        <v>1.002861801713438</v>
+        <v>1.002861801713439</v>
       </c>
       <c r="K17">
-        <v>1.012673007518462</v>
+        <v>1.012673007518463</v>
       </c>
       <c r="L17">
-        <v>0.9996003012680234</v>
+        <v>0.9996003012680237</v>
       </c>
       <c r="M17">
-        <v>0.9922514637335264</v>
+        <v>0.9922514637335272</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,25 +1029,25 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9759721457860241</v>
+        <v>0.9759721457860243</v>
       </c>
       <c r="D18">
-        <v>0.9998098493684551</v>
+        <v>0.9998098493684552</v>
       </c>
       <c r="E18">
-        <v>0.9866811903713056</v>
+        <v>0.986681190371306</v>
       </c>
       <c r="F18">
-        <v>0.9797138761387262</v>
+        <v>0.9797138761387261</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035644920649471</v>
+        <v>1.035644920649472</v>
       </c>
       <c r="J18">
-        <v>1.003974670947635</v>
+        <v>1.003974670947636</v>
       </c>
       <c r="K18">
         <v>1.013631865867364</v>
@@ -1056,7 +1056,7 @@
         <v>1.000733853611027</v>
       </c>
       <c r="M18">
-        <v>0.993892209719821</v>
+        <v>0.9938922097198207</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9765112485109122</v>
+        <v>0.9765112485109132</v>
       </c>
       <c r="D19">
-        <v>1.00020624716736</v>
+        <v>1.000206247167361</v>
       </c>
       <c r="E19">
-        <v>0.9871394793020051</v>
+        <v>0.9871394793020057</v>
       </c>
       <c r="F19">
-        <v>0.9803480366425912</v>
+        <v>0.9803480366425924</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.035844663774521</v>
       </c>
       <c r="J19">
-        <v>1.004351961954091</v>
+        <v>1.004351961954092</v>
       </c>
       <c r="K19">
         <v>1.013956897146392</v>
       </c>
       <c r="L19">
-        <v>1.001118199182396</v>
+        <v>1.001118199182397</v>
       </c>
       <c r="M19">
-        <v>0.9944484177761924</v>
+        <v>0.9944484177761934</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9740884054981963</v>
+        <v>0.9740884054981984</v>
       </c>
       <c r="D20">
-        <v>0.9984251162196254</v>
+        <v>0.9984251162196272</v>
       </c>
       <c r="E20">
-        <v>0.9850803875272379</v>
+        <v>0.9850803875272397</v>
       </c>
       <c r="F20">
-        <v>0.9774976909905253</v>
+        <v>0.9774976909905266</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03494590423026</v>
+        <v>1.034945904230261</v>
       </c>
       <c r="J20">
-        <v>1.002656057605167</v>
+        <v>1.002656057605169</v>
       </c>
       <c r="K20">
-        <v>1.012495714703043</v>
+        <v>1.012495714703044</v>
       </c>
       <c r="L20">
-        <v>0.9993907535248421</v>
+        <v>0.9993907535248439</v>
       </c>
       <c r="M20">
-        <v>0.9919481033174662</v>
+        <v>0.9919481033174674</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9659937436107048</v>
+        <v>0.9659937436107033</v>
       </c>
       <c r="D21">
-        <v>0.992481553983771</v>
+        <v>0.9924815539837696</v>
       </c>
       <c r="E21">
-        <v>0.9782113555350064</v>
+        <v>0.9782113555350049</v>
       </c>
       <c r="F21">
-        <v>0.9679686063711518</v>
+        <v>0.96796860637115</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031924316510697</v>
+        <v>1.031924316510696</v>
       </c>
       <c r="J21">
-        <v>0.9969854200053382</v>
+        <v>0.9969854200053364</v>
       </c>
       <c r="K21">
-        <v>1.007606779466445</v>
+        <v>1.007606779466444</v>
       </c>
       <c r="L21">
-        <v>0.9936176220013444</v>
+        <v>0.9936176220013431</v>
       </c>
       <c r="M21">
-        <v>0.9835833411439967</v>
+        <v>0.9835833411439949</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1184,31 +1184,31 @@
         <v>0.9607246859013592</v>
       </c>
       <c r="D22">
-        <v>0.9886190511124833</v>
+        <v>0.9886190511124838</v>
       </c>
       <c r="E22">
-        <v>0.9737486122743688</v>
+        <v>0.9737486122743686</v>
       </c>
       <c r="F22">
-        <v>0.961759865130609</v>
+        <v>0.9617598651306087</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029943263838434</v>
+        <v>1.029943263838435</v>
       </c>
       <c r="J22">
-        <v>0.993291020061319</v>
+        <v>0.9932910200613191</v>
       </c>
       <c r="K22">
         <v>1.004419389294471</v>
       </c>
       <c r="L22">
-        <v>0.9898586900827954</v>
+        <v>0.9898586900827951</v>
       </c>
       <c r="M22">
-        <v>0.978128933495342</v>
+        <v>0.9781289334953417</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9635358102054745</v>
+        <v>0.9635358102054762</v>
       </c>
       <c r="D23">
-        <v>0.9906791075663043</v>
+        <v>0.9906791075663062</v>
       </c>
       <c r="E23">
-        <v>0.9761287218234356</v>
+        <v>0.9761287218234369</v>
       </c>
       <c r="F23">
-        <v>0.9650729696428548</v>
+        <v>0.9650729696428558</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031001495030462</v>
+        <v>1.031001495030464</v>
       </c>
       <c r="J23">
-        <v>0.9952623150784756</v>
+        <v>0.9952623150784771</v>
       </c>
       <c r="K23">
-        <v>1.006120350585937</v>
+        <v>1.006120350585939</v>
       </c>
       <c r="L23">
-        <v>0.9918642121526867</v>
+        <v>0.9918642121526881</v>
       </c>
       <c r="M23">
-        <v>0.9810398956107136</v>
+        <v>0.9810398956107148</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.974221253588207</v>
+        <v>0.9742212535882072</v>
       </c>
       <c r="D24">
         <v>0.9985227536980076</v>
       </c>
       <c r="E24">
-        <v>0.9851932535120532</v>
+        <v>0.985193253512053</v>
       </c>
       <c r="F24">
-        <v>0.9776539996272812</v>
+        <v>0.9776539996272811</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.034995255222759</v>
       </c>
       <c r="J24">
-        <v>1.002749064746607</v>
+        <v>1.002749064746608</v>
       </c>
       <c r="K24">
-        <v>1.012575861196238</v>
+        <v>1.012575861196237</v>
       </c>
       <c r="L24">
-        <v>0.9994854793363668</v>
+        <v>0.9994854793363666</v>
       </c>
       <c r="M24">
-        <v>0.9920852391225645</v>
+        <v>0.9920852391225644</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9859183290726716</v>
+        <v>0.9859183290726723</v>
       </c>
       <c r="D25">
-        <v>1.007130229933025</v>
+        <v>1.007130229933026</v>
       </c>
       <c r="E25">
-        <v>0.9951478806674235</v>
+        <v>0.995147880667424</v>
       </c>
       <c r="F25">
-        <v>0.9914087437534959</v>
+        <v>0.9914087437534962</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.039306513035738</v>
       </c>
       <c r="J25">
-        <v>1.010929071904793</v>
+        <v>1.010929071904794</v>
       </c>
       <c r="K25">
-        <v>1.019618857527477</v>
+        <v>1.019618857527478</v>
       </c>
       <c r="L25">
         <v>1.007821989435425</v>
       </c>
       <c r="M25">
-        <v>1.004141908223353</v>
+        <v>1.004141908223354</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_1/res_bus/vm_pu.xlsx
@@ -421,22 +421,22 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9947562285805358</v>
+        <v>0.9947562285805366</v>
       </c>
       <c r="D2">
-        <v>1.013646050690524</v>
+        <v>1.013646050690525</v>
       </c>
       <c r="E2">
-        <v>1.002691759115653</v>
+        <v>1.002691759115654</v>
       </c>
       <c r="F2">
-        <v>1.001794028785038</v>
+        <v>1.001794028785039</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042513402141914</v>
+        <v>1.042513402141915</v>
       </c>
       <c r="J2">
         <v>1.017094919202551</v>
@@ -445,10 +445,10 @@
         <v>1.024918492365076</v>
       </c>
       <c r="L2">
-        <v>1.014113720408445</v>
+        <v>1.014113720408446</v>
       </c>
       <c r="M2">
-        <v>1.013228426393679</v>
+        <v>1.01322842639368</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -465,7 +465,7 @@
         <v>1.018195493096695</v>
       </c>
       <c r="E3">
-        <v>1.00796483704442</v>
+        <v>1.007964837044421</v>
       </c>
       <c r="F3">
         <v>1.009035540969487</v>
@@ -477,13 +477,13 @@
         <v>1.044719775511564</v>
       </c>
       <c r="J3">
-        <v>1.021385690298058</v>
+        <v>1.021385690298059</v>
       </c>
       <c r="K3">
         <v>1.028600734584858</v>
       </c>
       <c r="L3">
-        <v>1.01849681064074</v>
+        <v>1.018496810640741</v>
       </c>
       <c r="M3">
         <v>1.019554101159205</v>
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004800580973734</v>
+        <v>1.004800580973735</v>
       </c>
       <c r="D4">
-        <v>1.02106138573288</v>
+        <v>1.021061385732881</v>
       </c>
       <c r="E4">
-        <v>1.011289594635267</v>
+        <v>1.011289594635268</v>
       </c>
       <c r="F4">
         <v>1.013594556106711</v>
@@ -515,16 +515,16 @@
         <v>1.046094516794447</v>
       </c>
       <c r="J4">
-        <v>1.024082279491941</v>
+        <v>1.024082279491943</v>
       </c>
       <c r="K4">
-        <v>1.030912093823073</v>
+        <v>1.030912093823074</v>
       </c>
       <c r="L4">
-        <v>1.021253647288855</v>
+        <v>1.021253647288856</v>
       </c>
       <c r="M4">
-        <v>1.023531629566122</v>
+        <v>1.023531629566123</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,7 +535,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006407371262763</v>
+        <v>1.006407371262764</v>
       </c>
       <c r="D5">
         <v>1.022248394310094</v>
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006675752361675</v>
+        <v>1.006675752361674</v>
       </c>
       <c r="D6">
-        <v>1.022446676951939</v>
+        <v>1.022446676951938</v>
       </c>
       <c r="E6">
-        <v>1.012897631684489</v>
+        <v>1.012897631684488</v>
       </c>
       <c r="F6">
-        <v>1.015797749746257</v>
+        <v>1.015797749746256</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046754564564558</v>
+        <v>1.046754564564557</v>
       </c>
       <c r="J6">
-        <v>1.02538390957515</v>
+        <v>1.025383909575148</v>
       </c>
       <c r="K6">
-        <v>1.032026928541031</v>
+        <v>1.032026928541029</v>
       </c>
       <c r="L6">
-        <v>1.022585022802255</v>
+        <v>1.022585022802254</v>
       </c>
       <c r="M6">
-        <v>1.025452339392461</v>
+        <v>1.02545233939246</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004822145942634</v>
+        <v>1.004822145942635</v>
       </c>
       <c r="D7">
-        <v>1.02107731552805</v>
+        <v>1.021077315528051</v>
       </c>
       <c r="E7">
-        <v>1.011308082204885</v>
+        <v>1.011308082204887</v>
       </c>
       <c r="F7">
-        <v>1.013619892711504</v>
+        <v>1.013619892711506</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046102123715703</v>
+        <v>1.046102123715704</v>
       </c>
       <c r="J7">
-        <v>1.024097254089338</v>
+        <v>1.024097254089339</v>
       </c>
       <c r="K7">
-        <v>1.03092492266658</v>
+        <v>1.030924922666581</v>
       </c>
       <c r="L7">
-        <v>1.021268961570051</v>
+        <v>1.021268961570052</v>
       </c>
       <c r="M7">
-        <v>1.023553723229478</v>
+        <v>1.02355372322948</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9968624641807899</v>
+        <v>0.9968624641807906</v>
       </c>
       <c r="D8">
-        <v>1.015200209359456</v>
+        <v>1.015200209359457</v>
       </c>
       <c r="E8">
-        <v>1.004492516058628</v>
+        <v>1.004492516058629</v>
       </c>
       <c r="F8">
-        <v>1.004268565317801</v>
+        <v>1.004268565317802</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043270320222025</v>
+        <v>1.043270320222026</v>
       </c>
       <c r="J8">
         <v>1.018562072814124</v>
       </c>
       <c r="K8">
-        <v>1.026178146527835</v>
+        <v>1.026178146527836</v>
       </c>
       <c r="L8">
-        <v>1.015611975307341</v>
+        <v>1.015611975307342</v>
       </c>
       <c r="M8">
-        <v>1.015391024966554</v>
+        <v>1.015391024966555</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9819479848621703</v>
+        <v>0.9819479848621706</v>
       </c>
       <c r="D9">
         <v>1.004206332038632</v>
       </c>
       <c r="E9">
-        <v>0.9917652039772105</v>
+        <v>0.9917652039772107</v>
       </c>
       <c r="F9">
-        <v>0.9867415370801325</v>
+        <v>0.9867415370801327</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -708,13 +708,13 @@
         <v>1.00815471626689</v>
       </c>
       <c r="K9">
-        <v>1.017231531098358</v>
+        <v>1.017231531098359</v>
       </c>
       <c r="L9">
         <v>1.004993313029387</v>
       </c>
       <c r="M9">
-        <v>1.000053449788751</v>
+        <v>1.000053449788752</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9713115559081048</v>
+        <v>0.9713115559081046</v>
       </c>
       <c r="D10">
-        <v>0.9963849240517884</v>
+        <v>0.9963849240517881</v>
       </c>
       <c r="E10">
-        <v>0.9827221955560373</v>
+        <v>0.9827221955560372</v>
       </c>
       <c r="F10">
-        <v>0.9742298949827273</v>
+        <v>0.9742298949827275</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -749,10 +749,10 @@
         <v>1.010819758025728</v>
       </c>
       <c r="L10">
-        <v>0.9974105742696943</v>
+        <v>0.997410574269694</v>
       </c>
       <c r="M10">
-        <v>0.9890805649597425</v>
+        <v>0.9890805649597426</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9665167475362768</v>
+        <v>0.9665167475362779</v>
       </c>
       <c r="D11">
-        <v>0.9928652252510416</v>
+        <v>0.9928652252510427</v>
       </c>
       <c r="E11">
-        <v>0.9786546907301698</v>
+        <v>0.9786546907301709</v>
       </c>
       <c r="F11">
-        <v>0.968584607452298</v>
+        <v>0.9685846074522989</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.032120370712033</v>
       </c>
       <c r="J11">
-        <v>0.9973519987758608</v>
+        <v>0.9973519987758616</v>
       </c>
       <c r="K11">
-        <v>1.00792295905283</v>
+        <v>1.007922959052831</v>
       </c>
       <c r="L11">
-        <v>0.9939906961528073</v>
+        <v>0.9939906961528082</v>
       </c>
       <c r="M11">
-        <v>0.9841243279695914</v>
+        <v>0.9841243279695921</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9647049366475975</v>
+        <v>0.9647049366475977</v>
       </c>
       <c r="D12">
-        <v>0.991536309488892</v>
+        <v>0.9915363094888925</v>
       </c>
       <c r="E12">
-        <v>0.9771191534813811</v>
+        <v>0.977119153481381</v>
       </c>
       <c r="F12">
-        <v>0.966450427287037</v>
+        <v>0.9664504272870371</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,13 +819,13 @@
         <v>1.031440731153515</v>
       </c>
       <c r="J12">
-        <v>0.9960819804190382</v>
+        <v>0.9960819804190383</v>
       </c>
       <c r="K12">
         <v>1.006827476893203</v>
       </c>
       <c r="L12">
-        <v>0.9926982471595625</v>
+        <v>0.9926982471595623</v>
       </c>
       <c r="M12">
         <v>0.9822499022571928</v>
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9650950115714791</v>
+        <v>0.9650950115714781</v>
       </c>
       <c r="D13">
-        <v>0.9918223683435503</v>
+        <v>0.9918223683435496</v>
       </c>
       <c r="E13">
-        <v>0.9774496809257485</v>
+        <v>0.9774496809257479</v>
       </c>
       <c r="F13">
-        <v>0.9669099559491857</v>
+        <v>0.9669099559491853</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031587163433871</v>
+        <v>1.03158716343387</v>
       </c>
       <c r="J13">
-        <v>0.9963554336684977</v>
+        <v>0.996355433668497</v>
       </c>
       <c r="K13">
-        <v>1.00706336709366</v>
+        <v>1.007063367093659</v>
       </c>
       <c r="L13">
-        <v>0.9929765128684059</v>
+        <v>0.9929765128684052</v>
       </c>
       <c r="M13">
-        <v>0.9826535334491749</v>
+        <v>0.9826535334491744</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9663676258810326</v>
+        <v>0.9663676258810325</v>
       </c>
       <c r="D14">
-        <v>0.9927558258011747</v>
+        <v>0.9927558258011752</v>
       </c>
       <c r="E14">
-        <v>0.9785282779085785</v>
+        <v>0.9785282779085788</v>
       </c>
       <c r="F14">
-        <v>0.9684089747717938</v>
+        <v>0.968408974771794</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032064481809364</v>
+        <v>1.032064481809363</v>
       </c>
       <c r="J14">
-        <v>0.9972474803695801</v>
+        <v>0.9972474803695804</v>
       </c>
       <c r="K14">
         <v>1.007832812148903</v>
       </c>
       <c r="L14">
-        <v>0.9938843240397756</v>
+        <v>0.9938843240397758</v>
       </c>
       <c r="M14">
-        <v>0.9839700865018138</v>
+        <v>0.9839700865018142</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9671475675013032</v>
+        <v>0.967147567501302</v>
       </c>
       <c r="D15">
-        <v>0.993328055324881</v>
+        <v>0.9933280553248798</v>
       </c>
       <c r="E15">
-        <v>0.9791895064170827</v>
+        <v>0.9791895064170816</v>
       </c>
       <c r="F15">
-        <v>0.9693275332827055</v>
+        <v>0.9693275332827042</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.032356695295941</v>
       </c>
       <c r="J15">
-        <v>0.997794114235235</v>
+        <v>0.9977941142352339</v>
       </c>
       <c r="K15">
         <v>1.00830426700497</v>
       </c>
       <c r="L15">
-        <v>0.9944406684132883</v>
+        <v>0.994440668413287</v>
       </c>
       <c r="M15">
-        <v>0.9847767392944632</v>
+        <v>0.9847767392944621</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9716255885505328</v>
+        <v>0.9716255885505324</v>
       </c>
       <c r="D16">
-        <v>0.9966155835590271</v>
+        <v>0.9966155835590267</v>
       </c>
       <c r="E16">
-        <v>0.9829887884180042</v>
+        <v>0.982988788418004</v>
       </c>
       <c r="F16">
-        <v>0.9745995041084564</v>
+        <v>0.9745995041084561</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -974,13 +974,13 @@
         <v>1.000931473310888</v>
       </c>
       <c r="K16">
-        <v>1.011009356434161</v>
+        <v>1.01100935643416</v>
       </c>
       <c r="L16">
-        <v>0.9976345280663789</v>
+        <v>0.9976345280663785</v>
       </c>
       <c r="M16">
-        <v>0.9894049558457036</v>
+        <v>0.9894049558457032</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9743822870073985</v>
+        <v>0.9743822870073977</v>
       </c>
       <c r="D17">
-        <v>0.9986411100131208</v>
+        <v>0.9986411100131203</v>
       </c>
       <c r="E17">
-        <v>0.9853300711442354</v>
+        <v>0.9853300711442349</v>
       </c>
       <c r="F17">
-        <v>0.977843467847849</v>
+        <v>0.977843467847848</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.03505506576987</v>
       </c>
       <c r="J17">
-        <v>1.002861801713439</v>
+        <v>1.002861801713438</v>
       </c>
       <c r="K17">
-        <v>1.012673007518463</v>
+        <v>1.012673007518462</v>
       </c>
       <c r="L17">
-        <v>0.9996003012680237</v>
+        <v>0.9996003012680234</v>
       </c>
       <c r="M17">
-        <v>0.9922514637335272</v>
+        <v>0.9922514637335264</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,25 +1029,25 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9759721457860243</v>
+        <v>0.9759721457860241</v>
       </c>
       <c r="D18">
-        <v>0.9998098493684552</v>
+        <v>0.9998098493684551</v>
       </c>
       <c r="E18">
-        <v>0.986681190371306</v>
+        <v>0.9866811903713056</v>
       </c>
       <c r="F18">
-        <v>0.9797138761387261</v>
+        <v>0.9797138761387262</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035644920649472</v>
+        <v>1.035644920649471</v>
       </c>
       <c r="J18">
-        <v>1.003974670947636</v>
+        <v>1.003974670947635</v>
       </c>
       <c r="K18">
         <v>1.013631865867364</v>
@@ -1056,7 +1056,7 @@
         <v>1.000733853611027</v>
       </c>
       <c r="M18">
-        <v>0.9938922097198207</v>
+        <v>0.993892209719821</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9765112485109132</v>
+        <v>0.9765112485109122</v>
       </c>
       <c r="D19">
-        <v>1.000206247167361</v>
+        <v>1.00020624716736</v>
       </c>
       <c r="E19">
-        <v>0.9871394793020057</v>
+        <v>0.9871394793020051</v>
       </c>
       <c r="F19">
-        <v>0.9803480366425924</v>
+        <v>0.9803480366425912</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.035844663774521</v>
       </c>
       <c r="J19">
-        <v>1.004351961954092</v>
+        <v>1.004351961954091</v>
       </c>
       <c r="K19">
         <v>1.013956897146392</v>
       </c>
       <c r="L19">
-        <v>1.001118199182397</v>
+        <v>1.001118199182396</v>
       </c>
       <c r="M19">
-        <v>0.9944484177761934</v>
+        <v>0.9944484177761924</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9740884054981984</v>
+        <v>0.9740884054981963</v>
       </c>
       <c r="D20">
-        <v>0.9984251162196272</v>
+        <v>0.9984251162196254</v>
       </c>
       <c r="E20">
-        <v>0.9850803875272397</v>
+        <v>0.9850803875272379</v>
       </c>
       <c r="F20">
-        <v>0.9774976909905266</v>
+        <v>0.9774976909905253</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034945904230261</v>
+        <v>1.03494590423026</v>
       </c>
       <c r="J20">
-        <v>1.002656057605169</v>
+        <v>1.002656057605167</v>
       </c>
       <c r="K20">
-        <v>1.012495714703044</v>
+        <v>1.012495714703043</v>
       </c>
       <c r="L20">
-        <v>0.9993907535248439</v>
+        <v>0.9993907535248421</v>
       </c>
       <c r="M20">
-        <v>0.9919481033174674</v>
+        <v>0.9919481033174662</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9659937436107033</v>
+        <v>0.9659937436107048</v>
       </c>
       <c r="D21">
-        <v>0.9924815539837696</v>
+        <v>0.992481553983771</v>
       </c>
       <c r="E21">
-        <v>0.9782113555350049</v>
+        <v>0.9782113555350064</v>
       </c>
       <c r="F21">
-        <v>0.96796860637115</v>
+        <v>0.9679686063711518</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031924316510696</v>
+        <v>1.031924316510697</v>
       </c>
       <c r="J21">
-        <v>0.9969854200053364</v>
+        <v>0.9969854200053382</v>
       </c>
       <c r="K21">
-        <v>1.007606779466444</v>
+        <v>1.007606779466445</v>
       </c>
       <c r="L21">
-        <v>0.9936176220013431</v>
+        <v>0.9936176220013444</v>
       </c>
       <c r="M21">
-        <v>0.9835833411439949</v>
+        <v>0.9835833411439967</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1184,31 +1184,31 @@
         <v>0.9607246859013592</v>
       </c>
       <c r="D22">
-        <v>0.9886190511124838</v>
+        <v>0.9886190511124833</v>
       </c>
       <c r="E22">
-        <v>0.9737486122743686</v>
+        <v>0.9737486122743688</v>
       </c>
       <c r="F22">
-        <v>0.9617598651306087</v>
+        <v>0.961759865130609</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029943263838435</v>
+        <v>1.029943263838434</v>
       </c>
       <c r="J22">
-        <v>0.9932910200613191</v>
+        <v>0.993291020061319</v>
       </c>
       <c r="K22">
         <v>1.004419389294471</v>
       </c>
       <c r="L22">
-        <v>0.9898586900827951</v>
+        <v>0.9898586900827954</v>
       </c>
       <c r="M22">
-        <v>0.9781289334953417</v>
+        <v>0.978128933495342</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9635358102054762</v>
+        <v>0.9635358102054745</v>
       </c>
       <c r="D23">
-        <v>0.9906791075663062</v>
+        <v>0.9906791075663043</v>
       </c>
       <c r="E23">
-        <v>0.9761287218234369</v>
+        <v>0.9761287218234356</v>
       </c>
       <c r="F23">
-        <v>0.9650729696428558</v>
+        <v>0.9650729696428548</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031001495030464</v>
+        <v>1.031001495030462</v>
       </c>
       <c r="J23">
-        <v>0.9952623150784771</v>
+        <v>0.9952623150784756</v>
       </c>
       <c r="K23">
-        <v>1.006120350585939</v>
+        <v>1.006120350585937</v>
       </c>
       <c r="L23">
-        <v>0.9918642121526881</v>
+        <v>0.9918642121526867</v>
       </c>
       <c r="M23">
-        <v>0.9810398956107148</v>
+        <v>0.9810398956107136</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9742212535882072</v>
+        <v>0.974221253588207</v>
       </c>
       <c r="D24">
         <v>0.9985227536980076</v>
       </c>
       <c r="E24">
-        <v>0.985193253512053</v>
+        <v>0.9851932535120532</v>
       </c>
       <c r="F24">
-        <v>0.9776539996272811</v>
+        <v>0.9776539996272812</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.034995255222759</v>
       </c>
       <c r="J24">
-        <v>1.002749064746608</v>
+        <v>1.002749064746607</v>
       </c>
       <c r="K24">
-        <v>1.012575861196237</v>
+        <v>1.012575861196238</v>
       </c>
       <c r="L24">
-        <v>0.9994854793363666</v>
+        <v>0.9994854793363668</v>
       </c>
       <c r="M24">
-        <v>0.9920852391225644</v>
+        <v>0.9920852391225645</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9859183290726723</v>
+        <v>0.9859183290726716</v>
       </c>
       <c r="D25">
-        <v>1.007130229933026</v>
+        <v>1.007130229933025</v>
       </c>
       <c r="E25">
-        <v>0.995147880667424</v>
+        <v>0.9951478806674235</v>
       </c>
       <c r="F25">
-        <v>0.9914087437534962</v>
+        <v>0.9914087437534959</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.039306513035738</v>
       </c>
       <c r="J25">
-        <v>1.010929071904794</v>
+        <v>1.010929071904793</v>
       </c>
       <c r="K25">
-        <v>1.019618857527478</v>
+        <v>1.019618857527477</v>
       </c>
       <c r="L25">
         <v>1.007821989435425</v>
       </c>
       <c r="M25">
-        <v>1.004141908223354</v>
+        <v>1.004141908223353</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_1/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9947562285805366</v>
+        <v>0.9947602344555024</v>
       </c>
       <c r="D2">
-        <v>1.013646050690525</v>
+        <v>1.013649436211719</v>
       </c>
       <c r="E2">
-        <v>1.002691759115654</v>
+        <v>1.002695793544041</v>
       </c>
       <c r="F2">
-        <v>1.001794028785039</v>
+        <v>1.001797373004589</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042513402141915</v>
+        <v>1.042515357258304</v>
       </c>
       <c r="J2">
-        <v>1.017094919202551</v>
+        <v>1.017098803516348</v>
       </c>
       <c r="K2">
-        <v>1.024918492365076</v>
+        <v>1.024921832303908</v>
       </c>
       <c r="L2">
-        <v>1.014113720408446</v>
+        <v>1.014117699011019</v>
       </c>
       <c r="M2">
-        <v>1.01322842639368</v>
+        <v>1.013231724233376</v>
+      </c>
+      <c r="N2">
+        <v>1.013482324482658</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000920076098212</v>
+        <v>1.000921258986027</v>
       </c>
       <c r="D3">
-        <v>1.018195493096695</v>
+        <v>1.01819666126322</v>
       </c>
       <c r="E3">
-        <v>1.007964837044421</v>
+        <v>1.007966392212923</v>
       </c>
       <c r="F3">
-        <v>1.009035540969487</v>
+        <v>1.009036747432198</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044719775511564</v>
+        <v>1.044720438320338</v>
       </c>
       <c r="J3">
-        <v>1.021385690298059</v>
+        <v>1.021386841019866</v>
       </c>
       <c r="K3">
-        <v>1.028600734584858</v>
+        <v>1.028601888461569</v>
       </c>
       <c r="L3">
-        <v>1.018496810640741</v>
+        <v>1.018498346300865</v>
       </c>
       <c r="M3">
-        <v>1.019554101159205</v>
+        <v>1.019555292527785</v>
+      </c>
+      <c r="N3">
+        <v>1.016440192023279</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004800580973735</v>
+        <v>1.004800011326939</v>
       </c>
       <c r="D4">
-        <v>1.021061385732881</v>
+        <v>1.021061174368687</v>
       </c>
       <c r="E4">
-        <v>1.011289594635268</v>
+        <v>1.01128960926597</v>
       </c>
       <c r="F4">
-        <v>1.013594556106711</v>
+        <v>1.01359444446681</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046094516794447</v>
+        <v>1.046094374520902</v>
       </c>
       <c r="J4">
-        <v>1.024082279491943</v>
+        <v>1.024081724229397</v>
       </c>
       <c r="K4">
-        <v>1.030912093823074</v>
+        <v>1.030911884881563</v>
       </c>
       <c r="L4">
-        <v>1.021253647288856</v>
+        <v>1.021253661747825</v>
       </c>
       <c r="M4">
-        <v>1.023531629566123</v>
+        <v>1.023531519229273</v>
+      </c>
+      <c r="N4">
+        <v>1.018297927040615</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006407371262764</v>
+        <v>1.006406081223885</v>
       </c>
       <c r="D5">
-        <v>1.022248394310094</v>
+        <v>1.022247615247896</v>
       </c>
       <c r="E5">
-        <v>1.012667426655665</v>
+        <v>1.012666807776669</v>
       </c>
       <c r="F5">
-        <v>1.015482412591416</v>
+        <v>1.015481761110224</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046660272731789</v>
+        <v>1.046659798897811</v>
       </c>
       <c r="J5">
-        <v>1.025197675907395</v>
+        <v>1.025196417419148</v>
       </c>
       <c r="K5">
-        <v>1.031867456335752</v>
+        <v>1.031866685955508</v>
       </c>
       <c r="L5">
-        <v>1.022394505759542</v>
+        <v>1.022393893939297</v>
       </c>
       <c r="M5">
-        <v>1.025177494537442</v>
+        <v>1.025176850436155</v>
+      </c>
+      <c r="N5">
+        <v>1.01906605273272</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006675752361674</v>
+        <v>1.006674342288548</v>
       </c>
       <c r="D6">
-        <v>1.022446676951938</v>
+        <v>1.022445803263009</v>
       </c>
       <c r="E6">
-        <v>1.012897631684488</v>
+        <v>1.012896907234601</v>
       </c>
       <c r="F6">
-        <v>1.015797749746256</v>
+        <v>1.015797008425679</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046754564564557</v>
+        <v>1.046754035449344</v>
       </c>
       <c r="J6">
-        <v>1.025383909575148</v>
+        <v>1.025382533802127</v>
       </c>
       <c r="K6">
-        <v>1.032026928541029</v>
+        <v>1.032026064542229</v>
       </c>
       <c r="L6">
-        <v>1.022585022802254</v>
+        <v>1.022584306575111</v>
       </c>
       <c r="M6">
-        <v>1.02545233939246</v>
+        <v>1.025451606427024</v>
+      </c>
+      <c r="N6">
+        <v>1.019194286274803</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004822145942635</v>
+        <v>1.0048215666073</v>
       </c>
       <c r="D7">
-        <v>1.021077315528051</v>
+        <v>1.021077096531299</v>
       </c>
       <c r="E7">
-        <v>1.011308082204887</v>
+        <v>1.011308088316469</v>
       </c>
       <c r="F7">
-        <v>1.013619892711506</v>
+        <v>1.013619773803701</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046102123715704</v>
+        <v>1.046101976985429</v>
       </c>
       <c r="J7">
-        <v>1.024097254089339</v>
+        <v>1.024096689376705</v>
       </c>
       <c r="K7">
-        <v>1.030924922666581</v>
+        <v>1.030924706179062</v>
       </c>
       <c r="L7">
-        <v>1.021268961570052</v>
+        <v>1.021268967609924</v>
       </c>
       <c r="M7">
-        <v>1.02355372322948</v>
+        <v>1.023553605709006</v>
+      </c>
+      <c r="N7">
+        <v>1.018308240580895</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9968624641807906</v>
+        <v>0.9968654997944136</v>
       </c>
       <c r="D8">
-        <v>1.015200209359457</v>
+        <v>1.015202833462303</v>
       </c>
       <c r="E8">
-        <v>1.004492516058629</v>
+        <v>1.004495698708429</v>
       </c>
       <c r="F8">
-        <v>1.004268565317802</v>
+        <v>1.004271172742353</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043270320222026</v>
+        <v>1.043271831799868</v>
       </c>
       <c r="J8">
-        <v>1.018562072814124</v>
+        <v>1.018565019609081</v>
       </c>
       <c r="K8">
-        <v>1.026178146527836</v>
+        <v>1.026180736406612</v>
       </c>
       <c r="L8">
-        <v>1.015611975307342</v>
+        <v>1.01561511532942</v>
       </c>
       <c r="M8">
-        <v>1.015391024966555</v>
+        <v>1.01539359744823</v>
+      </c>
+      <c r="N8">
+        <v>1.014493955460493</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9819479848621706</v>
+        <v>0.9819580281212692</v>
       </c>
       <c r="D9">
-        <v>1.004206332038632</v>
+        <v>1.004214438276381</v>
       </c>
       <c r="E9">
-        <v>0.9917652039772107</v>
+        <v>0.9917745288737083</v>
       </c>
       <c r="F9">
-        <v>0.9867415370801327</v>
+        <v>0.9867495153357387</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037851040720033</v>
+        <v>1.037855741023058</v>
       </c>
       <c r="J9">
-        <v>1.00815471626689</v>
+        <v>1.008164386276363</v>
       </c>
       <c r="K9">
-        <v>1.017231531098359</v>
+        <v>1.017239507228808</v>
       </c>
       <c r="L9">
-        <v>1.004993313029387</v>
+        <v>1.005002483386354</v>
       </c>
       <c r="M9">
-        <v>1.000053449788752</v>
+        <v>1.000061294080731</v>
+      </c>
+      <c r="N9">
+        <v>1.007313329106871</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9713115559081046</v>
+        <v>0.9713268128356536</v>
       </c>
       <c r="D10">
-        <v>0.9963849240517881</v>
+        <v>0.9963970815511803</v>
       </c>
       <c r="E10">
-        <v>0.9827221955560372</v>
+        <v>0.9827360732235852</v>
       </c>
       <c r="F10">
-        <v>0.9742298949827275</v>
+        <v>0.9742419455896909</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033912527741871</v>
+        <v>1.033919578464397</v>
       </c>
       <c r="J10">
-        <v>1.000711524462366</v>
+        <v>1.000726123851692</v>
       </c>
       <c r="K10">
-        <v>1.010819758025728</v>
+        <v>1.010831693943291</v>
       </c>
       <c r="L10">
-        <v>0.997410574269694</v>
+        <v>0.9974241897293142</v>
       </c>
       <c r="M10">
-        <v>0.9890805649597426</v>
+        <v>0.989092382648217</v>
+      </c>
+      <c r="N10">
+        <v>1.002172626503259</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9665167475362779</v>
+        <v>0.9665344213869859</v>
       </c>
       <c r="D11">
-        <v>0.9928652252510427</v>
+        <v>0.992879252368977</v>
       </c>
       <c r="E11">
-        <v>0.9786546907301709</v>
+        <v>0.9786706732416317</v>
       </c>
       <c r="F11">
-        <v>0.9685846074522989</v>
+        <v>0.9685985687615369</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032120370712033</v>
+        <v>1.032128504733421</v>
       </c>
       <c r="J11">
-        <v>0.9973519987758616</v>
+        <v>0.9973688622332159</v>
       </c>
       <c r="K11">
-        <v>1.007922959052831</v>
+        <v>1.007936716643203</v>
       </c>
       <c r="L11">
-        <v>0.9939906961528082</v>
+        <v>0.9940063597239409</v>
       </c>
       <c r="M11">
-        <v>0.9841243279695921</v>
+        <v>0.9841380029770191</v>
+      </c>
+      <c r="N11">
+        <v>0.9998513088055756</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9647049366475977</v>
+        <v>0.9647235353320328</v>
       </c>
       <c r="D12">
-        <v>0.9915363094888925</v>
+        <v>0.9915510505606495</v>
       </c>
       <c r="E12">
-        <v>0.977119153481381</v>
+        <v>0.9771359403943675</v>
       </c>
       <c r="F12">
-        <v>0.9664504272870371</v>
+        <v>0.9664651236222089</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031440731153515</v>
+        <v>1.031449278651095</v>
       </c>
       <c r="J12">
-        <v>0.9960819804190383</v>
+        <v>0.996099706700641</v>
       </c>
       <c r="K12">
-        <v>1.006827476893203</v>
+        <v>1.006841929192247</v>
       </c>
       <c r="L12">
-        <v>0.9926982471595623</v>
+        <v>0.9927146923070576</v>
       </c>
       <c r="M12">
-        <v>0.9822499022571928</v>
+        <v>0.9822642905879386</v>
+      </c>
+      <c r="N12">
+        <v>0.9989736331776335</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9650950115714781</v>
+        <v>0.9651134105946189</v>
       </c>
       <c r="D13">
-        <v>0.9918223683435496</v>
+        <v>0.9918369553493581</v>
       </c>
       <c r="E13">
-        <v>0.9774496809257479</v>
+        <v>0.9774662942258695</v>
       </c>
       <c r="F13">
-        <v>0.9669099559491853</v>
+        <v>0.9669244934167895</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03158716343387</v>
+        <v>1.031595621715466</v>
       </c>
       <c r="J13">
-        <v>0.996355433668497</v>
+        <v>0.9963729738405539</v>
       </c>
       <c r="K13">
-        <v>1.007063367093659</v>
+        <v>1.007077669523152</v>
       </c>
       <c r="L13">
-        <v>0.9929765128684052</v>
+        <v>0.9929927893825717</v>
       </c>
       <c r="M13">
-        <v>0.9826535334491744</v>
+        <v>0.9826677676577378</v>
+      </c>
+      <c r="N13">
+        <v>0.9991626152160829</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9663676258810325</v>
+        <v>0.9663853756064169</v>
       </c>
       <c r="D14">
-        <v>0.9927558258011752</v>
+        <v>0.9927699115234201</v>
       </c>
       <c r="E14">
-        <v>0.9785282779085788</v>
+        <v>0.9785443264357669</v>
       </c>
       <c r="F14">
-        <v>0.968408974771794</v>
+        <v>0.9684229963019975</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032064481809363</v>
+        <v>1.032072649774703</v>
       </c>
       <c r="J14">
-        <v>0.9972474803695804</v>
+        <v>0.9972644146875198</v>
       </c>
       <c r="K14">
-        <v>1.007832812148903</v>
+        <v>1.007846626783235</v>
       </c>
       <c r="L14">
-        <v>0.9938843240397758</v>
+        <v>0.9939000517771325</v>
       </c>
       <c r="M14">
-        <v>0.9839700865018142</v>
+        <v>0.9839838199763755</v>
+      </c>
+      <c r="N14">
+        <v>0.9997790815878128</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.967147567501302</v>
+        <v>0.9671649208637165</v>
       </c>
       <c r="D15">
-        <v>0.9933280553248798</v>
+        <v>0.9933418348431142</v>
       </c>
       <c r="E15">
-        <v>0.9791895064170816</v>
+        <v>0.979205210041568</v>
       </c>
       <c r="F15">
-        <v>0.9693275332827042</v>
+        <v>0.9693412403841825</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032356695295941</v>
+        <v>1.032364685897915</v>
       </c>
       <c r="J15">
-        <v>0.9977941142352339</v>
+        <v>0.9978106782388229</v>
       </c>
       <c r="K15">
-        <v>1.00830426700497</v>
+        <v>1.008317783549674</v>
       </c>
       <c r="L15">
-        <v>0.994440668413287</v>
+        <v>0.9944560608638622</v>
       </c>
       <c r="M15">
-        <v>0.9847767392944621</v>
+        <v>0.9847901674496397</v>
+      </c>
+      <c r="N15">
+        <v>1.000156826310102</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9716255885505324</v>
+        <v>0.97164068868932</v>
       </c>
       <c r="D16">
-        <v>0.9966155835590267</v>
+        <v>0.9966276195860502</v>
       </c>
       <c r="E16">
-        <v>0.982988788418004</v>
+        <v>0.9830025294121081</v>
       </c>
       <c r="F16">
-        <v>0.9745995041084561</v>
+        <v>0.9746114312712717</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034029563394561</v>
+        <v>1.034036543704993</v>
       </c>
       <c r="J16">
-        <v>1.000931473310888</v>
+        <v>1.000945925367024</v>
       </c>
       <c r="K16">
-        <v>1.01100935643416</v>
+        <v>1.011021173870698</v>
       </c>
       <c r="L16">
-        <v>0.9976345280663785</v>
+        <v>0.9976480103856266</v>
       </c>
       <c r="M16">
-        <v>0.9894049558457032</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9894166533874017</v>
+      </c>
+      <c r="N16">
+        <v>1.002324583814071</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9743822870073977</v>
+        <v>0.9743960184916607</v>
       </c>
       <c r="D17">
-        <v>0.9986411100131203</v>
+        <v>0.9986520847125483</v>
       </c>
       <c r="E17">
-        <v>0.9853300711442349</v>
+        <v>0.9853426184238849</v>
       </c>
       <c r="F17">
-        <v>0.977843467847848</v>
+        <v>0.9778543200256273</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03505506576987</v>
+        <v>1.035061430720614</v>
       </c>
       <c r="J17">
-        <v>1.002861801713438</v>
+        <v>1.002874965270398</v>
       </c>
       <c r="K17">
-        <v>1.012673007518462</v>
+        <v>1.012683789114994</v>
       </c>
       <c r="L17">
-        <v>0.9996003012680234</v>
+        <v>0.9996126199440665</v>
       </c>
       <c r="M17">
-        <v>0.9922514637335264</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9922621142220229</v>
+      </c>
+      <c r="N17">
+        <v>1.003658086160851</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9759721457860241</v>
+        <v>0.9759850940979266</v>
       </c>
       <c r="D18">
-        <v>0.9998098493684551</v>
+        <v>0.9998202159855466</v>
       </c>
       <c r="E18">
-        <v>0.9866811903713056</v>
+        <v>0.9866930540656857</v>
       </c>
       <c r="F18">
-        <v>0.9797138761387262</v>
+        <v>0.9797241152724062</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035644920649471</v>
+        <v>1.035650932902814</v>
       </c>
       <c r="J18">
-        <v>1.003974670947635</v>
+        <v>1.003987095272526</v>
       </c>
       <c r="K18">
-        <v>1.013631865867364</v>
+        <v>1.013642053457495</v>
       </c>
       <c r="L18">
-        <v>1.000733853611027</v>
+        <v>1.000745505283897</v>
       </c>
       <c r="M18">
-        <v>0.993892209719821</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9939022624623325</v>
+      </c>
+      <c r="N18">
+        <v>1.004426775841377</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9765112485109122</v>
+        <v>0.9765239322619472</v>
       </c>
       <c r="D19">
-        <v>1.00020624716736</v>
+        <v>1.000216408244821</v>
       </c>
       <c r="E19">
-        <v>0.9871394793020051</v>
+        <v>0.9871511119933035</v>
       </c>
       <c r="F19">
-        <v>0.9803480366425912</v>
+        <v>0.980358069027001</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035844663774521</v>
+        <v>1.035850556789416</v>
       </c>
       <c r="J19">
-        <v>1.004351961954091</v>
+        <v>1.004364136244486</v>
       </c>
       <c r="K19">
-        <v>1.013956897146392</v>
+        <v>1.013966883867447</v>
       </c>
       <c r="L19">
-        <v>1.001118199182396</v>
+        <v>1.001129625350238</v>
       </c>
       <c r="M19">
-        <v>0.9944484177761924</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9944582688250121</v>
+      </c>
+      <c r="N19">
+        <v>1.004687363961188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9740884054981963</v>
+        <v>0.9741022822389555</v>
       </c>
       <c r="D20">
-        <v>0.9984251162196254</v>
+        <v>0.9984362036400097</v>
       </c>
       <c r="E20">
-        <v>0.9850803875272379</v>
+        <v>0.9850930615517884</v>
       </c>
       <c r="F20">
-        <v>0.9774976909905253</v>
+        <v>0.9775086570371714</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03494590423026</v>
+        <v>1.034952334550344</v>
       </c>
       <c r="J20">
-        <v>1.002656057605167</v>
+        <v>1.002669358114749</v>
       </c>
       <c r="K20">
-        <v>1.012495714703043</v>
+        <v>1.012506606368958</v>
       </c>
       <c r="L20">
-        <v>0.9993907535248421</v>
+        <v>0.999403195820074</v>
       </c>
       <c r="M20">
-        <v>0.9919481033174662</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9919588647827475</v>
+      </c>
+      <c r="N20">
+        <v>1.003515964883232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9659937436107048</v>
+        <v>0.9660116837628228</v>
       </c>
       <c r="D21">
-        <v>0.992481553983771</v>
+        <v>0.9924957867644028</v>
       </c>
       <c r="E21">
-        <v>0.9782113555350064</v>
+        <v>0.9782275697285493</v>
       </c>
       <c r="F21">
-        <v>0.9679686063711518</v>
+        <v>0.9679827791053021</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031924316510697</v>
+        <v>1.031932569649834</v>
       </c>
       <c r="J21">
-        <v>0.9969854200053382</v>
+        <v>0.9970025321081848</v>
       </c>
       <c r="K21">
-        <v>1.007606779466445</v>
+        <v>1.007620737228426</v>
       </c>
       <c r="L21">
-        <v>0.9936176220013444</v>
+        <v>0.9936335107450335</v>
       </c>
       <c r="M21">
-        <v>0.9835833411439967</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9835972213998356</v>
+      </c>
+      <c r="N21">
+        <v>0.9995979832174621</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9607246859013592</v>
+        <v>0.9607453395037144</v>
       </c>
       <c r="D22">
-        <v>0.9886190511124833</v>
+        <v>0.9886353756183379</v>
       </c>
       <c r="E22">
-        <v>0.9737486122743688</v>
+        <v>0.973767184438894</v>
       </c>
       <c r="F22">
-        <v>0.961759865130609</v>
+        <v>0.9617762024423683</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029943263838434</v>
+        <v>1.029952727988034</v>
       </c>
       <c r="J22">
-        <v>0.993291020061319</v>
+        <v>0.9933106565302109</v>
       </c>
       <c r="K22">
-        <v>1.004419389294471</v>
+        <v>1.004435380523534</v>
       </c>
       <c r="L22">
-        <v>0.9898586900827954</v>
+        <v>0.9898768675882403</v>
       </c>
       <c r="M22">
-        <v>0.978128933495342</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9781449120341373</v>
+      </c>
+      <c r="N22">
+        <v>0.9970446463629699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9635358102054745</v>
+        <v>0.9635550091365992</v>
       </c>
       <c r="D23">
-        <v>0.9906791075663043</v>
+        <v>0.9906943115815335</v>
       </c>
       <c r="E23">
-        <v>0.9761287218234356</v>
+        <v>0.9761460305110233</v>
       </c>
       <c r="F23">
-        <v>0.9650729696428548</v>
+        <v>0.9650881441962568</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031001495030462</v>
+        <v>1.031010310578289</v>
       </c>
       <c r="J23">
-        <v>0.9952623150784756</v>
+        <v>0.9952806003205452</v>
       </c>
       <c r="K23">
-        <v>1.006120350585937</v>
+        <v>1.006135253075662</v>
       </c>
       <c r="L23">
-        <v>0.9918642121526867</v>
+        <v>0.9918811639335495</v>
       </c>
       <c r="M23">
-        <v>0.9810398956107136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.981054747694017</v>
+      </c>
+      <c r="N23">
+        <v>0.9984071485311715</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.974221253588207</v>
+        <v>0.9742350646472505</v>
       </c>
       <c r="D24">
-        <v>0.9985227536980076</v>
+        <v>0.9985337901508957</v>
       </c>
       <c r="E24">
-        <v>0.9851932535120532</v>
+        <v>0.9852058702270146</v>
       </c>
       <c r="F24">
-        <v>0.9776539996272812</v>
+        <v>0.9776649141785303</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034995255222759</v>
+        <v>1.035001655986087</v>
       </c>
       <c r="J24">
-        <v>1.002749064746607</v>
+        <v>1.002762303335273</v>
       </c>
       <c r="K24">
-        <v>1.012575861196238</v>
+        <v>1.012586703095218</v>
       </c>
       <c r="L24">
-        <v>0.9994854793363668</v>
+        <v>0.999497865737327</v>
       </c>
       <c r="M24">
-        <v>0.9920852391225645</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9920959504023069</v>
+      </c>
+      <c r="N24">
+        <v>1.003580211471531</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9859183290726716</v>
+        <v>0.9859264744206272</v>
       </c>
       <c r="D25">
-        <v>1.007130229933025</v>
+        <v>1.007136855450093</v>
       </c>
       <c r="E25">
-        <v>0.9951478806674235</v>
+        <v>0.9951555444012019</v>
       </c>
       <c r="F25">
-        <v>0.9914087437534959</v>
+        <v>0.9914152559622098</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039306513035738</v>
+        <v>1.03931035308391</v>
       </c>
       <c r="J25">
-        <v>1.010929071904793</v>
+        <v>1.010936932065382</v>
       </c>
       <c r="K25">
-        <v>1.019618857527477</v>
+        <v>1.019625382041413</v>
       </c>
       <c r="L25">
-        <v>1.007821989435425</v>
+        <v>1.007829532711779</v>
       </c>
       <c r="M25">
-        <v>1.004141908223353</v>
+        <v>1.004148317082614</v>
+      </c>
+      <c r="N25">
+        <v>1.009228468102629</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_1/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9947602344555024</v>
+        <v>1.035562142003527</v>
       </c>
       <c r="D2">
-        <v>1.013649436211719</v>
+        <v>1.05366077198098</v>
       </c>
       <c r="E2">
-        <v>1.002695793544041</v>
+        <v>1.047394449394879</v>
       </c>
       <c r="F2">
-        <v>1.001797373004589</v>
+        <v>1.060185208272688</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042515357258304</v>
+        <v>1.066208702889948</v>
       </c>
       <c r="J2">
-        <v>1.017098803516348</v>
+        <v>1.056728838731306</v>
       </c>
       <c r="K2">
-        <v>1.024921832303908</v>
+        <v>1.064419917216442</v>
       </c>
       <c r="L2">
-        <v>1.014117699011019</v>
+        <v>1.05823075053229</v>
       </c>
       <c r="M2">
-        <v>1.013231724233376</v>
+        <v>1.070865222679165</v>
       </c>
       <c r="N2">
-        <v>1.013482324482658</v>
+        <v>1.058229514890796</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000921258986027</v>
+        <v>1.042097056301426</v>
       </c>
       <c r="D3">
-        <v>1.01819666126322</v>
+        <v>1.05887116153468</v>
       </c>
       <c r="E3">
-        <v>1.007966392212923</v>
+        <v>1.052927347934101</v>
       </c>
       <c r="F3">
-        <v>1.009036747432198</v>
+        <v>1.06586146068407</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044720438320338</v>
+        <v>1.068681807350347</v>
       </c>
       <c r="J3">
-        <v>1.021386841019866</v>
+        <v>1.061502381193793</v>
       </c>
       <c r="K3">
-        <v>1.028601888461569</v>
+        <v>1.068802363844491</v>
       </c>
       <c r="L3">
-        <v>1.018498346300865</v>
+        <v>1.06292500441486</v>
       </c>
       <c r="M3">
-        <v>1.019555292527785</v>
+        <v>1.075715673367651</v>
       </c>
       <c r="N3">
-        <v>1.016440192023279</v>
+        <v>1.063009836331113</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004800011326939</v>
+        <v>1.0462162338506</v>
       </c>
       <c r="D4">
-        <v>1.021061174368687</v>
+        <v>1.062157437874236</v>
       </c>
       <c r="E4">
-        <v>1.01128960926597</v>
+        <v>1.056419771236066</v>
       </c>
       <c r="F4">
-        <v>1.01359444446681</v>
+        <v>1.069444498801934</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046094374520902</v>
+        <v>1.070228044980517</v>
       </c>
       <c r="J4">
-        <v>1.024081724229397</v>
+        <v>1.064507309601301</v>
       </c>
       <c r="K4">
-        <v>1.030911884881563</v>
+        <v>1.071559378943065</v>
       </c>
       <c r="L4">
-        <v>1.021253661747825</v>
+        <v>1.065881801854772</v>
       </c>
       <c r="M4">
-        <v>1.023531519229273</v>
+        <v>1.078771256950416</v>
       </c>
       <c r="N4">
-        <v>1.018297927040615</v>
+        <v>1.066019032081629</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006406081223885</v>
+        <v>1.047923019223018</v>
       </c>
       <c r="D5">
-        <v>1.022247615247896</v>
+        <v>1.06351951091292</v>
       </c>
       <c r="E5">
-        <v>1.012666807776669</v>
+        <v>1.057867954554192</v>
       </c>
       <c r="F5">
-        <v>1.015481761110224</v>
+        <v>1.07093028301574</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046659798897811</v>
+        <v>1.070865644819624</v>
       </c>
       <c r="J5">
-        <v>1.025196417419148</v>
+        <v>1.065751395034683</v>
       </c>
       <c r="K5">
-        <v>1.031866685955508</v>
+        <v>1.072700396752584</v>
       </c>
       <c r="L5">
-        <v>1.022393893939297</v>
+        <v>1.067106379107508</v>
       </c>
       <c r="M5">
-        <v>1.025176850436155</v>
+        <v>1.080036837979621</v>
       </c>
       <c r="N5">
-        <v>1.01906605273272</v>
+        <v>1.067264884259026</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006674342288548</v>
+        <v>1.048208169903165</v>
       </c>
       <c r="D6">
-        <v>1.022445803263009</v>
+        <v>1.063747092331104</v>
       </c>
       <c r="E6">
-        <v>1.012896907234601</v>
+        <v>1.058109963280089</v>
       </c>
       <c r="F6">
-        <v>1.015797008425679</v>
+        <v>1.071178576708526</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046754035449344</v>
+        <v>1.070971985013269</v>
       </c>
       <c r="J6">
-        <v>1.025382533802127</v>
+        <v>1.065959182167523</v>
       </c>
       <c r="K6">
-        <v>1.032026064542229</v>
+        <v>1.072890943943492</v>
       </c>
       <c r="L6">
-        <v>1.022584306575111</v>
+        <v>1.067310932375329</v>
       </c>
       <c r="M6">
-        <v>1.025451606427024</v>
+        <v>1.080248245701689</v>
       </c>
       <c r="N6">
-        <v>1.019194286274803</v>
+        <v>1.067472966473428</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.0048215666073</v>
+        <v>1.046239136302975</v>
       </c>
       <c r="D7">
-        <v>1.021077096531299</v>
+        <v>1.062175713325581</v>
       </c>
       <c r="E7">
-        <v>1.011308088316469</v>
+        <v>1.056439199405379</v>
       </c>
       <c r="F7">
-        <v>1.013619773803701</v>
+        <v>1.069464431310267</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046101976985429</v>
+        <v>1.07023661286475</v>
       </c>
       <c r="J7">
-        <v>1.024096689376705</v>
+        <v>1.064524007385526</v>
       </c>
       <c r="K7">
-        <v>1.030924706179062</v>
+        <v>1.071574695093088</v>
       </c>
       <c r="L7">
-        <v>1.021268967609924</v>
+        <v>1.065898236159459</v>
       </c>
       <c r="M7">
-        <v>1.023553605709006</v>
+        <v>1.078788241189509</v>
       </c>
       <c r="N7">
-        <v>1.018308240580895</v>
+        <v>1.066035753578624</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9968654997944136</v>
+        <v>1.037794076575942</v>
       </c>
       <c r="D8">
-        <v>1.015202833462303</v>
+        <v>1.05543986068964</v>
       </c>
       <c r="E8">
-        <v>1.004495698708429</v>
+        <v>1.049283090511031</v>
       </c>
       <c r="F8">
-        <v>1.004271172742353</v>
+        <v>1.062122752961854</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043271831799868</v>
+        <v>1.067055996153113</v>
       </c>
       <c r="J8">
-        <v>1.018565019609081</v>
+        <v>1.058360003776512</v>
       </c>
       <c r="K8">
-        <v>1.026180736406612</v>
+        <v>1.065917793958876</v>
       </c>
       <c r="L8">
-        <v>1.01561511532942</v>
+        <v>1.05983444120887</v>
       </c>
       <c r="M8">
-        <v>1.01539359744823</v>
+        <v>1.072522186586898</v>
       </c>
       <c r="N8">
-        <v>1.014493955460493</v>
+        <v>1.059862996377464</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9819580281212692</v>
+        <v>1.022013606439838</v>
       </c>
       <c r="D9">
-        <v>1.004214438276381</v>
+        <v>1.042873135372907</v>
       </c>
       <c r="E9">
-        <v>0.9917745288737083</v>
+        <v>1.035953765011342</v>
       </c>
       <c r="F9">
-        <v>0.9867495153357387</v>
+        <v>1.04844904019633</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037855741023058</v>
+        <v>1.061013352733154</v>
       </c>
       <c r="J9">
-        <v>1.008164386276363</v>
+        <v>1.046812258567344</v>
       </c>
       <c r="K9">
-        <v>1.017239507228808</v>
+        <v>1.055306918209281</v>
       </c>
       <c r="L9">
-        <v>1.005002483386354</v>
+        <v>1.048489258190554</v>
       </c>
       <c r="M9">
-        <v>1.000061294080731</v>
+        <v>1.060802098111715</v>
       </c>
       <c r="N9">
-        <v>1.007313329106871</v>
+        <v>1.048298852045553</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9713268128356536</v>
+        <v>1.010793623291356</v>
       </c>
       <c r="D10">
-        <v>0.9963970815511803</v>
+        <v>1.03395765167608</v>
       </c>
       <c r="E10">
-        <v>0.9827360732235852</v>
+        <v>1.026511030013616</v>
       </c>
       <c r="F10">
-        <v>0.9742419455896909</v>
+        <v>1.0387635521575</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033919578464397</v>
+        <v>1.056653199825338</v>
       </c>
       <c r="J10">
-        <v>1.000726123851692</v>
+        <v>1.038585447693936</v>
       </c>
       <c r="K10">
-        <v>1.010831693943291</v>
+        <v>1.047739713110245</v>
       </c>
       <c r="L10">
-        <v>0.9974241897293142</v>
+        <v>1.040417567744868</v>
       </c>
       <c r="M10">
-        <v>0.989092382648217</v>
+        <v>1.052466497221535</v>
       </c>
       <c r="N10">
-        <v>1.002172626503259</v>
+        <v>1.040060358157077</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9665344213869859</v>
+        <v>1.005745092732836</v>
       </c>
       <c r="D11">
-        <v>0.992879252368977</v>
+        <v>1.029952172517451</v>
       </c>
       <c r="E11">
-        <v>0.9786706732416317</v>
+        <v>1.02227175279823</v>
       </c>
       <c r="F11">
-        <v>0.9685985687615369</v>
+        <v>1.034415670539235</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032128504733421</v>
+        <v>1.05467707538933</v>
       </c>
       <c r="J11">
-        <v>0.9973688622332159</v>
+        <v>1.034880806919794</v>
       </c>
       <c r="K11">
-        <v>1.007936716643203</v>
+        <v>1.044330508659932</v>
       </c>
       <c r="L11">
-        <v>0.9940063597239409</v>
+        <v>1.036785533600569</v>
       </c>
       <c r="M11">
-        <v>0.9841380029770191</v>
+        <v>1.048716487922885</v>
       </c>
       <c r="N11">
-        <v>0.9998513088055756</v>
+        <v>1.036350456368108</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9647235353320328</v>
+        <v>1.003838941191959</v>
       </c>
       <c r="D12">
-        <v>0.9915510505606495</v>
+        <v>1.028440900630653</v>
       </c>
       <c r="E12">
-        <v>0.9771359403943675</v>
+        <v>1.020672714348572</v>
       </c>
       <c r="F12">
-        <v>0.9664651236222089</v>
+        <v>1.032775732271754</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031449278651095</v>
+        <v>1.053928905397477</v>
       </c>
       <c r="J12">
-        <v>0.996099706700641</v>
+        <v>1.033481714100566</v>
       </c>
       <c r="K12">
-        <v>1.006841929192247</v>
+        <v>1.043042775608396</v>
       </c>
       <c r="L12">
-        <v>0.9927146923070576</v>
+        <v>1.035414292956245</v>
       </c>
       <c r="M12">
-        <v>0.9822642905879386</v>
+        <v>1.047300833684429</v>
       </c>
       <c r="N12">
-        <v>0.9989736331776335</v>
+        <v>1.034949376676598</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9651134105946189</v>
+        <v>1.004249255704509</v>
       </c>
       <c r="D13">
-        <v>0.9918369553493581</v>
+        <v>1.028766163909759</v>
       </c>
       <c r="E13">
-        <v>0.9774662942258695</v>
+        <v>1.021016847336895</v>
       </c>
       <c r="F13">
-        <v>0.9669244934167895</v>
+        <v>1.03312866431609</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031595621715466</v>
+        <v>1.05409004629004</v>
       </c>
       <c r="J13">
-        <v>0.9963729738405539</v>
+        <v>1.033782894302516</v>
       </c>
       <c r="K13">
-        <v>1.007077669523152</v>
+        <v>1.043319992862604</v>
       </c>
       <c r="L13">
-        <v>0.9929927893825717</v>
+        <v>1.035709457679473</v>
       </c>
       <c r="M13">
-        <v>0.9826677676577378</v>
+        <v>1.047605552704039</v>
       </c>
       <c r="N13">
-        <v>0.9991626152160829</v>
+        <v>1.035250984588981</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9663853756064169</v>
+        <v>1.005588174407092</v>
       </c>
       <c r="D14">
-        <v>0.9927699115234201</v>
+        <v>1.029827739154063</v>
       </c>
       <c r="E14">
-        <v>0.9785443264357669</v>
+        <v>1.022140084068323</v>
       </c>
       <c r="F14">
-        <v>0.9684229963019975</v>
+        <v>1.034280632640768</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032072649774703</v>
+        <v>1.054615525647656</v>
       </c>
       <c r="J14">
-        <v>0.9972644146875198</v>
+        <v>1.034765637226492</v>
       </c>
       <c r="K14">
-        <v>1.007846626783235</v>
+        <v>1.044224510019082</v>
       </c>
       <c r="L14">
-        <v>0.9939000517771325</v>
+        <v>1.036672647758732</v>
       </c>
       <c r="M14">
-        <v>0.9839838199763755</v>
+        <v>1.048599943146863</v>
       </c>
       <c r="N14">
-        <v>0.9997790815878128</v>
+        <v>1.036235123120631</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9671649208637165</v>
+        <v>1.006408957646845</v>
       </c>
       <c r="D15">
-        <v>0.9933418348431142</v>
+        <v>1.030478649213906</v>
       </c>
       <c r="E15">
-        <v>0.979205210041568</v>
+        <v>1.022828860312925</v>
       </c>
       <c r="F15">
-        <v>0.9693412403841825</v>
+        <v>1.034987036155278</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032364685897915</v>
+        <v>1.054937387166009</v>
       </c>
       <c r="J15">
-        <v>0.9978106782388229</v>
+        <v>1.035368034812264</v>
       </c>
       <c r="K15">
-        <v>1.008317783549674</v>
+        <v>1.044778929638987</v>
       </c>
       <c r="L15">
-        <v>0.9944560608638622</v>
+        <v>1.037263117277145</v>
       </c>
       <c r="M15">
-        <v>0.9847901674496397</v>
+        <v>1.04920955659472</v>
       </c>
       <c r="N15">
-        <v>1.000156826310102</v>
+        <v>1.036838376180071</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.97164068868932</v>
+        <v>1.011124477321229</v>
       </c>
       <c r="D16">
-        <v>0.9966276195860502</v>
+        <v>1.034220288079419</v>
       </c>
       <c r="E16">
-        <v>0.9830025294121081</v>
+        <v>1.026789058925431</v>
       </c>
       <c r="F16">
-        <v>0.9746114312712717</v>
+        <v>1.039048712338858</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034036543704993</v>
+        <v>1.05678241630393</v>
       </c>
       <c r="J16">
-        <v>1.000945925367024</v>
+        <v>1.038828177217804</v>
       </c>
       <c r="K16">
-        <v>1.011021173870698</v>
+        <v>1.047963054533275</v>
       </c>
       <c r="L16">
-        <v>0.9976480103856266</v>
+        <v>1.040655598626864</v>
       </c>
       <c r="M16">
-        <v>0.9894166533874017</v>
+        <v>1.05271227673344</v>
       </c>
       <c r="N16">
-        <v>1.002324583814071</v>
+        <v>1.040303432384711</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9743960184916607</v>
+        <v>1.014029909554456</v>
       </c>
       <c r="D17">
-        <v>0.9986520847125483</v>
+        <v>1.036527367949992</v>
       </c>
       <c r="E17">
-        <v>0.9853426184238849</v>
+        <v>1.029231698465563</v>
       </c>
       <c r="F17">
-        <v>0.9778543200256273</v>
+        <v>1.041554047913328</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035061430720614</v>
+        <v>1.057915543814749</v>
       </c>
       <c r="J17">
-        <v>1.002874965270398</v>
+        <v>1.040959414247335</v>
       </c>
       <c r="K17">
-        <v>1.012683789114994</v>
+        <v>1.04992388087518</v>
       </c>
       <c r="L17">
-        <v>0.9996126199440665</v>
+        <v>1.042745893746907</v>
       </c>
       <c r="M17">
-        <v>0.9922621142220229</v>
+        <v>1.054870706413217</v>
       </c>
       <c r="N17">
-        <v>1.003658086160851</v>
+        <v>1.04243769601528</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9759850940979266</v>
+        <v>1.015706416924383</v>
       </c>
       <c r="D18">
-        <v>0.9998202159855466</v>
+        <v>1.03785917843931</v>
       </c>
       <c r="E18">
-        <v>0.9866930540656857</v>
+        <v>1.030642055603761</v>
       </c>
       <c r="F18">
-        <v>0.9797241152724062</v>
+        <v>1.043000640305688</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035650932902814</v>
+        <v>1.058568038785928</v>
       </c>
       <c r="J18">
-        <v>1.003987095272526</v>
+        <v>1.042188910484779</v>
       </c>
       <c r="K18">
-        <v>1.013642053457495</v>
+        <v>1.05105491652242</v>
       </c>
       <c r="L18">
-        <v>1.000745505283897</v>
+        <v>1.043952029158198</v>
       </c>
       <c r="M18">
-        <v>0.9939022624623325</v>
+        <v>1.056116229184451</v>
       </c>
       <c r="N18">
-        <v>1.004426775841377</v>
+        <v>1.043668938278407</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9765239322619472</v>
+        <v>1.016275045253023</v>
       </c>
       <c r="D19">
-        <v>1.000216408244821</v>
+        <v>1.038310986736619</v>
       </c>
       <c r="E19">
-        <v>0.9871511119933035</v>
+        <v>1.03112056037485</v>
       </c>
       <c r="F19">
-        <v>0.980358069027001</v>
+        <v>1.043491444667585</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035850556789416</v>
+        <v>1.058789117272164</v>
       </c>
       <c r="J19">
-        <v>1.004364136244486</v>
+        <v>1.042605873879433</v>
       </c>
       <c r="K19">
-        <v>1.013966883867447</v>
+        <v>1.051438462175755</v>
       </c>
       <c r="L19">
-        <v>1.001129625350238</v>
+        <v>1.044361113425408</v>
       </c>
       <c r="M19">
-        <v>0.9944582688250121</v>
+        <v>1.056538684466696</v>
       </c>
       <c r="N19">
-        <v>1.004687363961188</v>
+        <v>1.044086493808907</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9741022822389555</v>
+        <v>1.013720080849763</v>
       </c>
       <c r="D20">
-        <v>0.9984362036400097</v>
+        <v>1.036281286294984</v>
       </c>
       <c r="E20">
-        <v>0.9850930615517884</v>
+        <v>1.028971127313567</v>
       </c>
       <c r="F20">
-        <v>0.9775086570371714</v>
+        <v>1.041286784888</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034952334550344</v>
+        <v>1.057794849101113</v>
       </c>
       <c r="J20">
-        <v>1.002669358114749</v>
+        <v>1.040732172542922</v>
       </c>
       <c r="K20">
-        <v>1.012506606368958</v>
+        <v>1.049714824695682</v>
       </c>
       <c r="L20">
-        <v>0.999403195820074</v>
+        <v>1.042522990495917</v>
       </c>
       <c r="M20">
-        <v>0.9919588647827475</v>
+        <v>1.054640529876044</v>
       </c>
       <c r="N20">
-        <v>1.003515964883232</v>
+        <v>1.042210131601582</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9660116837628228</v>
+        <v>1.005194769237193</v>
       </c>
       <c r="D21">
-        <v>0.9924957867644028</v>
+        <v>1.029515793587676</v>
       </c>
       <c r="E21">
-        <v>0.9782275697285493</v>
+        <v>1.02181000706621</v>
       </c>
       <c r="F21">
-        <v>0.9679827791053021</v>
+        <v>1.033942110636928</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031932569649834</v>
+        <v>1.054461183424475</v>
       </c>
       <c r="J21">
-        <v>0.9970025321081848</v>
+        <v>1.034476893509125</v>
       </c>
       <c r="K21">
-        <v>1.007620737228426</v>
+        <v>1.043958755824368</v>
       </c>
       <c r="L21">
-        <v>0.9936335107450335</v>
+        <v>1.036389636928374</v>
       </c>
       <c r="M21">
-        <v>0.9835972213998356</v>
+        <v>1.048307761249707</v>
       </c>
       <c r="N21">
-        <v>0.9995979832174621</v>
+        <v>1.035945969354066</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9607453395037144</v>
+        <v>0.9996544305621184</v>
       </c>
       <c r="D22">
-        <v>0.9886353756183379</v>
+        <v>1.025125373715212</v>
       </c>
       <c r="E22">
-        <v>0.973767184438894</v>
+        <v>1.017165440411949</v>
       </c>
       <c r="F22">
-        <v>0.9617762024423683</v>
+        <v>1.029178880531508</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029952727988034</v>
+        <v>1.052282789970469</v>
       </c>
       <c r="J22">
-        <v>0.9933106565302109</v>
+        <v>1.030409798379525</v>
       </c>
       <c r="K22">
-        <v>1.004435380523534</v>
+        <v>1.040215000439431</v>
       </c>
       <c r="L22">
-        <v>0.9898768675882403</v>
+        <v>1.032404347582799</v>
       </c>
       <c r="M22">
-        <v>0.9781449120341373</v>
+        <v>1.04419364378424</v>
       </c>
       <c r="N22">
-        <v>0.9970446463629699</v>
+        <v>1.03187309848288</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9635550091365992</v>
+        <v>1.002609389011087</v>
       </c>
       <c r="D23">
-        <v>0.9906943115815335</v>
+        <v>1.027466380452041</v>
       </c>
       <c r="E23">
-        <v>0.9761460305110233</v>
+        <v>1.019641722636333</v>
       </c>
       <c r="F23">
-        <v>0.9650881441962568</v>
+        <v>1.031718389643749</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031010310578289</v>
+        <v>1.053445735156889</v>
       </c>
       <c r="J23">
-        <v>0.9952806003205452</v>
+        <v>1.032579151183759</v>
       </c>
       <c r="K23">
-        <v>1.006135253075662</v>
+        <v>1.042211994309083</v>
       </c>
       <c r="L23">
-        <v>0.9918811639335495</v>
+        <v>1.034529821683713</v>
       </c>
       <c r="M23">
-        <v>0.981054747694017</v>
+        <v>1.046387752048117</v>
       </c>
       <c r="N23">
-        <v>0.9984071485311715</v>
+        <v>1.034045532016924</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9742350646472505</v>
+        <v>1.013860135120816</v>
       </c>
       <c r="D24">
-        <v>0.9985337901508957</v>
+        <v>1.036392522741805</v>
       </c>
       <c r="E24">
-        <v>0.9852058702270146</v>
+        <v>1.029088912549415</v>
       </c>
       <c r="F24">
-        <v>0.9776649141785303</v>
+        <v>1.041407594923826</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035001655986087</v>
+        <v>1.05784941185925</v>
       </c>
       <c r="J24">
-        <v>1.002762303335273</v>
+        <v>1.040834895251223</v>
       </c>
       <c r="K24">
-        <v>1.012586703095218</v>
+        <v>1.049809327263002</v>
       </c>
       <c r="L24">
-        <v>0.999497865737327</v>
+        <v>1.042623751242144</v>
       </c>
       <c r="M24">
-        <v>0.9920959504023069</v>
+        <v>1.054744578199672</v>
       </c>
       <c r="N24">
-        <v>1.003580211471531</v>
+        <v>1.042313000187911</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9859264744206272</v>
+        <v>1.026209032054894</v>
       </c>
       <c r="D25">
-        <v>1.007136855450093</v>
+        <v>1.046211265170613</v>
       </c>
       <c r="E25">
-        <v>0.9951555444012019</v>
+        <v>1.039492049995123</v>
       </c>
       <c r="F25">
-        <v>0.9914152559622098</v>
+        <v>1.05207856196408</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03931035308391</v>
+        <v>1.062631046365723</v>
       </c>
       <c r="J25">
-        <v>1.010936932065382</v>
+        <v>1.049885443229615</v>
       </c>
       <c r="K25">
-        <v>1.019625382041413</v>
+        <v>1.05813219534767</v>
       </c>
       <c r="L25">
-        <v>1.007829532711779</v>
+        <v>1.051506744878208</v>
       </c>
       <c r="M25">
-        <v>1.004148317082614</v>
+        <v>1.063918849118764</v>
       </c>
       <c r="N25">
-        <v>1.009228468102629</v>
+        <v>1.051376400982545</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_1/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035562142003527</v>
+        <v>0.9926638295638521</v>
       </c>
       <c r="D2">
-        <v>1.05366077198098</v>
+        <v>1.016480758739908</v>
       </c>
       <c r="E2">
-        <v>1.047394449394879</v>
+        <v>1.000142464331527</v>
       </c>
       <c r="F2">
-        <v>1.060185208272688</v>
+        <v>1.022905854508824</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.066208702889948</v>
+        <v>1.042498470777744</v>
       </c>
       <c r="J2">
-        <v>1.056728838731306</v>
+        <v>1.015066200403764</v>
       </c>
       <c r="K2">
-        <v>1.064419917216442</v>
+        <v>1.027715167685422</v>
       </c>
       <c r="L2">
-        <v>1.05823075053229</v>
+        <v>1.011599814756106</v>
       </c>
       <c r="M2">
-        <v>1.070865222679165</v>
+        <v>1.03405503773081</v>
       </c>
       <c r="N2">
-        <v>1.058229514890796</v>
+        <v>1.008988291245211</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042097056301426</v>
+        <v>0.9964842993361193</v>
       </c>
       <c r="D3">
-        <v>1.05887116153468</v>
+        <v>1.019232377414398</v>
       </c>
       <c r="E3">
-        <v>1.052927347934101</v>
+        <v>1.003134157379896</v>
       </c>
       <c r="F3">
-        <v>1.06586146068407</v>
+        <v>1.026295852950105</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.068681807350347</v>
+        <v>1.04327358494968</v>
       </c>
       <c r="J3">
-        <v>1.061502381193793</v>
+        <v>1.017071266904597</v>
       </c>
       <c r="K3">
-        <v>1.068802363844491</v>
+        <v>1.029624951043346</v>
       </c>
       <c r="L3">
-        <v>1.06292500441486</v>
+        <v>1.013727092536007</v>
       </c>
       <c r="M3">
-        <v>1.075715673367651</v>
+        <v>1.036602975619301</v>
       </c>
       <c r="N3">
-        <v>1.063009836331113</v>
+        <v>1.009664544576546</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.0462162338506</v>
+        <v>0.9989126979609387</v>
       </c>
       <c r="D4">
-        <v>1.062157437874236</v>
+        <v>1.020983757483387</v>
       </c>
       <c r="E4">
-        <v>1.056419771236066</v>
+        <v>1.005041889475755</v>
       </c>
       <c r="F4">
-        <v>1.069444498801934</v>
+        <v>1.028454562543184</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.070228044980517</v>
+        <v>1.043756437041679</v>
       </c>
       <c r="J4">
-        <v>1.064507309601301</v>
+        <v>1.018344257989188</v>
       </c>
       <c r="K4">
-        <v>1.071559378943065</v>
+        <v>1.030835355441789</v>
       </c>
       <c r="L4">
-        <v>1.065881801854772</v>
+        <v>1.01507984183911</v>
       </c>
       <c r="M4">
-        <v>1.078771256950416</v>
+        <v>1.038221279680738</v>
       </c>
       <c r="N4">
-        <v>1.066019032081629</v>
+        <v>1.010093694848391</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.047923019223018</v>
+        <v>0.9999234525825893</v>
       </c>
       <c r="D5">
-        <v>1.06351951091292</v>
+        <v>1.021713242370734</v>
       </c>
       <c r="E5">
-        <v>1.057867954554192</v>
+        <v>1.005837364524887</v>
       </c>
       <c r="F5">
-        <v>1.07093028301574</v>
+        <v>1.029353964146619</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.070865644819624</v>
+        <v>1.043955014367971</v>
       </c>
       <c r="J5">
-        <v>1.065751395034683</v>
+        <v>1.018873721475603</v>
       </c>
       <c r="K5">
-        <v>1.072700396752584</v>
+        <v>1.031338272026532</v>
       </c>
       <c r="L5">
-        <v>1.067106379107508</v>
+        <v>1.015642998916388</v>
       </c>
       <c r="M5">
-        <v>1.080036837979621</v>
+        <v>1.03889451241825</v>
       </c>
       <c r="N5">
-        <v>1.067264884259026</v>
+        <v>1.010272138423034</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.048208169903165</v>
+        <v>1.000092576870813</v>
       </c>
       <c r="D6">
-        <v>1.063747092331104</v>
+        <v>1.021835332479166</v>
       </c>
       <c r="E6">
-        <v>1.058109963280089</v>
+        <v>1.005970550430938</v>
       </c>
       <c r="F6">
-        <v>1.071178576708526</v>
+        <v>1.029504507782959</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.070971985013269</v>
+        <v>1.043988099327476</v>
       </c>
       <c r="J6">
-        <v>1.065959182167523</v>
+        <v>1.018962290449732</v>
       </c>
       <c r="K6">
-        <v>1.072890943943492</v>
+        <v>1.031422369503225</v>
       </c>
       <c r="L6">
-        <v>1.067310932375329</v>
+        <v>1.015737234784174</v>
       </c>
       <c r="M6">
-        <v>1.080248245701689</v>
+        <v>1.039007139528793</v>
       </c>
       <c r="N6">
-        <v>1.067472966473428</v>
+        <v>1.01030198562731</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.046239136302975</v>
+        <v>0.9989262431610723</v>
       </c>
       <c r="D7">
-        <v>1.062175713325581</v>
+        <v>1.02099353137365</v>
       </c>
       <c r="E7">
-        <v>1.056439199405379</v>
+        <v>1.005052544085157</v>
       </c>
       <c r="F7">
-        <v>1.069464431310267</v>
+        <v>1.028466612007884</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.07023661286475</v>
+        <v>1.043759107702658</v>
       </c>
       <c r="J7">
-        <v>1.064524007385526</v>
+        <v>1.018351354923308</v>
       </c>
       <c r="K7">
-        <v>1.071574695093088</v>
+        <v>1.030842098595914</v>
       </c>
       <c r="L7">
-        <v>1.065898236159459</v>
+        <v>1.015087388346359</v>
       </c>
       <c r="M7">
-        <v>1.078788241189509</v>
+        <v>1.03823030313386</v>
       </c>
       <c r="N7">
-        <v>1.066035753578624</v>
+        <v>1.010096086904341</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037794076575942</v>
+        <v>0.9939642194213952</v>
       </c>
       <c r="D8">
-        <v>1.05543986068964</v>
+        <v>1.017416812234608</v>
       </c>
       <c r="E8">
-        <v>1.049283090511031</v>
+        <v>1.001159454734586</v>
       </c>
       <c r="F8">
-        <v>1.062122752961854</v>
+        <v>1.02405887209565</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.067055996153113</v>
+        <v>1.042764334623786</v>
       </c>
       <c r="J8">
-        <v>1.058360003776512</v>
+        <v>1.015748967450392</v>
       </c>
       <c r="K8">
-        <v>1.065917793958876</v>
+        <v>1.028365918775596</v>
       </c>
       <c r="L8">
-        <v>1.05983444120887</v>
+        <v>1.012323743341787</v>
       </c>
       <c r="M8">
-        <v>1.072522186586898</v>
+        <v>1.034922521401811</v>
       </c>
       <c r="N8">
-        <v>1.059862996377464</v>
+        <v>1.009218608919341</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022013606439838</v>
+        <v>0.9848708400902783</v>
       </c>
       <c r="D9">
-        <v>1.042873135372907</v>
+        <v>1.010883245242379</v>
       </c>
       <c r="E9">
-        <v>1.035953765011342</v>
+        <v>0.9940752600776294</v>
       </c>
       <c r="F9">
-        <v>1.04844904019633</v>
+        <v>1.016014567565412</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.061013352733154</v>
+        <v>1.040865241965438</v>
       </c>
       <c r="J9">
-        <v>1.046812258567344</v>
+        <v>1.010969397384978</v>
       </c>
       <c r="K9">
-        <v>1.055306918209281</v>
+        <v>1.023802183112541</v>
       </c>
       <c r="L9">
-        <v>1.048489258190554</v>
+        <v>1.007265199050958</v>
       </c>
       <c r="M9">
-        <v>1.060802098111715</v>
+        <v>1.028853055142948</v>
       </c>
       <c r="N9">
-        <v>1.048298852045553</v>
+        <v>1.007605590518788</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.010793623291356</v>
+        <v>0.9785514935409199</v>
       </c>
       <c r="D10">
-        <v>1.03395765167608</v>
+        <v>1.006360478206075</v>
       </c>
       <c r="E10">
-        <v>1.026511030013616</v>
+        <v>0.9891887628726749</v>
       </c>
       <c r="F10">
-        <v>1.0387635521575</v>
+        <v>1.010449995573479</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.056653199825338</v>
+        <v>1.039496524191367</v>
       </c>
       <c r="J10">
-        <v>1.038585447693936</v>
+        <v>1.00764271627644</v>
       </c>
       <c r="K10">
-        <v>1.047739713110245</v>
+        <v>1.020615834096163</v>
       </c>
       <c r="L10">
-        <v>1.040417567744868</v>
+        <v>1.003756000249914</v>
       </c>
       <c r="M10">
-        <v>1.052466497221535</v>
+        <v>1.024633101110829</v>
       </c>
       <c r="N10">
-        <v>1.040060358157077</v>
+        <v>1.006482076286009</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.005745092732836</v>
+        <v>0.9757489277032523</v>
       </c>
       <c r="D11">
-        <v>1.029952172517451</v>
+        <v>1.004359654721733</v>
       </c>
       <c r="E11">
-        <v>1.02227175279823</v>
+        <v>0.9870309400484772</v>
       </c>
       <c r="F11">
-        <v>1.034415670539235</v>
+        <v>1.007989022436721</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.05467707538933</v>
+        <v>1.038878460667815</v>
       </c>
       <c r="J11">
-        <v>1.034880806919794</v>
+        <v>1.006166576800509</v>
       </c>
       <c r="K11">
-        <v>1.044330508659932</v>
+        <v>1.019199820017219</v>
       </c>
       <c r="L11">
-        <v>1.036785533600569</v>
+        <v>1.002201649490287</v>
       </c>
       <c r="M11">
-        <v>1.048716487922885</v>
+        <v>1.022761833919678</v>
       </c>
       <c r="N11">
-        <v>1.036350456368108</v>
+        <v>1.005983381040157</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.003838941191959</v>
+        <v>0.9746975014660157</v>
       </c>
       <c r="D12">
-        <v>1.028440900630653</v>
+        <v>1.003609832051189</v>
       </c>
       <c r="E12">
-        <v>1.020672714348572</v>
+        <v>0.9862228490462898</v>
       </c>
       <c r="F12">
-        <v>1.032775732271754</v>
+        <v>1.00706684755546</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.053928905397477</v>
+        <v>1.038644973246273</v>
       </c>
       <c r="J12">
-        <v>1.033481714100566</v>
+        <v>1.005612699655292</v>
       </c>
       <c r="K12">
-        <v>1.043042775608396</v>
+        <v>1.018668198620889</v>
       </c>
       <c r="L12">
-        <v>1.035414292956245</v>
+        <v>1.001618844567269</v>
       </c>
       <c r="M12">
-        <v>1.047300833684429</v>
+        <v>1.022059898828177</v>
       </c>
       <c r="N12">
-        <v>1.034949376676598</v>
+        <v>1.005796239180191</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.004249255704509</v>
+        <v>0.9749235158181131</v>
       </c>
       <c r="D13">
-        <v>1.028766163909759</v>
+        <v>1.003770975679488</v>
       </c>
       <c r="E13">
-        <v>1.021016847336895</v>
+        <v>0.9863964896919107</v>
       </c>
       <c r="F13">
-        <v>1.03312866431609</v>
+        <v>1.007265027353597</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.05409004629004</v>
+        <v>1.038695235663714</v>
       </c>
       <c r="J13">
-        <v>1.033782894302516</v>
+        <v>1.005731763969395</v>
       </c>
       <c r="K13">
-        <v>1.043319992862604</v>
+        <v>1.018782492197252</v>
       </c>
       <c r="L13">
-        <v>1.035709457679473</v>
+        <v>1.001744108400022</v>
       </c>
       <c r="M13">
-        <v>1.047605552704039</v>
+        <v>1.02221078106985</v>
       </c>
       <c r="N13">
-        <v>1.035250984588981</v>
+        <v>1.00583646908988</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.005588174407092</v>
+        <v>0.9756622320685344</v>
       </c>
       <c r="D14">
-        <v>1.029827739154063</v>
+        <v>1.004297810856101</v>
       </c>
       <c r="E14">
-        <v>1.022140084068323</v>
+        <v>0.9869642788801041</v>
       </c>
       <c r="F14">
-        <v>1.034280632640768</v>
+        <v>1.007912961539265</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054615525647656</v>
+        <v>1.038859240879079</v>
       </c>
       <c r="J14">
-        <v>1.034765637226492</v>
+        <v>1.006120908120704</v>
       </c>
       <c r="K14">
-        <v>1.044224510019082</v>
+        <v>1.019155992474024</v>
       </c>
       <c r="L14">
-        <v>1.036672647758732</v>
+        <v>1.002153587112824</v>
       </c>
       <c r="M14">
-        <v>1.048599943146863</v>
+        <v>1.022703953261634</v>
       </c>
       <c r="N14">
-        <v>1.036235123120631</v>
+        <v>1.005967951102672</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.006408957646845</v>
+        <v>0.9761159829606456</v>
       </c>
       <c r="D15">
-        <v>1.030478649213906</v>
+        <v>1.004621525382609</v>
       </c>
       <c r="E15">
-        <v>1.022828860312925</v>
+        <v>0.9873132320917597</v>
       </c>
       <c r="F15">
-        <v>1.034987036155278</v>
+        <v>1.008311097116452</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054937387166009</v>
+        <v>1.038959768709596</v>
       </c>
       <c r="J15">
-        <v>1.035368034812264</v>
+        <v>1.006359927535319</v>
       </c>
       <c r="K15">
-        <v>1.044778929638987</v>
+        <v>1.019385363486828</v>
       </c>
       <c r="L15">
-        <v>1.037263117277145</v>
+        <v>1.002405151678821</v>
       </c>
       <c r="M15">
-        <v>1.04920955659472</v>
+        <v>1.023006895702804</v>
       </c>
       <c r="N15">
-        <v>1.036838376180071</v>
+        <v>1.006048707006958</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.011124477321229</v>
+        <v>0.9787360548822347</v>
       </c>
       <c r="D16">
-        <v>1.034220288079419</v>
+        <v>1.006492350974535</v>
       </c>
       <c r="E16">
-        <v>1.026789058925431</v>
+        <v>0.989331063426832</v>
       </c>
       <c r="F16">
-        <v>1.039048712338858</v>
+        <v>1.010612210259195</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05678241630393</v>
+        <v>1.039536999895197</v>
       </c>
       <c r="J16">
-        <v>1.038828177217804</v>
+        <v>1.007739913299495</v>
       </c>
       <c r="K16">
-        <v>1.047963054533275</v>
+        <v>1.02070902888117</v>
       </c>
       <c r="L16">
-        <v>1.040655598626864</v>
+        <v>1.003858405186149</v>
       </c>
       <c r="M16">
-        <v>1.05271227673344</v>
+        <v>1.024756342673345</v>
       </c>
       <c r="N16">
-        <v>1.040303432384711</v>
+        <v>1.00651490995762</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014029909554456</v>
+        <v>0.9803614933320581</v>
       </c>
       <c r="D17">
-        <v>1.036527367949992</v>
+        <v>1.007654335328101</v>
       </c>
       <c r="E17">
-        <v>1.029231698465563</v>
+        <v>0.9905853756385178</v>
       </c>
       <c r="F17">
-        <v>1.041554047913328</v>
+        <v>1.012041631136225</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.057915543814749</v>
+        <v>1.039892216095742</v>
       </c>
       <c r="J17">
-        <v>1.040959414247335</v>
+        <v>1.008595845429003</v>
       </c>
       <c r="K17">
-        <v>1.04992388087518</v>
+        <v>1.02152947429126</v>
       </c>
       <c r="L17">
-        <v>1.042745893746907</v>
+        <v>1.004760515849654</v>
       </c>
       <c r="M17">
-        <v>1.054870706413217</v>
+        <v>1.025841770498733</v>
       </c>
       <c r="N17">
-        <v>1.04243769601528</v>
+        <v>1.006804030343112</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.015706416924383</v>
+        <v>0.9813032257384925</v>
       </c>
       <c r="D18">
-        <v>1.03785917843931</v>
+        <v>1.008328024463188</v>
       </c>
       <c r="E18">
-        <v>1.030642055603761</v>
+        <v>0.9913129679959085</v>
       </c>
       <c r="F18">
-        <v>1.043000640305688</v>
+        <v>1.0128704443058</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.058568038785928</v>
+        <v>1.040096963697455</v>
       </c>
       <c r="J18">
-        <v>1.042188910484779</v>
+        <v>1.009091670184506</v>
       </c>
       <c r="K18">
-        <v>1.05105491652242</v>
+        <v>1.022004537244494</v>
       </c>
       <c r="L18">
-        <v>1.043952029158198</v>
+        <v>1.005283354866366</v>
       </c>
       <c r="M18">
-        <v>1.056116229184451</v>
+        <v>1.026470654669862</v>
       </c>
       <c r="N18">
-        <v>1.043668938278407</v>
+        <v>1.006971496613706</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.016275045253023</v>
+        <v>0.9816232676615605</v>
       </c>
       <c r="D19">
-        <v>1.038310986736619</v>
+        <v>1.008557051013793</v>
       </c>
       <c r="E19">
-        <v>1.03112056037485</v>
+        <v>0.9915603834088911</v>
       </c>
       <c r="F19">
-        <v>1.043491444667585</v>
+        <v>1.013152219234915</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.058789117272164</v>
+        <v>1.040166365592988</v>
       </c>
       <c r="J19">
-        <v>1.042605873879433</v>
+        <v>1.009260158840794</v>
       </c>
       <c r="K19">
-        <v>1.051438462175755</v>
+        <v>1.022165935432942</v>
       </c>
       <c r="L19">
-        <v>1.044361113425408</v>
+        <v>1.005461068103124</v>
       </c>
       <c r="M19">
-        <v>1.056538684466696</v>
+        <v>1.026684378312266</v>
       </c>
       <c r="N19">
-        <v>1.044086493808907</v>
+        <v>1.007028401437132</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.013720080849763</v>
+        <v>0.9801877601924751</v>
       </c>
       <c r="D20">
-        <v>1.036281286294984</v>
+        <v>1.007530088854861</v>
       </c>
       <c r="E20">
-        <v>1.028971127313567</v>
+        <v>0.9904512182816388</v>
       </c>
       <c r="F20">
-        <v>1.041286784888</v>
+        <v>1.011888781470999</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.057794849101113</v>
+        <v>1.039854358223718</v>
       </c>
       <c r="J20">
-        <v>1.040732172542922</v>
+        <v>1.008504367892533</v>
       </c>
       <c r="K20">
-        <v>1.049714824695682</v>
+        <v>1.021441810530041</v>
       </c>
       <c r="L20">
-        <v>1.042522990495917</v>
+        <v>1.004664075610907</v>
       </c>
       <c r="M20">
-        <v>1.054640529876044</v>
+        <v>1.025725753420887</v>
       </c>
       <c r="N20">
-        <v>1.042210131601582</v>
+        <v>1.00677313226221</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.005194769237193</v>
+        <v>0.9754449903818692</v>
       </c>
       <c r="D21">
-        <v>1.029515793587676</v>
+        <v>1.004142856080064</v>
       </c>
       <c r="E21">
-        <v>1.02181000706621</v>
+        <v>0.9867972630588988</v>
       </c>
       <c r="F21">
-        <v>1.033942110636928</v>
+        <v>1.007722386269825</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.054461183424475</v>
+        <v>1.038811054187697</v>
       </c>
       <c r="J21">
-        <v>1.034476893509125</v>
+        <v>1.006006470503205</v>
       </c>
       <c r="K21">
-        <v>1.043958755824368</v>
+        <v>1.019046163572022</v>
       </c>
       <c r="L21">
-        <v>1.036389636928374</v>
+        <v>1.002033158065663</v>
       </c>
       <c r="M21">
-        <v>1.048307761249707</v>
+        <v>1.02255891789835</v>
       </c>
       <c r="N21">
-        <v>1.035945969354066</v>
+        <v>1.005929286078869</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9996544305621184</v>
+        <v>0.9724024306150397</v>
       </c>
       <c r="D22">
-        <v>1.025125373715212</v>
+        <v>1.001974687404456</v>
       </c>
       <c r="E22">
-        <v>1.017165440411949</v>
+        <v>0.9844616600460093</v>
       </c>
       <c r="F22">
-        <v>1.029178880531508</v>
+        <v>1.005056001897216</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.052282789970469</v>
+        <v>1.0381324079648</v>
       </c>
       <c r="J22">
-        <v>1.030409798379525</v>
+        <v>1.004403582926682</v>
       </c>
       <c r="K22">
-        <v>1.040215000439431</v>
+        <v>1.01750712658933</v>
       </c>
       <c r="L22">
-        <v>1.032404347582799</v>
+        <v>1.000347349485575</v>
       </c>
       <c r="M22">
-        <v>1.04419364378424</v>
+        <v>1.020527959422749</v>
       </c>
       <c r="N22">
-        <v>1.03187309848288</v>
+        <v>1.005387671330512</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.002609389011087</v>
+        <v>0.974021258708933</v>
       </c>
       <c r="D23">
-        <v>1.027466380452041</v>
+        <v>1.003127810011949</v>
       </c>
       <c r="E23">
-        <v>1.019641722636333</v>
+        <v>0.9857035269676413</v>
       </c>
       <c r="F23">
-        <v>1.031718389643749</v>
+        <v>1.006474052892526</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.053445735156889</v>
+        <v>1.038494354114351</v>
       </c>
       <c r="J23">
-        <v>1.032579151183759</v>
+        <v>1.005256446342571</v>
       </c>
       <c r="K23">
-        <v>1.042211994309083</v>
+        <v>1.018326176629132</v>
       </c>
       <c r="L23">
-        <v>1.034529821683713</v>
+        <v>1.001244103100155</v>
       </c>
       <c r="M23">
-        <v>1.046387752048117</v>
+        <v>1.021608473641454</v>
       </c>
       <c r="N23">
-        <v>1.034045532016924</v>
+        <v>1.005675864019674</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.013860135120816</v>
+        <v>0.980266282335004</v>
       </c>
       <c r="D24">
-        <v>1.036392522741805</v>
+        <v>1.00758624306843</v>
       </c>
       <c r="E24">
-        <v>1.029088912549415</v>
+        <v>0.9905118506406677</v>
       </c>
       <c r="F24">
-        <v>1.041407594923826</v>
+        <v>1.011957862910333</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05784941185925</v>
+        <v>1.039871472112383</v>
       </c>
       <c r="J24">
-        <v>1.040834895251223</v>
+        <v>1.008545713225657</v>
       </c>
       <c r="K24">
-        <v>1.049809327263002</v>
+        <v>1.021481432778342</v>
       </c>
       <c r="L24">
-        <v>1.042623751242144</v>
+        <v>1.004707663131198</v>
       </c>
       <c r="M24">
-        <v>1.054744578199672</v>
+        <v>1.025778189590888</v>
       </c>
       <c r="N24">
-        <v>1.042313000187911</v>
+        <v>1.006787097394159</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026209032054894</v>
+        <v>0.9872653250249778</v>
       </c>
       <c r="D25">
-        <v>1.046211265170613</v>
+        <v>1.012600872775349</v>
       </c>
       <c r="E25">
-        <v>1.039492049995123</v>
+        <v>0.9959345510083768</v>
       </c>
       <c r="F25">
-        <v>1.05207856196408</v>
+        <v>1.018128599009027</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.062631046365723</v>
+        <v>1.041373961045356</v>
       </c>
       <c r="J25">
-        <v>1.049885443229615</v>
+        <v>1.012228995815389</v>
       </c>
       <c r="K25">
-        <v>1.05813219534767</v>
+        <v>1.025006675715449</v>
       </c>
       <c r="L25">
-        <v>1.051506744878208</v>
+        <v>1.008596307381661</v>
       </c>
       <c r="M25">
-        <v>1.063918849118764</v>
+        <v>1.030451862242645</v>
       </c>
       <c r="N25">
-        <v>1.051376400982545</v>
+        <v>1.00803083461071</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_1/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9926638295638521</v>
+        <v>1.02144895620723</v>
       </c>
       <c r="D2">
-        <v>1.016480758739908</v>
+        <v>1.032082841100385</v>
       </c>
       <c r="E2">
-        <v>1.000142464331527</v>
+        <v>1.022325574799219</v>
       </c>
       <c r="F2">
-        <v>1.022905854508824</v>
+        <v>1.043107793232937</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042498470777744</v>
+        <v>1.032046144391726</v>
       </c>
       <c r="J2">
-        <v>1.015066200403764</v>
+        <v>1.026640362567578</v>
       </c>
       <c r="K2">
-        <v>1.027715167685422</v>
+        <v>1.034889096898955</v>
       </c>
       <c r="L2">
-        <v>1.011599814756106</v>
+        <v>1.025160287473952</v>
       </c>
       <c r="M2">
-        <v>1.03405503773081</v>
+        <v>1.045882590493306</v>
       </c>
       <c r="N2">
-        <v>1.008988291245211</v>
+        <v>1.012943769618517</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9964842993361193</v>
+        <v>1.022270124313473</v>
       </c>
       <c r="D3">
-        <v>1.019232377414398</v>
+        <v>1.032696184933035</v>
       </c>
       <c r="E3">
-        <v>1.003134157379896</v>
+        <v>1.023019017595175</v>
       </c>
       <c r="F3">
-        <v>1.026295852950105</v>
+        <v>1.043883397499351</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04327358494968</v>
+        <v>1.032156974800357</v>
       </c>
       <c r="J3">
-        <v>1.017071266904597</v>
+        <v>1.027099822265489</v>
       </c>
       <c r="K3">
-        <v>1.029624951043346</v>
+        <v>1.03531166212589</v>
       </c>
       <c r="L3">
-        <v>1.013727092536007</v>
+        <v>1.025660681850534</v>
       </c>
       <c r="M3">
-        <v>1.036602975619301</v>
+        <v>1.04646925513283</v>
       </c>
       <c r="N3">
-        <v>1.009664544576546</v>
+        <v>1.013097350888327</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9989126979609387</v>
+        <v>1.022802240274017</v>
       </c>
       <c r="D4">
-        <v>1.020983757483387</v>
+        <v>1.033093544063434</v>
       </c>
       <c r="E4">
-        <v>1.005041889475755</v>
+        <v>1.023468775297714</v>
       </c>
       <c r="F4">
-        <v>1.028454562543184</v>
+        <v>1.044386089551724</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043756437041679</v>
+        <v>1.032227555124078</v>
       </c>
       <c r="J4">
-        <v>1.018344257989188</v>
+        <v>1.027397242483795</v>
       </c>
       <c r="K4">
-        <v>1.030835355441789</v>
+        <v>1.035584881179608</v>
       </c>
       <c r="L4">
-        <v>1.01507984183911</v>
+        <v>1.025984848788732</v>
       </c>
       <c r="M4">
-        <v>1.038221279680738</v>
+        <v>1.046849030052153</v>
       </c>
       <c r="N4">
-        <v>1.010093694848391</v>
+        <v>1.013196723134852</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9999234525825893</v>
+        <v>1.023026123285496</v>
       </c>
       <c r="D5">
-        <v>1.021713242370734</v>
+        <v>1.033260707940521</v>
       </c>
       <c r="E5">
-        <v>1.005837364524887</v>
+        <v>1.023658103816721</v>
       </c>
       <c r="F5">
-        <v>1.029353964146619</v>
+        <v>1.044597616450248</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043955014367971</v>
+        <v>1.032256954807405</v>
       </c>
       <c r="J5">
-        <v>1.018873721475603</v>
+        <v>1.02752230511545</v>
       </c>
       <c r="K5">
-        <v>1.031338272026532</v>
+        <v>1.03569969103567</v>
       </c>
       <c r="L5">
-        <v>1.015642998916388</v>
+        <v>1.026121217695064</v>
       </c>
       <c r="M5">
-        <v>1.03889451241825</v>
+        <v>1.047008724808799</v>
       </c>
       <c r="N5">
-        <v>1.010272138423034</v>
+        <v>1.013238497515702</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.000092576870813</v>
+        <v>1.023063724818456</v>
       </c>
       <c r="D6">
-        <v>1.021835332479166</v>
+        <v>1.033288782125682</v>
       </c>
       <c r="E6">
-        <v>1.005970550430938</v>
+        <v>1.023689907534974</v>
       </c>
       <c r="F6">
-        <v>1.029504507782959</v>
+        <v>1.044633144128626</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043988099327476</v>
+        <v>1.032261875155881</v>
       </c>
       <c r="J6">
-        <v>1.018962290449732</v>
+        <v>1.027543305236186</v>
       </c>
       <c r="K6">
-        <v>1.031422369503225</v>
+        <v>1.035718965058201</v>
       </c>
       <c r="L6">
-        <v>1.015737234784174</v>
+        <v>1.026144119818839</v>
       </c>
       <c r="M6">
-        <v>1.039007139528793</v>
+        <v>1.047035540400724</v>
       </c>
       <c r="N6">
-        <v>1.01030198562731</v>
+        <v>1.013245511503451</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9989262431610723</v>
+        <v>1.022805231098943</v>
       </c>
       <c r="D7">
-        <v>1.02099353137365</v>
+        <v>1.033095777269444</v>
       </c>
       <c r="E7">
-        <v>1.005052544085157</v>
+        <v>1.023471304133233</v>
       </c>
       <c r="F7">
-        <v>1.028466612007884</v>
+        <v>1.044388915220373</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043759107702658</v>
+        <v>1.032227949034873</v>
       </c>
       <c r="J7">
-        <v>1.018351354923308</v>
+        <v>1.02739891347171</v>
       </c>
       <c r="K7">
-        <v>1.030842098595914</v>
+        <v>1.035586415478413</v>
       </c>
       <c r="L7">
-        <v>1.015087388346359</v>
+        <v>1.025986670608348</v>
       </c>
       <c r="M7">
-        <v>1.03823030313386</v>
+        <v>1.046851163756695</v>
       </c>
       <c r="N7">
-        <v>1.010096086904341</v>
+        <v>1.013197281333514</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9939642194213952</v>
+        <v>1.021726314303236</v>
       </c>
       <c r="D8">
-        <v>1.017416812234608</v>
+        <v>1.03229002200949</v>
       </c>
       <c r="E8">
-        <v>1.001159454734586</v>
+        <v>1.022559707684588</v>
       </c>
       <c r="F8">
-        <v>1.02405887209565</v>
+        <v>1.043369740364203</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042764334623786</v>
+        <v>1.032083834493352</v>
       </c>
       <c r="J8">
-        <v>1.015748967450392</v>
+        <v>1.026795613667417</v>
       </c>
       <c r="K8">
-        <v>1.028365918775596</v>
+        <v>1.035031947196034</v>
       </c>
       <c r="L8">
-        <v>1.012323743341787</v>
+        <v>1.025329318895486</v>
       </c>
       <c r="M8">
-        <v>1.034922521401811</v>
+        <v>1.04608082158299</v>
       </c>
       <c r="N8">
-        <v>1.009218608919341</v>
+        <v>1.012995673890493</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9848708400902783</v>
+        <v>1.019831063706675</v>
       </c>
       <c r="D9">
-        <v>1.010883245242379</v>
+        <v>1.030873975439597</v>
       </c>
       <c r="E9">
-        <v>0.9940752600776294</v>
+        <v>1.02096151396548</v>
       </c>
       <c r="F9">
-        <v>1.016014567565412</v>
+        <v>1.041580232261256</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040865241965438</v>
+        <v>1.031821230106229</v>
       </c>
       <c r="J9">
-        <v>1.010969397384978</v>
+        <v>1.025733493250462</v>
       </c>
       <c r="K9">
-        <v>1.023802183112541</v>
+        <v>1.034053366144892</v>
       </c>
       <c r="L9">
-        <v>1.007265199050958</v>
+        <v>1.024173942485544</v>
       </c>
       <c r="M9">
-        <v>1.028853055142948</v>
+        <v>1.044724713415577</v>
       </c>
       <c r="N9">
-        <v>1.007605590518788</v>
+        <v>1.012640398353874</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9785514935409199</v>
+        <v>1.018571660598828</v>
       </c>
       <c r="D10">
-        <v>1.006360478206075</v>
+        <v>1.029932612626286</v>
       </c>
       <c r="E10">
-        <v>0.9891887628726749</v>
+        <v>1.019901649180114</v>
       </c>
       <c r="F10">
-        <v>1.010449995573479</v>
+        <v>1.040391664592958</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039496524191367</v>
+        <v>1.031640383440009</v>
       </c>
       <c r="J10">
-        <v>1.00764271627644</v>
+        <v>1.025026145422703</v>
       </c>
       <c r="K10">
-        <v>1.020615834096163</v>
+        <v>1.033400030254269</v>
       </c>
       <c r="L10">
-        <v>1.003756000249914</v>
+        <v>1.023405768827599</v>
       </c>
       <c r="M10">
-        <v>1.024633101110829</v>
+        <v>1.043821645300917</v>
       </c>
       <c r="N10">
-        <v>1.006482076286009</v>
+        <v>1.012403565472651</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9757489277032523</v>
+        <v>1.018027319015214</v>
       </c>
       <c r="D11">
-        <v>1.004359654721733</v>
+        <v>1.029525649421245</v>
       </c>
       <c r="E11">
-        <v>0.9870309400484772</v>
+        <v>1.019444067946622</v>
       </c>
       <c r="F11">
-        <v>1.007989022436721</v>
+        <v>1.03987808160762</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038878460667815</v>
+        <v>1.031560713637606</v>
       </c>
       <c r="J11">
-        <v>1.006166576800509</v>
+        <v>1.024720046576956</v>
       </c>
       <c r="K11">
-        <v>1.019199820017219</v>
+        <v>1.033116921592311</v>
       </c>
       <c r="L11">
-        <v>1.002201649490287</v>
+        <v>1.023073652120154</v>
       </c>
       <c r="M11">
-        <v>1.022761833919678</v>
+        <v>1.043430867757603</v>
       </c>
       <c r="N11">
-        <v>1.005983381040157</v>
+        <v>1.012301024544981</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9746975014660157</v>
+        <v>1.01782527656936</v>
       </c>
       <c r="D12">
-        <v>1.003609832051189</v>
+        <v>1.029374585273956</v>
       </c>
       <c r="E12">
-        <v>0.9862228490462898</v>
+        <v>1.019274306282414</v>
       </c>
       <c r="F12">
-        <v>1.00706684755546</v>
+        <v>1.039687477699881</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038644973246273</v>
+        <v>1.031530916816233</v>
       </c>
       <c r="J12">
-        <v>1.005612699655292</v>
+        <v>1.024606377357979</v>
       </c>
       <c r="K12">
-        <v>1.018668198620889</v>
+        <v>1.033011732343983</v>
       </c>
       <c r="L12">
-        <v>1.001618844567269</v>
+        <v>1.022950366924231</v>
       </c>
       <c r="M12">
-        <v>1.022059898828177</v>
+        <v>1.043285756021852</v>
       </c>
       <c r="N12">
-        <v>1.005796239180191</v>
+        <v>1.012262938171469</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9749235158181131</v>
+        <v>1.017868608531903</v>
       </c>
       <c r="D13">
-        <v>1.003770975679488</v>
+        <v>1.029406984484453</v>
       </c>
       <c r="E13">
-        <v>0.9863964896919107</v>
+        <v>1.019310711455344</v>
       </c>
       <c r="F13">
-        <v>1.007265027353597</v>
+        <v>1.039728355442533</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038695235663714</v>
+        <v>1.031537317551394</v>
       </c>
       <c r="J13">
-        <v>1.005731763969395</v>
+        <v>1.024630758433545</v>
       </c>
       <c r="K13">
-        <v>1.018782492197252</v>
+        <v>1.033034297132993</v>
       </c>
       <c r="L13">
-        <v>1.001744108400022</v>
+        <v>1.022976808475726</v>
       </c>
       <c r="M13">
-        <v>1.02221078106985</v>
+        <v>1.043316881122013</v>
       </c>
       <c r="N13">
-        <v>1.00583646908988</v>
+        <v>1.012271107734215</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9756622320685344</v>
+        <v>1.018010615048159</v>
       </c>
       <c r="D14">
-        <v>1.004297810856101</v>
+        <v>1.029513160358083</v>
       </c>
       <c r="E14">
-        <v>0.9869642788801041</v>
+        <v>1.019430031213799</v>
       </c>
       <c r="F14">
-        <v>1.007912961539265</v>
+        <v>1.039862322877259</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038859240879079</v>
+        <v>1.031558254778604</v>
       </c>
       <c r="J14">
-        <v>1.006120908120704</v>
+        <v>1.024710650033755</v>
       </c>
       <c r="K14">
-        <v>1.019155992474024</v>
+        <v>1.033108227221588</v>
       </c>
       <c r="L14">
-        <v>1.002153587112824</v>
+        <v>1.023063459733028</v>
       </c>
       <c r="M14">
-        <v>1.022703953261634</v>
+        <v>1.043418871940563</v>
       </c>
       <c r="N14">
-        <v>1.005967951102672</v>
+        <v>1.012297876271969</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9761159829606456</v>
+        <v>1.018098129913134</v>
       </c>
       <c r="D15">
-        <v>1.004621525382609</v>
+        <v>1.029578592142556</v>
       </c>
       <c r="E15">
-        <v>0.9873132320917597</v>
+        <v>1.019503575196387</v>
       </c>
       <c r="F15">
-        <v>1.008311097116452</v>
+        <v>1.039944886391018</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038959768709596</v>
+        <v>1.031571127896752</v>
       </c>
       <c r="J15">
-        <v>1.006359927535319</v>
+        <v>1.024759877837993</v>
       </c>
       <c r="K15">
-        <v>1.019385363486828</v>
+        <v>1.033153774045872</v>
       </c>
       <c r="L15">
-        <v>1.002405151678821</v>
+        <v>1.023116858777681</v>
       </c>
       <c r="M15">
-        <v>1.023006895702804</v>
+        <v>1.043481717264279</v>
       </c>
       <c r="N15">
-        <v>1.006048707006958</v>
+        <v>1.012314369517279</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9787360548822347</v>
+        <v>1.018607807730485</v>
       </c>
       <c r="D16">
-        <v>1.006492350974535</v>
+        <v>1.029959635363639</v>
       </c>
       <c r="E16">
-        <v>0.989331063426832</v>
+        <v>1.019932045892555</v>
       </c>
       <c r="F16">
-        <v>1.010612210259195</v>
+        <v>1.040425772236047</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039536999895197</v>
+        <v>1.031645642227681</v>
       </c>
       <c r="J16">
-        <v>1.007739913299495</v>
+        <v>1.025046464260219</v>
       </c>
       <c r="K16">
-        <v>1.02070902888117</v>
+        <v>1.033418814945071</v>
       </c>
       <c r="L16">
-        <v>1.003858405186149</v>
+        <v>1.023427821139843</v>
       </c>
       <c r="M16">
-        <v>1.024756342673345</v>
+        <v>1.043847585489829</v>
       </c>
       <c r="N16">
-        <v>1.00651490995762</v>
+        <v>1.012410371014331</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9803614933320581</v>
+        <v>1.018927781002918</v>
       </c>
       <c r="D17">
-        <v>1.007654335328101</v>
+        <v>1.030198829966735</v>
       </c>
       <c r="E17">
-        <v>0.9905853756385178</v>
+        <v>1.020201176323311</v>
       </c>
       <c r="F17">
-        <v>1.012041631136225</v>
+        <v>1.0407277085098</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039892216095742</v>
+        <v>1.031692018957285</v>
       </c>
       <c r="J17">
-        <v>1.008595845429003</v>
+        <v>1.025226283493761</v>
       </c>
       <c r="K17">
-        <v>1.02152947429126</v>
+        <v>1.033585012924546</v>
       </c>
       <c r="L17">
-        <v>1.004760515849654</v>
+        <v>1.023623016548</v>
       </c>
       <c r="M17">
-        <v>1.025841770498733</v>
+        <v>1.044077155046919</v>
       </c>
       <c r="N17">
-        <v>1.006804030343112</v>
+        <v>1.012470593052525</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9813032257384925</v>
+        <v>1.019114511233793</v>
       </c>
       <c r="D18">
-        <v>1.008328024463188</v>
+        <v>1.030338411014094</v>
       </c>
       <c r="E18">
-        <v>0.9913129679959085</v>
+        <v>1.020358285404352</v>
       </c>
       <c r="F18">
-        <v>1.0128704443058</v>
+        <v>1.040903926369774</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040096963697455</v>
+        <v>1.031718938257475</v>
       </c>
       <c r="J18">
-        <v>1.009091670184506</v>
+        <v>1.025331187003508</v>
       </c>
       <c r="K18">
-        <v>1.022004537244494</v>
+        <v>1.033681933043638</v>
       </c>
       <c r="L18">
-        <v>1.005283354866366</v>
+        <v>1.023736919599572</v>
       </c>
       <c r="M18">
-        <v>1.026470654669862</v>
+        <v>1.044211083749947</v>
       </c>
       <c r="N18">
-        <v>1.006971496613706</v>
+        <v>1.012505720409749</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9816232676615605</v>
+        <v>1.019178197516361</v>
       </c>
       <c r="D19">
-        <v>1.008557051013793</v>
+        <v>1.030386015149607</v>
       </c>
       <c r="E19">
-        <v>0.9915603834088911</v>
+        <v>1.020411877506268</v>
       </c>
       <c r="F19">
-        <v>1.013152219234915</v>
+        <v>1.04096402960058</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040166365592988</v>
+        <v>1.03172809472325</v>
       </c>
       <c r="J19">
-        <v>1.009260158840794</v>
+        <v>1.025366959399883</v>
       </c>
       <c r="K19">
-        <v>1.022165935432942</v>
+        <v>1.033714976803658</v>
       </c>
       <c r="L19">
-        <v>1.005461068103124</v>
+        <v>1.023775765841136</v>
       </c>
       <c r="M19">
-        <v>1.026684378312266</v>
+        <v>1.044256754103992</v>
       </c>
       <c r="N19">
-        <v>1.007028401437132</v>
+        <v>1.012517698061661</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9801877601924751</v>
+        <v>1.018893441035598</v>
       </c>
       <c r="D20">
-        <v>1.007530088854861</v>
+        <v>1.030173160131013</v>
       </c>
       <c r="E20">
-        <v>0.9904512182816388</v>
+        <v>1.020172287729444</v>
       </c>
       <c r="F20">
-        <v>1.011888781470999</v>
+        <v>1.040695302879461</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039854358223718</v>
+        <v>1.031687056765628</v>
       </c>
       <c r="J20">
-        <v>1.008504367892533</v>
+        <v>1.025206988720857</v>
       </c>
       <c r="K20">
-        <v>1.021441810530041</v>
+        <v>1.033567183548713</v>
       </c>
       <c r="L20">
-        <v>1.004664075610907</v>
+        <v>1.02360206886222</v>
       </c>
       <c r="M20">
-        <v>1.025725753420887</v>
+        <v>1.044052521841604</v>
       </c>
       <c r="N20">
-        <v>1.00677313226221</v>
+        <v>1.012464131705078</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9754449903818692</v>
+        <v>1.017968793506468</v>
       </c>
       <c r="D21">
-        <v>1.004142856080064</v>
+        <v>1.029481891430291</v>
       </c>
       <c r="E21">
-        <v>0.9867972630588988</v>
+        <v>1.019394888861164</v>
       </c>
       <c r="F21">
-        <v>1.007722386269825</v>
+        <v>1.039822868270547</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038811054187697</v>
+        <v>1.031552094910182</v>
       </c>
       <c r="J21">
-        <v>1.006006470503205</v>
+        <v>1.024687123122871</v>
       </c>
       <c r="K21">
-        <v>1.019046163572022</v>
+        <v>1.033086457472029</v>
       </c>
       <c r="L21">
-        <v>1.002033158065663</v>
+        <v>1.023037940939669</v>
       </c>
       <c r="M21">
-        <v>1.02255891789835</v>
+        <v>1.043388837055312</v>
       </c>
       <c r="N21">
-        <v>1.005929286078869</v>
+        <v>1.012289993548533</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9724024306150397</v>
+        <v>1.017388301117917</v>
       </c>
       <c r="D22">
-        <v>1.001974687404456</v>
+        <v>1.029047843530632</v>
       </c>
       <c r="E22">
-        <v>0.9844616600460093</v>
+        <v>1.018907290791854</v>
       </c>
       <c r="F22">
-        <v>1.005056001897216</v>
+        <v>1.039275282108509</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0381324079648</v>
+        <v>1.031466059632772</v>
       </c>
       <c r="J22">
-        <v>1.004403582926682</v>
+        <v>1.024360434463222</v>
       </c>
       <c r="K22">
-        <v>1.01750712658933</v>
+        <v>1.032784032557225</v>
       </c>
       <c r="L22">
-        <v>1.000347349485575</v>
+        <v>1.022683701817818</v>
       </c>
       <c r="M22">
-        <v>1.020527959422749</v>
+        <v>1.042971786992706</v>
       </c>
       <c r="N22">
-        <v>1.005387671330512</v>
+        <v>1.012180517175136</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.974021258708933</v>
+        <v>1.017695948035722</v>
       </c>
       <c r="D23">
-        <v>1.003127810011949</v>
+        <v>1.029277884879417</v>
       </c>
       <c r="E23">
-        <v>0.9857035269676413</v>
+        <v>1.019165662917179</v>
       </c>
       <c r="F23">
-        <v>1.006474052892526</v>
+        <v>1.039565477282077</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038494354114351</v>
+        <v>1.031511780115581</v>
       </c>
       <c r="J23">
-        <v>1.005256446342571</v>
+        <v>1.024533601594426</v>
       </c>
       <c r="K23">
-        <v>1.018326176629132</v>
+        <v>1.032944369674197</v>
       </c>
       <c r="L23">
-        <v>1.001244103100155</v>
+        <v>1.022871447482665</v>
       </c>
       <c r="M23">
-        <v>1.021608473641454</v>
+        <v>1.043192850239801</v>
       </c>
       <c r="N23">
-        <v>1.005675864019674</v>
+        <v>1.012238551444045</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.980266282335004</v>
+        <v>1.018908957494647</v>
       </c>
       <c r="D24">
-        <v>1.00758624306843</v>
+        <v>1.030184759030797</v>
       </c>
       <c r="E24">
-        <v>0.9905118506406677</v>
+        <v>1.020185340840555</v>
       </c>
       <c r="F24">
-        <v>1.011957862910333</v>
+        <v>1.040709945269298</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039871472112383</v>
+        <v>1.031689299372728</v>
       </c>
       <c r="J24">
-        <v>1.008545713225657</v>
+        <v>1.025215707142779</v>
       </c>
       <c r="K24">
-        <v>1.021481432778342</v>
+        <v>1.033575239939262</v>
       </c>
       <c r="L24">
-        <v>1.004707663131198</v>
+        <v>1.023611534068929</v>
       </c>
       <c r="M24">
-        <v>1.025778189590888</v>
+        <v>1.044063652450792</v>
       </c>
       <c r="N24">
-        <v>1.006787097394159</v>
+        <v>1.012467051307268</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9872653250249778</v>
+        <v>1.020320316900033</v>
       </c>
       <c r="D25">
-        <v>1.012600872775349</v>
+        <v>1.031239595551549</v>
       </c>
       <c r="E25">
-        <v>0.9959345510083768</v>
+        <v>1.021373707075015</v>
       </c>
       <c r="F25">
-        <v>1.018128599009027</v>
+        <v>1.042042090272557</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041373961045356</v>
+        <v>1.031890141023106</v>
       </c>
       <c r="J25">
-        <v>1.012228995815389</v>
+        <v>1.026007953567774</v>
       </c>
       <c r="K25">
-        <v>1.025006675715449</v>
+        <v>1.034306526200862</v>
       </c>
       <c r="L25">
-        <v>1.008596307381661</v>
+        <v>1.024472275158266</v>
       </c>
       <c r="M25">
-        <v>1.030451862242645</v>
+        <v>1.045075130797477</v>
       </c>
       <c r="N25">
-        <v>1.00803083461071</v>
+        <v>1.012732244652742</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_1/res_bus/vm_pu.xlsx
@@ -418,40 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02144895620723</v>
+        <v>0.989092465531956</v>
       </c>
       <c r="D2">
-        <v>1.032082841100385</v>
+        <v>1.009724074787397</v>
       </c>
       <c r="E2">
-        <v>1.022325574799219</v>
-      </c>
-      <c r="F2">
-        <v>1.043107793232937</v>
+        <v>0.9971138986986608</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032046144391726</v>
+        <v>1.041451126672861</v>
       </c>
       <c r="J2">
-        <v>1.026640362567578</v>
+        <v>1.011604386559305</v>
       </c>
       <c r="K2">
-        <v>1.034889096898955</v>
+        <v>1.021049579920329</v>
       </c>
       <c r="L2">
-        <v>1.025160287473952</v>
-      </c>
-      <c r="M2">
-        <v>1.045882590493306</v>
+        <v>1.008613588476413</v>
       </c>
       <c r="N2">
-        <v>1.012943769618517</v>
+        <v>1.013040980820864</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022270124313473</v>
+        <v>0.9935700680005668</v>
       </c>
       <c r="D3">
-        <v>1.032696184933035</v>
+        <v>1.013043998005775</v>
       </c>
       <c r="E3">
-        <v>1.023019017595175</v>
-      </c>
-      <c r="F3">
-        <v>1.043883397499351</v>
+        <v>1.000662138178495</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032156974800357</v>
+        <v>1.042635244484929</v>
       </c>
       <c r="J3">
-        <v>1.027099822265489</v>
+        <v>1.014237567563626</v>
       </c>
       <c r="K3">
-        <v>1.03531166212589</v>
+        <v>1.023512655175789</v>
       </c>
       <c r="L3">
-        <v>1.025660681850534</v>
-      </c>
-      <c r="M3">
-        <v>1.04646925513283</v>
+        <v>1.011286553828001</v>
       </c>
       <c r="N3">
-        <v>1.013097350888327</v>
+        <v>1.015677901244241</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022802240274017</v>
+        <v>0.9964035148696713</v>
       </c>
       <c r="D4">
-        <v>1.033093544063434</v>
+        <v>1.015143220765229</v>
       </c>
       <c r="E4">
-        <v>1.023468775297714</v>
-      </c>
-      <c r="F4">
-        <v>1.044386089551724</v>
+        <v>1.002913692049865</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032227555124078</v>
+        <v>1.043367879690308</v>
       </c>
       <c r="J4">
-        <v>1.027397242483795</v>
+        <v>1.015899668683478</v>
       </c>
       <c r="K4">
-        <v>1.035584881179608</v>
+        <v>1.025062252438575</v>
       </c>
       <c r="L4">
-        <v>1.025984848788732</v>
-      </c>
-      <c r="M4">
-        <v>1.046849030052153</v>
+        <v>1.01297707811967</v>
       </c>
       <c r="N4">
-        <v>1.013196723134852</v>
+        <v>1.017342362738329</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023026123285496</v>
+        <v>0.9975799357777987</v>
       </c>
       <c r="D5">
-        <v>1.033260707940521</v>
+        <v>1.016014337135906</v>
       </c>
       <c r="E5">
-        <v>1.023658103816721</v>
-      </c>
-      <c r="F5">
-        <v>1.044597616450248</v>
+        <v>1.003849961949494</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032256954807405</v>
+        <v>1.043667994277878</v>
       </c>
       <c r="J5">
-        <v>1.02752230511545</v>
+        <v>1.016588711729433</v>
       </c>
       <c r="K5">
-        <v>1.03569969103567</v>
+        <v>1.025703397393635</v>
       </c>
       <c r="L5">
-        <v>1.026121217695064</v>
-      </c>
-      <c r="M5">
-        <v>1.047008724808799</v>
+        <v>1.013678702501785</v>
       </c>
       <c r="N5">
-        <v>1.013238497515702</v>
+        <v>1.018032384304444</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023063724818456</v>
+        <v>0.997776611329095</v>
       </c>
       <c r="D6">
-        <v>1.033288782125682</v>
+        <v>1.016159942404866</v>
       </c>
       <c r="E6">
-        <v>1.023689907534974</v>
-      </c>
-      <c r="F6">
-        <v>1.044633144128626</v>
+        <v>1.004006572466954</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032261875155881</v>
+        <v>1.043717926674132</v>
       </c>
       <c r="J6">
-        <v>1.027543305236186</v>
+        <v>1.016703844149464</v>
       </c>
       <c r="K6">
-        <v>1.035718965058201</v>
+        <v>1.025810451711919</v>
       </c>
       <c r="L6">
-        <v>1.026144119818839</v>
-      </c>
-      <c r="M6">
-        <v>1.047035540400724</v>
+        <v>1.013795984199085</v>
       </c>
       <c r="N6">
-        <v>1.013245511503451</v>
+        <v>1.018147680225717</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022805231098943</v>
+        <v>0.9964192915809837</v>
       </c>
       <c r="D7">
-        <v>1.033095777269444</v>
+        <v>1.015154905019636</v>
       </c>
       <c r="E7">
-        <v>1.023471304133233</v>
-      </c>
-      <c r="F7">
-        <v>1.044388915220373</v>
+        <v>1.002926242496136</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032227949034873</v>
+        <v>1.043371920625243</v>
       </c>
       <c r="J7">
-        <v>1.02739891347171</v>
+        <v>1.015908913469176</v>
       </c>
       <c r="K7">
-        <v>1.035586415478413</v>
+        <v>1.025070859595063</v>
       </c>
       <c r="L7">
-        <v>1.025986670608348</v>
-      </c>
-      <c r="M7">
-        <v>1.046851163756695</v>
+        <v>1.012986488545463</v>
       </c>
       <c r="N7">
-        <v>1.013197281333514</v>
+        <v>1.017351620652684</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021726314303236</v>
+        <v>0.9906192422826431</v>
       </c>
       <c r="D8">
-        <v>1.03229002200949</v>
+        <v>1.010856407010697</v>
       </c>
       <c r="E8">
-        <v>1.022559707684588</v>
-      </c>
-      <c r="F8">
-        <v>1.043369740364203</v>
+        <v>0.9983224481581781</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032083834493352</v>
+        <v>1.041858349068215</v>
       </c>
       <c r="J8">
-        <v>1.026795613667417</v>
+        <v>1.012503104574069</v>
       </c>
       <c r="K8">
-        <v>1.035031947196034</v>
+        <v>1.02189130235046</v>
       </c>
       <c r="L8">
-        <v>1.025329318895486</v>
-      </c>
-      <c r="M8">
-        <v>1.04608082158299</v>
+        <v>1.009525191001775</v>
       </c>
       <c r="N8">
-        <v>1.012995673890493</v>
+        <v>1.013940975118294</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019831063706675</v>
+        <v>0.9798844794358196</v>
       </c>
       <c r="D9">
-        <v>1.030873975439597</v>
+        <v>1.002890904015226</v>
       </c>
       <c r="E9">
-        <v>1.02096151396548</v>
-      </c>
-      <c r="F9">
-        <v>1.041580232261256</v>
+        <v>0.9898535535508719</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031821230106229</v>
+        <v>1.038926901874961</v>
       </c>
       <c r="J9">
-        <v>1.025733493250462</v>
+        <v>1.006168127819974</v>
       </c>
       <c r="K9">
-        <v>1.034053366144892</v>
+        <v>1.015937251800537</v>
       </c>
       <c r="L9">
-        <v>1.024173942485544</v>
-      </c>
-      <c r="M9">
-        <v>1.044724713415577</v>
+        <v>1.00311342317437</v>
       </c>
       <c r="N9">
-        <v>1.012640398353874</v>
+        <v>1.007597001970576</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.018571660598828</v>
+        <v>0.9723444303213613</v>
       </c>
       <c r="D10">
-        <v>1.029932612626286</v>
+        <v>0.9972941117030731</v>
       </c>
       <c r="E10">
-        <v>1.019901649180114</v>
-      </c>
-      <c r="F10">
-        <v>1.040391664592958</v>
+        <v>0.9839435334990672</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031640383440009</v>
+        <v>1.036783995146598</v>
       </c>
       <c r="J10">
-        <v>1.025026145422703</v>
+        <v>1.001699950844621</v>
       </c>
       <c r="K10">
-        <v>1.033400030254269</v>
+        <v>1.01171239427238</v>
       </c>
       <c r="L10">
-        <v>1.023405768827599</v>
-      </c>
-      <c r="M10">
-        <v>1.043821645300917</v>
+        <v>0.9986088729593356</v>
       </c>
       <c r="N10">
-        <v>1.012403565472651</v>
+        <v>1.00312247967141</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.018027319015214</v>
+        <v>0.9689793400354819</v>
       </c>
       <c r="D11">
-        <v>1.029525649421245</v>
+        <v>0.994796972189623</v>
       </c>
       <c r="E11">
-        <v>1.019444067946622</v>
-      </c>
-      <c r="F11">
-        <v>1.03987808160762</v>
+        <v>0.9813158617417467</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031560713637606</v>
+        <v>1.03580869758328</v>
       </c>
       <c r="J11">
-        <v>1.024720046576956</v>
+        <v>0.9997020834092571</v>
       </c>
       <c r="K11">
-        <v>1.033116921592311</v>
+        <v>1.009817681593015</v>
       </c>
       <c r="L11">
-        <v>1.023073652120154</v>
-      </c>
-      <c r="M11">
-        <v>1.043430867757603</v>
+        <v>0.9965989500338026</v>
       </c>
       <c r="N11">
-        <v>1.012301024544981</v>
+        <v>1.00112177503513</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.01782527656936</v>
+        <v>0.967713491054962</v>
       </c>
       <c r="D12">
-        <v>1.029374585273956</v>
+        <v>0.9938578243062984</v>
       </c>
       <c r="E12">
-        <v>1.019274306282414</v>
-      </c>
-      <c r="F12">
-        <v>1.039687477699881</v>
+        <v>0.9803289756545049</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031530916816233</v>
+        <v>1.035439060085186</v>
       </c>
       <c r="J12">
-        <v>1.024606377357979</v>
+        <v>0.9989500399522329</v>
       </c>
       <c r="K12">
-        <v>1.033011732343983</v>
+        <v>1.009103652421375</v>
       </c>
       <c r="L12">
-        <v>1.022950366924231</v>
-      </c>
-      <c r="M12">
-        <v>1.043285756021852</v>
+        <v>0.9958430006805015</v>
       </c>
       <c r="N12">
-        <v>1.012262938171469</v>
+        <v>1.000368663590136</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.017868608531903</v>
+        <v>0.9679857540366352</v>
       </c>
       <c r="D13">
-        <v>1.029406984484453</v>
+        <v>0.9940598084862715</v>
       </c>
       <c r="E13">
-        <v>1.019310711455344</v>
-      </c>
-      <c r="F13">
-        <v>1.039728355442533</v>
+        <v>0.9805411663361734</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031537317551394</v>
+        <v>1.035518686184479</v>
       </c>
       <c r="J13">
-        <v>1.024630758433545</v>
+        <v>0.9991118137493291</v>
       </c>
       <c r="K13">
-        <v>1.033034297132993</v>
+        <v>1.009257285197212</v>
       </c>
       <c r="L13">
-        <v>1.022976808475726</v>
-      </c>
-      <c r="M13">
-        <v>1.043316881122013</v>
+        <v>0.9960055861287529</v>
       </c>
       <c r="N13">
-        <v>1.012271107734215</v>
+        <v>1.00053066712458</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.018010615048159</v>
+        <v>0.968875034157848</v>
       </c>
       <c r="D14">
-        <v>1.029513160358083</v>
+        <v>0.9947195817348904</v>
       </c>
       <c r="E14">
-        <v>1.019430031213799</v>
-      </c>
-      <c r="F14">
-        <v>1.039862322877259</v>
+        <v>0.9812345100993359</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031558254778604</v>
+        <v>1.035778295038428</v>
       </c>
       <c r="J14">
-        <v>1.024710650033755</v>
+        <v>0.9996401249707789</v>
       </c>
       <c r="K14">
-        <v>1.033108227221588</v>
+        <v>1.009758871410856</v>
       </c>
       <c r="L14">
-        <v>1.023063459733028</v>
-      </c>
-      <c r="M14">
-        <v>1.043418871940563</v>
+        <v>0.9965366569591332</v>
       </c>
       <c r="N14">
-        <v>1.012297876271969</v>
+        <v>1.001059728608562</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.018098129913134</v>
+        <v>0.9694208149523664</v>
       </c>
       <c r="D15">
-        <v>1.029578592142556</v>
+        <v>0.9951245363976107</v>
       </c>
       <c r="E15">
-        <v>1.019503575196387</v>
-      </c>
-      <c r="F15">
-        <v>1.039944886391018</v>
+        <v>0.981660247111324</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031571127896752</v>
+        <v>1.035937264535639</v>
       </c>
       <c r="J15">
-        <v>1.024759877837993</v>
+        <v>0.9999643024919738</v>
       </c>
       <c r="K15">
-        <v>1.033153774045872</v>
+        <v>1.01006654366787</v>
       </c>
       <c r="L15">
-        <v>1.023116858777681</v>
-      </c>
-      <c r="M15">
-        <v>1.043481717264279</v>
+        <v>0.9968626111040446</v>
       </c>
       <c r="N15">
-        <v>1.012314369517279</v>
+        <v>1.001384366499021</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.018607807730485</v>
+        <v>0.9725655780033022</v>
       </c>
       <c r="D16">
-        <v>1.029959635363639</v>
+        <v>0.9974582418294567</v>
       </c>
       <c r="E16">
-        <v>1.019932045892555</v>
-      </c>
-      <c r="F16">
-        <v>1.040425772236047</v>
+        <v>0.9841164324610353</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031645642227681</v>
+        <v>1.036847703035714</v>
       </c>
       <c r="J16">
-        <v>1.025046464260219</v>
+        <v>1.001831174083337</v>
       </c>
       <c r="K16">
-        <v>1.033418814945071</v>
+        <v>1.011836727469016</v>
       </c>
       <c r="L16">
-        <v>1.023427821139843</v>
-      </c>
-      <c r="M16">
-        <v>1.043847585489829</v>
+        <v>0.9987409755340962</v>
       </c>
       <c r="N16">
-        <v>1.012410371014331</v>
+        <v>1.003253889262177</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.018927781002918</v>
+        <v>0.9745107974715833</v>
       </c>
       <c r="D17">
-        <v>1.030198829966735</v>
+        <v>0.9989020232532617</v>
       </c>
       <c r="E17">
-        <v>1.020201176323311</v>
-      </c>
-      <c r="F17">
-        <v>1.0407277085098</v>
+        <v>0.9856383942959103</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031692018957285</v>
+        <v>1.03740593700139</v>
       </c>
       <c r="J17">
-        <v>1.025226283493761</v>
+        <v>1.002984997939179</v>
       </c>
       <c r="K17">
-        <v>1.033585012924546</v>
+        <v>1.01292933140626</v>
       </c>
       <c r="L17">
-        <v>1.023623016548</v>
-      </c>
-      <c r="M17">
-        <v>1.044077155046919</v>
+        <v>0.9999030091578698</v>
       </c>
       <c r="N17">
-        <v>1.012470593052525</v>
+        <v>1.00440935168024</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.019114511233793</v>
+        <v>0.975635804016185</v>
       </c>
       <c r="D18">
-        <v>1.030338411014094</v>
+        <v>0.999737083942584</v>
       </c>
       <c r="E18">
-        <v>1.020358285404352</v>
-      </c>
-      <c r="F18">
-        <v>1.040903926369774</v>
+        <v>0.9865195494336446</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031718938257475</v>
+        <v>1.037726989142317</v>
       </c>
       <c r="J18">
-        <v>1.025331187003508</v>
+        <v>1.003651947033126</v>
       </c>
       <c r="K18">
-        <v>1.033681933043638</v>
+        <v>1.013560357203855</v>
       </c>
       <c r="L18">
-        <v>1.023736919599572</v>
-      </c>
-      <c r="M18">
-        <v>1.044211083749947</v>
+        <v>1.000575102092286</v>
       </c>
       <c r="N18">
-        <v>1.012505720409749</v>
+        <v>1.005077247918401</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.019178197516361</v>
+        <v>0.9760177974654454</v>
       </c>
       <c r="D19">
-        <v>1.030386015149607</v>
+        <v>1.000020633844965</v>
       </c>
       <c r="E19">
-        <v>1.020411877506268</v>
-      </c>
-      <c r="F19">
-        <v>1.04096402960058</v>
+        <v>0.9868189005408862</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03172809472325</v>
+        <v>1.037835693992914</v>
       </c>
       <c r="J19">
-        <v>1.025366959399883</v>
+        <v>1.00387834563473</v>
       </c>
       <c r="K19">
-        <v>1.033714976803658</v>
+        <v>1.013774469614277</v>
       </c>
       <c r="L19">
-        <v>1.023775765841136</v>
-      </c>
-      <c r="M19">
-        <v>1.044256754103992</v>
+        <v>1.000803314370933</v>
       </c>
       <c r="N19">
-        <v>1.012517698061661</v>
+        <v>1.005303968031987</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.018893441035598</v>
+        <v>0.9743030934834455</v>
       </c>
       <c r="D20">
-        <v>1.030173160131013</v>
+        <v>0.9987478544170615</v>
       </c>
       <c r="E20">
-        <v>1.020172287729444</v>
-      </c>
-      <c r="F20">
-        <v>1.040695302879461</v>
+        <v>0.9854757865641735</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031687056765628</v>
+        <v>1.03734651678252</v>
       </c>
       <c r="J20">
-        <v>1.025206988720857</v>
+        <v>1.002861833292174</v>
       </c>
       <c r="K20">
-        <v>1.033567183548713</v>
+        <v>1.012812757086595</v>
       </c>
       <c r="L20">
-        <v>1.02360206886222</v>
-      </c>
-      <c r="M20">
-        <v>1.044052521841604</v>
+        <v>0.9997789268202144</v>
       </c>
       <c r="N20">
-        <v>1.012464131705078</v>
+        <v>1.00428601212531</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.017968793506468</v>
+        <v>0.9686136095248107</v>
       </c>
       <c r="D21">
-        <v>1.029481891430291</v>
+        <v>0.9945256195765944</v>
       </c>
       <c r="E21">
-        <v>1.019394888861164</v>
-      </c>
-      <c r="F21">
-        <v>1.039822868270547</v>
+        <v>0.9810306417875433</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031552094910182</v>
+        <v>1.035702052181037</v>
       </c>
       <c r="J21">
-        <v>1.024687123122871</v>
+        <v>0.999484828952622</v>
       </c>
       <c r="K21">
-        <v>1.033086457472029</v>
+        <v>1.009611453331918</v>
       </c>
       <c r="L21">
-        <v>1.023037940939669</v>
-      </c>
-      <c r="M21">
-        <v>1.043388837055312</v>
+        <v>0.9963805323690331</v>
       </c>
       <c r="N21">
-        <v>1.012289993548533</v>
+        <v>1.000904212052247</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.017388301117917</v>
+        <v>0.9649439171243032</v>
       </c>
       <c r="D22">
-        <v>1.029047843530632</v>
+        <v>0.9918035348916273</v>
       </c>
       <c r="E22">
-        <v>1.018907290791854</v>
-      </c>
-      <c r="F22">
-        <v>1.039275282108509</v>
+        <v>0.978172718230283</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031466059632772</v>
+        <v>1.034625344210723</v>
       </c>
       <c r="J22">
-        <v>1.024360434463222</v>
+        <v>0.9973037697437753</v>
       </c>
       <c r="K22">
-        <v>1.032784032557225</v>
+        <v>1.007539133033164</v>
       </c>
       <c r="L22">
-        <v>1.022683701817818</v>
-      </c>
-      <c r="M22">
-        <v>1.042971786992706</v>
+        <v>0.9941893436494561</v>
       </c>
       <c r="N22">
-        <v>1.012180517175136</v>
+        <v>0.9987200554891529</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.017695948035722</v>
+        <v>0.9668983583388613</v>
       </c>
       <c r="D23">
-        <v>1.029277884879417</v>
+        <v>0.9932531382696669</v>
       </c>
       <c r="E23">
-        <v>1.019165662917179</v>
-      </c>
-      <c r="F23">
-        <v>1.039565477282077</v>
+        <v>0.9796939300170415</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031511780115581</v>
+        <v>1.035200268520579</v>
       </c>
       <c r="J23">
-        <v>1.024533601594426</v>
+        <v>0.9984656334177499</v>
       </c>
       <c r="K23">
-        <v>1.032944369674197</v>
+        <v>1.008643505882349</v>
       </c>
       <c r="L23">
-        <v>1.022871447482665</v>
-      </c>
-      <c r="M23">
-        <v>1.043192850239801</v>
+        <v>0.9953562564371985</v>
       </c>
       <c r="N23">
-        <v>1.012238551444045</v>
+        <v>0.9998835691428118</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.018908957494647</v>
+        <v>0.9743969756015852</v>
       </c>
       <c r="D24">
-        <v>1.030184759030797</v>
+        <v>0.9988175384960947</v>
       </c>
       <c r="E24">
-        <v>1.020185340840555</v>
-      </c>
-      <c r="F24">
-        <v>1.040709945269298</v>
+        <v>0.9855492822916176</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031689299372728</v>
+        <v>1.037373380283905</v>
       </c>
       <c r="J24">
-        <v>1.025215707142779</v>
+        <v>1.002917504778194</v>
       </c>
       <c r="K24">
-        <v>1.033575239939262</v>
+        <v>1.012865451353148</v>
       </c>
       <c r="L24">
-        <v>1.023611534068929</v>
-      </c>
-      <c r="M24">
-        <v>1.044063652450792</v>
+        <v>0.9998350118747087</v>
       </c>
       <c r="N24">
-        <v>1.012467051307268</v>
+        <v>1.004341762671224</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.020320316900033</v>
+        <v>0.9827243497014599</v>
       </c>
       <c r="D25">
-        <v>1.031239595551549</v>
+        <v>1.004998843598795</v>
       </c>
       <c r="E25">
-        <v>1.021373707075015</v>
-      </c>
-      <c r="F25">
-        <v>1.042042090272557</v>
+        <v>0.9920876227552902</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031890141023106</v>
+        <v>1.039717149871634</v>
       </c>
       <c r="J25">
-        <v>1.026007953567774</v>
+        <v>1.007847431202878</v>
       </c>
       <c r="K25">
-        <v>1.034306526200862</v>
+        <v>1.017520051440596</v>
       </c>
       <c r="L25">
-        <v>1.024472275158266</v>
-      </c>
-      <c r="M25">
-        <v>1.045075130797477</v>
+        <v>1.004810022693718</v>
       </c>
       <c r="N25">
-        <v>1.012732244652742</v>
+        <v>1.009278690156902</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_1/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,34 +433,40 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.989092465531956</v>
+        <v>0.9953323642099696</v>
       </c>
       <c r="D2">
-        <v>1.009724074787397</v>
+        <v>1.018278405596702</v>
       </c>
       <c r="E2">
-        <v>0.9971138986986608</v>
+        <v>1.002489975646769</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041451126672861</v>
+        <v>1.045792652206915</v>
       </c>
       <c r="J2">
-        <v>1.011604386559305</v>
+        <v>1.017653585419456</v>
       </c>
       <c r="K2">
-        <v>1.021049579920329</v>
+        <v>1.029488833613591</v>
       </c>
       <c r="L2">
-        <v>1.008613588476413</v>
+        <v>1.013914729811495</v>
       </c>
       <c r="N2">
-        <v>1.013040980820864</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.019098770237245</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.031921327107745</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -456,34 +474,40 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9935700680005668</v>
+        <v>0.999403245668435</v>
       </c>
       <c r="D3">
-        <v>1.013043998005775</v>
+        <v>1.021068537251389</v>
       </c>
       <c r="E3">
-        <v>1.000662138178495</v>
+        <v>1.0056943514573</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042635244484929</v>
+        <v>1.04671233998829</v>
       </c>
       <c r="J3">
-        <v>1.014237567563626</v>
+        <v>1.019910192039134</v>
       </c>
       <c r="K3">
-        <v>1.023512655175789</v>
+        <v>1.031438756510595</v>
       </c>
       <c r="L3">
-        <v>1.011286553828001</v>
+        <v>1.016254886809278</v>
       </c>
       <c r="N3">
-        <v>1.015677901244241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.021358581497164</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.03329743003756</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,34 +515,40 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9964035148696713</v>
+        <v>1.00198536701292</v>
       </c>
       <c r="D4">
-        <v>1.015143220765229</v>
+        <v>1.022838445406999</v>
       </c>
       <c r="E4">
-        <v>1.002913692049865</v>
+        <v>1.00773296021059</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043367879690308</v>
+        <v>1.047280455023289</v>
       </c>
       <c r="J4">
-        <v>1.015899668683478</v>
+        <v>1.021338422885692</v>
       </c>
       <c r="K4">
-        <v>1.025062252438575</v>
+        <v>1.032668828278223</v>
       </c>
       <c r="L4">
-        <v>1.01297707811967</v>
+        <v>1.01773894262086</v>
       </c>
       <c r="N4">
-        <v>1.017342362738329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.022788840595344</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.034168115004029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -526,34 +556,40 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9975799357777987</v>
+        <v>1.003061441418702</v>
       </c>
       <c r="D5">
-        <v>1.016014337135906</v>
+        <v>1.023577820453777</v>
       </c>
       <c r="E5">
-        <v>1.003849961949494</v>
+        <v>1.008584263527116</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043667994277878</v>
+        <v>1.047514751674555</v>
       </c>
       <c r="J5">
-        <v>1.016588711729433</v>
+        <v>1.021933945412402</v>
       </c>
       <c r="K5">
-        <v>1.025703397393635</v>
+        <v>1.033182090891077</v>
       </c>
       <c r="L5">
-        <v>1.013678702501785</v>
+        <v>1.018358146773567</v>
       </c>
       <c r="N5">
-        <v>1.018032384304444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.02338520883235</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.034538264701687</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -561,34 +597,40 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.997776611329095</v>
+        <v>1.00324458037872</v>
       </c>
       <c r="D6">
-        <v>1.016159942404866</v>
+        <v>1.02370583735938</v>
       </c>
       <c r="E6">
-        <v>1.004006572466954</v>
+        <v>1.008729598203504</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043717926674132</v>
+        <v>1.047555934591097</v>
       </c>
       <c r="J6">
-        <v>1.016703844149464</v>
+        <v>1.022036585165619</v>
       </c>
       <c r="K6">
-        <v>1.025810451711919</v>
+        <v>1.033272144668642</v>
       </c>
       <c r="L6">
-        <v>1.013795984199085</v>
+        <v>1.018464539083917</v>
       </c>
       <c r="N6">
-        <v>1.018147680225717</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.02348799434579</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.0346107499119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -596,34 +638,40 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9964192915809837</v>
+        <v>1.002008175102083</v>
       </c>
       <c r="D7">
-        <v>1.015154905019636</v>
+        <v>1.022859910642975</v>
       </c>
       <c r="E7">
-        <v>1.002926242496136</v>
+        <v>1.00775198294596</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043371920625243</v>
+        <v>1.047289485487823</v>
       </c>
       <c r="J7">
-        <v>1.015908913469176</v>
+        <v>1.021354578743397</v>
       </c>
       <c r="K7">
-        <v>1.025070859595063</v>
+        <v>1.032687136983715</v>
       </c>
       <c r="L7">
-        <v>1.012986488545463</v>
+        <v>1.017754769773701</v>
       </c>
       <c r="N7">
-        <v>1.017351620652684</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.02280501939622</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.0342013245998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -631,34 +679,40 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9906192422826431</v>
+        <v>0.9967291369104473</v>
       </c>
       <c r="D8">
-        <v>1.010856407010697</v>
+        <v>1.019242590702799</v>
       </c>
       <c r="E8">
-        <v>0.9983224481581781</v>
+        <v>1.003589389721203</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041858349068215</v>
+        <v>1.046116101606695</v>
       </c>
       <c r="J8">
-        <v>1.012503104574069</v>
+        <v>1.018432647283239</v>
       </c>
       <c r="K8">
-        <v>1.02189130235046</v>
+        <v>1.030168067777888</v>
       </c>
       <c r="L8">
-        <v>1.009525191001775</v>
+        <v>1.014720958975126</v>
       </c>
       <c r="N8">
-        <v>1.013940975118294</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.019878938458239</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.032424715824391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -666,34 +720,40 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9798844794358196</v>
+        <v>0.9869968329618741</v>
       </c>
       <c r="D9">
-        <v>1.002890904015226</v>
+        <v>1.012568776276837</v>
       </c>
       <c r="E9">
-        <v>0.9898535535508719</v>
+        <v>0.9959641146622934</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038926901874961</v>
+        <v>1.043828252365434</v>
       </c>
       <c r="J9">
-        <v>1.006168127819974</v>
+        <v>1.013017273022642</v>
       </c>
       <c r="K9">
-        <v>1.015937251800537</v>
+        <v>1.025461172862413</v>
       </c>
       <c r="L9">
-        <v>1.00311342317437</v>
+        <v>1.009123012437667</v>
       </c>
       <c r="N9">
-        <v>1.007597001970576</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.014455873745039</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.029093355109321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -701,34 +761,40 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9723444303213613</v>
+        <v>0.9802021282206363</v>
       </c>
       <c r="D10">
-        <v>0.9972941117030731</v>
+        <v>1.007917550451162</v>
       </c>
       <c r="E10">
-        <v>0.9839435334990672</v>
+        <v>0.9906777109023882</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036783995146598</v>
+        <v>1.042155476005237</v>
       </c>
       <c r="J10">
-        <v>1.001699950844621</v>
+        <v>1.009223868396925</v>
       </c>
       <c r="K10">
-        <v>1.01171239427238</v>
+        <v>1.022145307574688</v>
       </c>
       <c r="L10">
-        <v>0.9986088729593356</v>
+        <v>1.005217347112521</v>
       </c>
       <c r="N10">
-        <v>1.00312247967141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010657082049644</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.026765772854608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -736,34 +802,40 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9689793400354819</v>
+        <v>0.9771882528828518</v>
       </c>
       <c r="D11">
-        <v>0.994796972189623</v>
+        <v>1.005862716157315</v>
       </c>
       <c r="E11">
-        <v>0.9813158617417467</v>
+        <v>0.9883435570670225</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03580869758328</v>
+        <v>1.041399906925689</v>
       </c>
       <c r="J11">
-        <v>0.9997020834092571</v>
+        <v>1.007541813468822</v>
       </c>
       <c r="K11">
-        <v>1.009817681593015</v>
+        <v>1.020674910728134</v>
       </c>
       <c r="L11">
-        <v>0.9965989500338026</v>
+        <v>1.003488696399466</v>
       </c>
       <c r="N11">
-        <v>1.00112177503513</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008972638410609</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.025759354483176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -771,34 +843,40 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.967713491054962</v>
+        <v>0.976051352089391</v>
       </c>
       <c r="D12">
-        <v>0.9938578243062984</v>
+        <v>1.005084648837552</v>
       </c>
       <c r="E12">
-        <v>0.9803289756545049</v>
+        <v>0.9874638044664618</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035439060085186</v>
+        <v>1.041110187733204</v>
       </c>
       <c r="J12">
-        <v>0.9989500399522329</v>
+        <v>1.006905019119261</v>
       </c>
       <c r="K12">
-        <v>1.009103652421375</v>
+        <v>1.020115079060169</v>
       </c>
       <c r="L12">
-        <v>0.9958430006805015</v>
+        <v>1.002835184778771</v>
       </c>
       <c r="N12">
-        <v>1.000368663590136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.00833493974003</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.025363525890429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -806,34 +884,40 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9679857540366352</v>
+        <v>0.9762948892534978</v>
       </c>
       <c r="D13">
-        <v>0.9940598084862715</v>
+        <v>1.00525065370291</v>
       </c>
       <c r="E13">
-        <v>0.9805411663361734</v>
+        <v>0.9876520469850897</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035518686184479</v>
+        <v>1.041171953439938</v>
       </c>
       <c r="J13">
-        <v>0.9991118137493291</v>
+        <v>1.007041082222261</v>
       </c>
       <c r="K13">
-        <v>1.009257285197212</v>
+        <v>1.020234247764593</v>
       </c>
       <c r="L13">
-        <v>0.9960055861287529</v>
+        <v>1.002974856840854</v>
       </c>
       <c r="N13">
-        <v>1.00053066712458</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008471196068243</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.025445258957036</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -841,34 +925,40 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.968875034157848</v>
+        <v>0.9770941453103992</v>
       </c>
       <c r="D14">
-        <v>0.9947195817348904</v>
+        <v>1.005798024863787</v>
       </c>
       <c r="E14">
-        <v>0.9812345100993359</v>
+        <v>0.9882706436197845</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035778295038428</v>
+        <v>1.041375800764251</v>
       </c>
       <c r="J14">
-        <v>0.9996401249707789</v>
+        <v>1.00748895423547</v>
       </c>
       <c r="K14">
-        <v>1.009758871410856</v>
+        <v>1.02062824755829</v>
       </c>
       <c r="L14">
-        <v>0.9965366569591332</v>
+        <v>1.003434465282628</v>
       </c>
       <c r="N14">
-        <v>1.001059728608562</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008919704111082</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.025725279713998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -876,34 +966,40 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9694208149523664</v>
+        <v>0.9775867311727245</v>
       </c>
       <c r="D15">
-        <v>0.9951245363976107</v>
+        <v>1.006136727104425</v>
       </c>
       <c r="E15">
-        <v>0.981660247111324</v>
+        <v>0.9886523686384591</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035937264535639</v>
+        <v>1.04150192131846</v>
       </c>
       <c r="J15">
-        <v>0.9999643024919738</v>
+        <v>1.007765659972493</v>
       </c>
       <c r="K15">
-        <v>1.01006654366787</v>
+        <v>1.020872544618367</v>
       </c>
       <c r="L15">
-        <v>0.9968626111040446</v>
+        <v>1.003718367459326</v>
       </c>
       <c r="N15">
-        <v>1.001384366499021</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.00919680280199</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.025903956497169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -911,34 +1007,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9725655780033022</v>
+        <v>0.9804166092268158</v>
       </c>
       <c r="D16">
-        <v>0.9974582418294567</v>
+        <v>1.008075248629968</v>
       </c>
       <c r="E16">
-        <v>0.9841164324610353</v>
+        <v>0.990846484397619</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036847703035714</v>
+        <v>1.04221618410119</v>
       </c>
       <c r="J16">
-        <v>1.001831174083337</v>
+        <v>1.00934999432659</v>
       </c>
       <c r="K16">
-        <v>1.011836727469016</v>
+        <v>1.022263962772251</v>
       </c>
       <c r="L16">
-        <v>0.9987409755340962</v>
+        <v>1.005345828572965</v>
       </c>
       <c r="N16">
-        <v>1.003253889262177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.010783387092596</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.026890964539084</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -946,34 +1048,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9745107974715833</v>
+        <v>0.982169810127234</v>
       </c>
       <c r="D17">
-        <v>0.9989020232532617</v>
+        <v>1.009276910474682</v>
       </c>
       <c r="E17">
-        <v>0.9856383942959103</v>
+        <v>0.9922083273785325</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03740593700139</v>
+        <v>1.042654154412991</v>
       </c>
       <c r="J17">
-        <v>1.002984997939179</v>
+        <v>1.010330850183811</v>
       </c>
       <c r="K17">
-        <v>1.01292933140626</v>
+        <v>1.023124213787429</v>
       </c>
       <c r="L17">
-        <v>0.9999030091578698</v>
+        <v>1.006354366150974</v>
       </c>
       <c r="N17">
-        <v>1.00440935168024</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.01176563587764</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.027501822362461</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -981,34 +1089,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.975635804016185</v>
+        <v>0.9831796679204077</v>
       </c>
       <c r="D18">
-        <v>0.999737083942584</v>
+        <v>1.009965739127566</v>
       </c>
       <c r="E18">
-        <v>0.9865195494336446</v>
+        <v>0.9929929003587095</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037726989142317</v>
+        <v>1.042902480578673</v>
       </c>
       <c r="J18">
-        <v>1.003651947033126</v>
+        <v>1.010893541591761</v>
       </c>
       <c r="K18">
-        <v>1.013560357203855</v>
+        <v>1.02361463996195</v>
       </c>
       <c r="L18">
-        <v>1.000575102092286</v>
+        <v>1.006933691669741</v>
       </c>
       <c r="N18">
-        <v>1.005077247918401</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012329126371931</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.027836802771735</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1016,34 +1130,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9760177974654454</v>
+        <v>0.9835266220239901</v>
       </c>
       <c r="D19">
-        <v>1.000020633844965</v>
+        <v>1.010205190190922</v>
       </c>
       <c r="E19">
-        <v>0.9868189005408862</v>
+        <v>0.9932631788599344</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037835693992914</v>
+        <v>1.042989296680132</v>
       </c>
       <c r="J19">
-        <v>1.00387834563473</v>
+        <v>1.011088389711266</v>
       </c>
       <c r="K19">
-        <v>1.013774469614277</v>
+        <v>1.023786452239589</v>
       </c>
       <c r="L19">
-        <v>1.000803314370933</v>
+        <v>1.007134046822424</v>
       </c>
       <c r="N19">
-        <v>1.005303968031987</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012524251198115</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.027964748810046</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1051,34 +1171,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9743030934834455</v>
+        <v>0.9819821198856855</v>
       </c>
       <c r="D20">
-        <v>0.9987478544170615</v>
+        <v>1.009147967929571</v>
       </c>
       <c r="E20">
-        <v>0.9854757865641735</v>
+        <v>0.9920623839222753</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03734651678252</v>
+        <v>1.042607262005819</v>
       </c>
       <c r="J20">
-        <v>1.002861833292174</v>
+        <v>1.010225715253671</v>
       </c>
       <c r="K20">
-        <v>1.012812757086595</v>
+        <v>1.023031846257773</v>
       </c>
       <c r="L20">
-        <v>0.9997789268202144</v>
+        <v>1.006246257629911</v>
       </c>
       <c r="N20">
-        <v>1.00428601212531</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.01166035164384</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.027435162924037</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1086,34 +1212,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9686136095248107</v>
+        <v>0.9768642862746234</v>
       </c>
       <c r="D21">
-        <v>0.9945256195765944</v>
+        <v>1.005644222004573</v>
       </c>
       <c r="E21">
-        <v>0.9810306417875433</v>
+        <v>0.9880935014414409</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035702052181037</v>
+        <v>1.041319548065873</v>
       </c>
       <c r="J21">
-        <v>0.999484828952622</v>
+        <v>1.007362192530772</v>
       </c>
       <c r="K21">
-        <v>1.009611453331918</v>
+        <v>1.020519446094555</v>
       </c>
       <c r="L21">
-        <v>0.9963805323690331</v>
+        <v>1.003304012472623</v>
       </c>
       <c r="N21">
-        <v>1.000904212052247</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.008792762390224</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.025662037324075</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1121,34 +1253,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9649439171243032</v>
+        <v>0.973566404827145</v>
       </c>
       <c r="D22">
-        <v>0.9918035348916273</v>
+        <v>1.003384465527</v>
       </c>
       <c r="E22">
-        <v>0.978172718230283</v>
+        <v>0.9855435859382193</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034625344210723</v>
+        <v>1.040472067222678</v>
       </c>
       <c r="J22">
-        <v>0.9973037697437753</v>
+        <v>1.005512291848674</v>
       </c>
       <c r="K22">
-        <v>1.007539133033164</v>
+        <v>1.018889172336788</v>
       </c>
       <c r="L22">
-        <v>0.9941893436494561</v>
+        <v>1.001406971959733</v>
       </c>
       <c r="N22">
-        <v>0.9987200554891529</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.006940234636971</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.024495664524969</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1156,34 +1294,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9668983583388613</v>
+        <v>0.9753157440744141</v>
       </c>
       <c r="D23">
-        <v>0.9932531382696669</v>
+        <v>1.00457854672899</v>
       </c>
       <c r="E23">
-        <v>0.9796939300170415</v>
+        <v>0.9868943758648139</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035200268520579</v>
+        <v>1.040920244894559</v>
       </c>
       <c r="J23">
-        <v>0.9984656334177499</v>
+        <v>1.006491326977697</v>
       </c>
       <c r="K23">
-        <v>1.008643505882349</v>
+        <v>1.019749121673701</v>
       </c>
       <c r="L23">
-        <v>0.9953562564371985</v>
+        <v>1.002411057789112</v>
       </c>
       <c r="N23">
-        <v>0.9998835691428118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007920660108174</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.025093940233713</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1191,34 +1335,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9743969756015852</v>
+        <v>0.9820563568656405</v>
       </c>
       <c r="D24">
-        <v>0.9988175384960947</v>
+        <v>1.009191542362616</v>
       </c>
       <c r="E24">
-        <v>0.9855492822916176</v>
+        <v>0.9921185413778065</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037373380283905</v>
+        <v>1.042621021727439</v>
       </c>
       <c r="J24">
-        <v>1.002917504778194</v>
+        <v>1.010263068703202</v>
       </c>
       <c r="K24">
-        <v>1.012865451353148</v>
+        <v>1.023059144284943</v>
       </c>
       <c r="L24">
-        <v>0.9998350118747087</v>
+        <v>1.006285492532664</v>
       </c>
       <c r="N24">
-        <v>1.004341762671224</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011697758139554</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.027426745535829</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1226,31 +1376,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9827243497014599</v>
+        <v>0.9895769888701297</v>
       </c>
       <c r="D25">
-        <v>1.004998843598795</v>
+        <v>1.014345497311663</v>
       </c>
       <c r="E25">
-        <v>0.9920876227552902</v>
+        <v>0.9979811177295721</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039717149871634</v>
+        <v>1.044453772769078</v>
       </c>
       <c r="J25">
-        <v>1.007847431202878</v>
+        <v>1.014460293478956</v>
       </c>
       <c r="K25">
-        <v>1.017520051440596</v>
+        <v>1.026725125991639</v>
       </c>
       <c r="L25">
-        <v>1.004810022693718</v>
+        <v>1.010610855299135</v>
       </c>
       <c r="N25">
-        <v>1.009278690156902</v>
+        <v>1.015900943455919</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.030015940391941</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_1/res_bus/vm_pu.xlsx
@@ -433,37 +433,49 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9953323642099696</v>
+        <v>1.019040600956404</v>
       </c>
       <c r="D2">
-        <v>1.018278405596702</v>
+        <v>1.039291936968012</v>
       </c>
       <c r="E2">
-        <v>1.002489975646769</v>
+        <v>1.033566015885498</v>
+      </c>
+      <c r="F2">
+        <v>1.045947579204553</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045792652206915</v>
+        <v>1.057425463139092</v>
       </c>
       <c r="J2">
-        <v>1.017653585419456</v>
+        <v>1.040666352005827</v>
       </c>
       <c r="K2">
-        <v>1.029488833613591</v>
+        <v>1.050229723685538</v>
       </c>
       <c r="L2">
-        <v>1.013914729811495</v>
+        <v>1.044576720126875</v>
+      </c>
+      <c r="M2">
+        <v>1.056801859002528</v>
       </c>
       <c r="N2">
-        <v>1.019098770237245</v>
+        <v>1.017387091933935</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.053527136381266</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.031921327107745</v>
+        <v>1.046587007682587</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -474,37 +486,49 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.999403245668435</v>
+        <v>1.022222178506418</v>
       </c>
       <c r="D3">
-        <v>1.021068537251389</v>
+        <v>1.041429850419536</v>
       </c>
       <c r="E3">
-        <v>1.0056943514573</v>
+        <v>1.035990814823534</v>
+      </c>
+      <c r="F3">
+        <v>1.048277440255041</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04671233998829</v>
+        <v>1.05823519648247</v>
       </c>
       <c r="J3">
-        <v>1.019910192039134</v>
+        <v>1.042124845806073</v>
       </c>
       <c r="K3">
-        <v>1.031438756510595</v>
+        <v>1.051558712347278</v>
       </c>
       <c r="L3">
-        <v>1.016254886809278</v>
+        <v>1.046183000322007</v>
+      </c>
+      <c r="M3">
+        <v>1.058327732357383</v>
       </c>
       <c r="N3">
-        <v>1.021358581497164</v>
+        <v>1.017877386266501</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.054734740553169</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.03329743003756</v>
+        <v>1.047524060316341</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -515,37 +539,49 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00198536701292</v>
+        <v>1.024249349250888</v>
       </c>
       <c r="D4">
-        <v>1.022838445406999</v>
+        <v>1.042795792174699</v>
       </c>
       <c r="E4">
-        <v>1.00773296021059</v>
+        <v>1.037541418662536</v>
+      </c>
+      <c r="F4">
+        <v>1.049767848287503</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047280455023289</v>
+        <v>1.058742910150015</v>
       </c>
       <c r="J4">
-        <v>1.021338422885692</v>
+        <v>1.043052456639351</v>
       </c>
       <c r="K4">
-        <v>1.032668828278223</v>
+        <v>1.052403753612854</v>
       </c>
       <c r="L4">
-        <v>1.01773894262086</v>
+        <v>1.047206919352071</v>
+      </c>
+      <c r="M4">
+        <v>1.059300550134616</v>
       </c>
       <c r="N4">
-        <v>1.022788840595344</v>
+        <v>1.018189274792223</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.055504645389015</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.034168115004029</v>
+        <v>1.04812244937176</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -556,37 +592,49 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003061441418702</v>
+        <v>1.025096703885108</v>
       </c>
       <c r="D5">
-        <v>1.023577820453777</v>
+        <v>1.043369423654775</v>
       </c>
       <c r="E5">
-        <v>1.008584263527116</v>
+        <v>1.038191327101152</v>
+      </c>
+      <c r="F5">
+        <v>1.050392785375392</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047514751674555</v>
+        <v>1.058954470179815</v>
       </c>
       <c r="J5">
-        <v>1.021933945412402</v>
+        <v>1.04344106798788</v>
       </c>
       <c r="K5">
-        <v>1.033182090891077</v>
+        <v>1.052758944418609</v>
       </c>
       <c r="L5">
-        <v>1.018358146773567</v>
+        <v>1.047636063927537</v>
+      </c>
+      <c r="M5">
+        <v>1.059708476117422</v>
       </c>
       <c r="N5">
-        <v>1.02338520883235</v>
+        <v>1.018320220605798</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.05582748484421</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.034538264701687</v>
+        <v>1.048380683844607</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -597,37 +645,49 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00324458037872</v>
+        <v>1.025241584580902</v>
       </c>
       <c r="D6">
-        <v>1.02370583735938</v>
+        <v>1.043469733168212</v>
       </c>
       <c r="E6">
-        <v>1.008729598203504</v>
+        <v>1.038303050198004</v>
+      </c>
+      <c r="F6">
+        <v>1.050500390166448</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047555934591097</v>
+        <v>1.05899215199467</v>
       </c>
       <c r="J6">
-        <v>1.022036585165619</v>
+        <v>1.043509059835752</v>
       </c>
       <c r="K6">
-        <v>1.033272144668642</v>
+        <v>1.052822565857439</v>
       </c>
       <c r="L6">
-        <v>1.018464539083917</v>
+        <v>1.047710728566107</v>
+      </c>
+      <c r="M6">
+        <v>1.059779648740752</v>
       </c>
       <c r="N6">
-        <v>1.02348799434579</v>
+        <v>1.01834346072552</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.055883812036371</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.0346107499119</v>
+        <v>1.048434315410396</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -638,37 +698,49 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002008175102083</v>
+        <v>1.024268841788764</v>
       </c>
       <c r="D7">
-        <v>1.022859910642975</v>
+        <v>1.04281480604089</v>
       </c>
       <c r="E7">
-        <v>1.00775198294596</v>
+        <v>1.037557773656845</v>
+      </c>
+      <c r="F7">
+        <v>1.049784009768475</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047289485487823</v>
+        <v>1.058752137596863</v>
       </c>
       <c r="J7">
-        <v>1.021354578743397</v>
+        <v>1.043065610368448</v>
       </c>
       <c r="K7">
-        <v>1.032687136983715</v>
+        <v>1.052419723098175</v>
       </c>
       <c r="L7">
-        <v>1.017754769773701</v>
+        <v>1.047220237536333</v>
+      </c>
+      <c r="M7">
+        <v>1.059313726101495</v>
       </c>
       <c r="N7">
-        <v>1.02280501939622</v>
+        <v>1.01819459990847</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.055515073072029</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.0342013245998</v>
+        <v>1.048153628514919</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -679,37 +751,49 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9967291369104473</v>
+        <v>1.020132584021978</v>
       </c>
       <c r="D8">
-        <v>1.019242590702799</v>
+        <v>1.040032072236245</v>
       </c>
       <c r="E8">
-        <v>1.003589389721203</v>
+        <v>1.034398870007013</v>
+      </c>
+      <c r="F8">
+        <v>1.04674820176494</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046116101606695</v>
+        <v>1.057710372393234</v>
       </c>
       <c r="J8">
-        <v>1.018432647283239</v>
+        <v>1.041172475985893</v>
       </c>
       <c r="K8">
-        <v>1.030168067777888</v>
+        <v>1.05069577054959</v>
       </c>
       <c r="L8">
-        <v>1.014720958975126</v>
+        <v>1.045132205988629</v>
+      </c>
+      <c r="M8">
+        <v>1.057330091774744</v>
       </c>
       <c r="N8">
-        <v>1.019878938458239</v>
+        <v>1.017558380134057</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.053945189707959</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.032424715824391</v>
+        <v>1.046939191354186</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -720,37 +804,49 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9869968329618741</v>
+        <v>1.012580846428425</v>
       </c>
       <c r="D9">
-        <v>1.012568776276837</v>
+        <v>1.034973205566912</v>
       </c>
       <c r="E9">
-        <v>0.9959641146622934</v>
+        <v>1.028674752980116</v>
+      </c>
+      <c r="F9">
+        <v>1.041250746430632</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043828252365434</v>
+        <v>1.055738083035235</v>
       </c>
       <c r="J9">
-        <v>1.013017273022642</v>
+        <v>1.037697032787753</v>
       </c>
       <c r="K9">
-        <v>1.025461172862413</v>
+        <v>1.047523252206095</v>
       </c>
       <c r="L9">
-        <v>1.009123012437667</v>
+        <v>1.041319123614355</v>
+      </c>
+      <c r="M9">
+        <v>1.053708223386654</v>
       </c>
       <c r="N9">
-        <v>1.014455873745039</v>
+        <v>1.016389403720052</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.05107877045623</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.029093355109321</v>
+        <v>1.044692920354108</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -761,37 +857,49 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9802021282206363</v>
+        <v>1.007407938061314</v>
       </c>
       <c r="D10">
-        <v>1.007917550451162</v>
+        <v>1.03154902384844</v>
       </c>
       <c r="E10">
-        <v>0.9906777109023882</v>
+        <v>1.024809835914185</v>
+      </c>
+      <c r="F10">
+        <v>1.037577588768751</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042155476005237</v>
+        <v>1.054365839531409</v>
       </c>
       <c r="J10">
-        <v>1.009223868396925</v>
+        <v>1.035330693932132</v>
       </c>
       <c r="K10">
-        <v>1.022145307574688</v>
+        <v>1.04537109414728</v>
       </c>
       <c r="L10">
-        <v>1.005217347112521</v>
+        <v>1.038745138082557</v>
+      </c>
+      <c r="M10">
+        <v>1.051299969975319</v>
       </c>
       <c r="N10">
-        <v>1.010657082049644</v>
+        <v>1.01559809170883</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.049223600709562</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.026765772854608</v>
+        <v>1.043187879222651</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -802,37 +910,49 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9771882528828518</v>
+        <v>1.005450277969986</v>
       </c>
       <c r="D11">
-        <v>1.005862716157315</v>
+        <v>1.030397856467636</v>
       </c>
       <c r="E11">
-        <v>0.9883435570670225</v>
+        <v>1.023542155603758</v>
+      </c>
+      <c r="F11">
+        <v>1.036659018425292</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041399906925689</v>
+        <v>1.053986580279953</v>
       </c>
       <c r="J11">
-        <v>1.007541813468822</v>
+        <v>1.03459806372062</v>
       </c>
       <c r="K11">
-        <v>1.020674910728134</v>
+        <v>1.04476841321441</v>
       </c>
       <c r="L11">
-        <v>1.003488696399466</v>
+        <v>1.038033350727398</v>
+      </c>
+      <c r="M11">
+        <v>1.050921200817051</v>
       </c>
       <c r="N11">
-        <v>1.008972638410609</v>
+        <v>1.015387066311509</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.049354651876338</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.025759354483176</v>
+        <v>1.042794269667602</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -843,37 +963,49 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.976051352089391</v>
+        <v>1.004828267672657</v>
       </c>
       <c r="D12">
-        <v>1.005084648837552</v>
+        <v>1.030084932997003</v>
       </c>
       <c r="E12">
-        <v>0.9874638044664618</v>
+        <v>1.023217189264317</v>
+      </c>
+      <c r="F12">
+        <v>1.036561409882244</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041110187733204</v>
+        <v>1.053922267946464</v>
       </c>
       <c r="J12">
-        <v>1.006905019119261</v>
+        <v>1.034429682937646</v>
       </c>
       <c r="K12">
-        <v>1.020115079060169</v>
+        <v>1.04465759207884</v>
       </c>
       <c r="L12">
-        <v>1.002835184778771</v>
+        <v>1.037912704153967</v>
+      </c>
+      <c r="M12">
+        <v>1.051020143918623</v>
       </c>
       <c r="N12">
-        <v>1.00833493974003</v>
+        <v>1.015357044848001</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.049755629322875</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.025363525890429</v>
+        <v>1.04271591706007</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -884,37 +1016,49 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9762948892534978</v>
+        <v>1.005203830995843</v>
       </c>
       <c r="D13">
-        <v>1.00525065370291</v>
+        <v>1.030411615466078</v>
       </c>
       <c r="E13">
-        <v>0.9876520469850897</v>
+        <v>1.023607519570107</v>
+      </c>
+      <c r="F13">
+        <v>1.037108435082689</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041171953439938</v>
+        <v>1.054109728349106</v>
       </c>
       <c r="J13">
-        <v>1.007041082222261</v>
+        <v>1.034697754710775</v>
       </c>
       <c r="K13">
-        <v>1.020234247764593</v>
+        <v>1.044936324678749</v>
       </c>
       <c r="L13">
-        <v>1.002974856840854</v>
+        <v>1.038253430125241</v>
+      </c>
+      <c r="M13">
+        <v>1.051515863788566</v>
       </c>
       <c r="N13">
-        <v>1.008471196068243</v>
+        <v>1.015470104304432</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.050421500377913</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.025445258957036</v>
+        <v>1.042910519636174</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -925,37 +1069,49 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9770941453103992</v>
+        <v>1.005919863143914</v>
       </c>
       <c r="D14">
-        <v>1.005798024863787</v>
+        <v>1.030931677755966</v>
       </c>
       <c r="E14">
-        <v>0.9882706436197845</v>
+        <v>1.024205355751062</v>
+      </c>
+      <c r="F14">
+        <v>1.037784269372285</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041375800764251</v>
+        <v>1.054355468227715</v>
       </c>
       <c r="J14">
-        <v>1.00748895423547</v>
+        <v>1.035083731171145</v>
       </c>
       <c r="K14">
-        <v>1.02062824755829</v>
+        <v>1.045309164262682</v>
       </c>
       <c r="L14">
-        <v>1.003434465282628</v>
+        <v>1.038701179164815</v>
+      </c>
+      <c r="M14">
+        <v>1.052043236243294</v>
       </c>
       <c r="N14">
-        <v>1.008919704111082</v>
+        <v>1.015614350215626</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.051010198456026</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.025725279713998</v>
+        <v>1.043175533956055</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -966,37 +1122,49 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9775867311727245</v>
+        <v>1.006315579545782</v>
       </c>
       <c r="D15">
-        <v>1.006136727104425</v>
+        <v>1.031204604089819</v>
       </c>
       <c r="E15">
-        <v>0.9886523686384591</v>
+        <v>1.024513728267523</v>
+      </c>
+      <c r="F15">
+        <v>1.03810137084214</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04150192131846</v>
+        <v>1.054474716456778</v>
       </c>
       <c r="J15">
-        <v>1.007765659972493</v>
+        <v>1.035278448896669</v>
       </c>
       <c r="K15">
-        <v>1.020872544618367</v>
+        <v>1.045492303931229</v>
       </c>
       <c r="L15">
-        <v>1.003718367459326</v>
+        <v>1.038918254149191</v>
+      </c>
+      <c r="M15">
+        <v>1.052270685028348</v>
       </c>
       <c r="N15">
-        <v>1.00919680280199</v>
+        <v>1.01568294266227</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.051227214660328</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.025903956497169</v>
+        <v>1.043310826354418</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1007,37 +1175,49 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9804166092268158</v>
+        <v>1.00843237134864</v>
       </c>
       <c r="D16">
-        <v>1.008075248629968</v>
+        <v>1.032596855626875</v>
       </c>
       <c r="E16">
-        <v>0.990846484397619</v>
+        <v>1.026078208002621</v>
+      </c>
+      <c r="F16">
+        <v>1.039576809620459</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04221618410119</v>
+        <v>1.055038003948437</v>
       </c>
       <c r="J16">
-        <v>1.00934999432659</v>
+        <v>1.03623965132487</v>
       </c>
       <c r="K16">
-        <v>1.022263962772251</v>
+        <v>1.046366465906088</v>
       </c>
       <c r="L16">
-        <v>1.005345828572965</v>
+        <v>1.039956708680342</v>
+      </c>
+      <c r="M16">
+        <v>1.053231768825802</v>
       </c>
       <c r="N16">
-        <v>1.010783387092596</v>
+        <v>1.016000427768509</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.051948453006411</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.026890964539084</v>
+        <v>1.043932012787276</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1048,37 +1228,49 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.982169810127234</v>
+        <v>1.009683281961035</v>
       </c>
       <c r="D17">
-        <v>1.009276910474682</v>
+        <v>1.033393846012458</v>
       </c>
       <c r="E17">
-        <v>0.9922083273785325</v>
+        <v>1.026966697343574</v>
+      </c>
+      <c r="F17">
+        <v>1.040351553524935</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042654154412991</v>
+        <v>1.055338868346042</v>
       </c>
       <c r="J17">
-        <v>1.010330850183811</v>
+        <v>1.036774365210657</v>
       </c>
       <c r="K17">
-        <v>1.023124213787429</v>
+        <v>1.046840642800227</v>
       </c>
       <c r="L17">
-        <v>1.006354366150974</v>
+        <v>1.040517865318297</v>
+      </c>
+      <c r="M17">
+        <v>1.053687225064935</v>
       </c>
       <c r="N17">
-        <v>1.01176563587764</v>
+        <v>1.016168173636774</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.052180528155815</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.027501822362461</v>
+        <v>1.044269828940008</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1089,37 +1281,49 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9831796679204077</v>
+        <v>1.010296614989336</v>
       </c>
       <c r="D18">
-        <v>1.009965739127566</v>
+        <v>1.033733383658372</v>
       </c>
       <c r="E18">
-        <v>0.9929929003587095</v>
+        <v>1.027335065912811</v>
+      </c>
+      <c r="F18">
+        <v>1.040558174506773</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042902480578673</v>
+        <v>1.055430781794463</v>
       </c>
       <c r="J18">
-        <v>1.010893541591761</v>
+        <v>1.036976193931656</v>
       </c>
       <c r="K18">
-        <v>1.02361463996195</v>
+        <v>1.04699417633374</v>
       </c>
       <c r="L18">
-        <v>1.006933691669741</v>
+        <v>1.040698071789966</v>
+      </c>
+      <c r="M18">
+        <v>1.053711712247134</v>
       </c>
       <c r="N18">
-        <v>1.012329126371931</v>
+        <v>1.01621596910208</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.051964506152659</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.027836802771735</v>
+        <v>1.044366867607193</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1130,37 +1334,49 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9835266220239901</v>
+        <v>1.010337923227231</v>
       </c>
       <c r="D19">
-        <v>1.010205190190922</v>
+        <v>1.033668898487524</v>
       </c>
       <c r="E19">
-        <v>0.9932631788599344</v>
+        <v>1.027235189315402</v>
+      </c>
+      <c r="F19">
+        <v>1.040253393102796</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042989296680132</v>
+        <v>1.055340712102965</v>
       </c>
       <c r="J19">
-        <v>1.011088389711266</v>
+        <v>1.03688360679892</v>
       </c>
       <c r="K19">
-        <v>1.023786452239589</v>
+        <v>1.046869145667099</v>
       </c>
       <c r="L19">
-        <v>1.007134046822424</v>
+        <v>1.040537689000802</v>
+      </c>
+      <c r="M19">
+        <v>1.053350664646683</v>
       </c>
       <c r="N19">
-        <v>1.012524251198115</v>
+        <v>1.01616019021899</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.051357128601772</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.027964748810046</v>
+        <v>1.044284795791685</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1171,37 +1387,49 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9819821198856855</v>
+        <v>1.008767200536705</v>
       </c>
       <c r="D20">
-        <v>1.009147967929571</v>
+        <v>1.032462030230044</v>
       </c>
       <c r="E20">
-        <v>0.9920623839222753</v>
+        <v>1.025828047669021</v>
+      </c>
+      <c r="F20">
+        <v>1.038547787512597</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042607262005819</v>
+        <v>1.054740419024287</v>
       </c>
       <c r="J20">
-        <v>1.010225715253671</v>
+        <v>1.035964295029898</v>
       </c>
       <c r="K20">
-        <v>1.023031846257773</v>
+        <v>1.045957120074344</v>
       </c>
       <c r="L20">
-        <v>1.006246257629911</v>
+        <v>1.039431452680544</v>
+      </c>
+      <c r="M20">
+        <v>1.051945073142759</v>
       </c>
       <c r="N20">
-        <v>1.01166035164384</v>
+        <v>1.015812702772913</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.049723711118798</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.027435162924037</v>
+        <v>1.043643849111855</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1212,37 +1440,49 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9768642862746234</v>
+        <v>1.004830786404262</v>
       </c>
       <c r="D21">
-        <v>1.005644222004573</v>
+        <v>1.029835118394689</v>
       </c>
       <c r="E21">
-        <v>0.9880935014414409</v>
+        <v>1.022861743666727</v>
+      </c>
+      <c r="F21">
+        <v>1.035673962784843</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041319548065873</v>
+        <v>1.053651746149892</v>
       </c>
       <c r="J21">
-        <v>1.007362192530772</v>
+        <v>1.034127913754824</v>
       </c>
       <c r="K21">
-        <v>1.020519446094555</v>
+        <v>1.04427247436777</v>
       </c>
       <c r="L21">
-        <v>1.003304012472623</v>
+        <v>1.037422562665723</v>
+      </c>
+      <c r="M21">
+        <v>1.050009596938229</v>
       </c>
       <c r="N21">
-        <v>1.008792762390224</v>
+        <v>1.015192246955193</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.048151592014068</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.025662037324075</v>
+        <v>1.042455954460747</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1253,37 +1493,49 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.973566404827145</v>
+        <v>1.002325722744493</v>
       </c>
       <c r="D22">
-        <v>1.003384465527</v>
+        <v>1.028171715536657</v>
       </c>
       <c r="E22">
-        <v>0.9855435859382193</v>
+        <v>1.020991564188131</v>
+      </c>
+      <c r="F22">
+        <v>1.033880417602086</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040472067222678</v>
+        <v>1.052956127473325</v>
       </c>
       <c r="J22">
-        <v>1.005512291848674</v>
+        <v>1.032964175671502</v>
       </c>
       <c r="K22">
-        <v>1.018889172336788</v>
+        <v>1.04320500811888</v>
       </c>
       <c r="L22">
-        <v>1.001406971959733</v>
+        <v>1.036158336937532</v>
+      </c>
+      <c r="M22">
+        <v>1.0488093055857</v>
       </c>
       <c r="N22">
-        <v>1.006940234636971</v>
+        <v>1.014800000944778</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.047201651221383</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.024495664524969</v>
+        <v>1.041687853099489</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1294,37 +1546,49 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9753157440744141</v>
+        <v>1.003650338357008</v>
       </c>
       <c r="D23">
-        <v>1.00457854672899</v>
+        <v>1.029045771109199</v>
       </c>
       <c r="E23">
-        <v>0.9868943758648139</v>
+        <v>1.02197832318119</v>
+      </c>
+      <c r="F23">
+        <v>1.03482645618998</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040920244894559</v>
+        <v>1.053321156631309</v>
       </c>
       <c r="J23">
-        <v>1.006491326977697</v>
+        <v>1.033575958841048</v>
       </c>
       <c r="K23">
-        <v>1.019749121673701</v>
+        <v>1.043762966114749</v>
       </c>
       <c r="L23">
-        <v>1.002411057789112</v>
+        <v>1.036823575798381</v>
+      </c>
+      <c r="M23">
+        <v>1.049440595712084</v>
       </c>
       <c r="N23">
-        <v>1.007920660108174</v>
+        <v>1.015005244770884</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.047701270271637</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.025093940233713</v>
+        <v>1.042072808555805</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1335,37 +1599,49 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9820563568656405</v>
+        <v>1.008788719351419</v>
       </c>
       <c r="D24">
-        <v>1.009191542362616</v>
+        <v>1.032455067434425</v>
       </c>
       <c r="E24">
-        <v>0.9921185413778065</v>
+        <v>1.025823571593902</v>
+      </c>
+      <c r="F24">
+        <v>1.038514839321518</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042621021727439</v>
+        <v>1.054726171768082</v>
       </c>
       <c r="J24">
-        <v>1.010263068703202</v>
+        <v>1.03595260223616</v>
       </c>
       <c r="K24">
-        <v>1.023059144284943</v>
+        <v>1.045935239123694</v>
       </c>
       <c r="L24">
-        <v>1.006285492532664</v>
+        <v>1.039411880958234</v>
+      </c>
+      <c r="M24">
+        <v>1.051897743898245</v>
       </c>
       <c r="N24">
-        <v>1.011697758139554</v>
+        <v>1.01580430658382</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.049645916588001</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.027426745535829</v>
+        <v>1.043601256195377</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1376,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9895769888701297</v>
+        <v>1.014576912237285</v>
       </c>
       <c r="D25">
-        <v>1.014345497311663</v>
+        <v>1.036315430443237</v>
       </c>
       <c r="E25">
-        <v>0.9979811177295721</v>
+        <v>1.030184570327555</v>
+      </c>
+      <c r="F25">
+        <v>1.042700775875183</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044453772769078</v>
+        <v>1.056273146317765</v>
       </c>
       <c r="J25">
-        <v>1.014460293478956</v>
+        <v>1.038623470183979</v>
       </c>
       <c r="K25">
-        <v>1.026725125991639</v>
+        <v>1.048374989329401</v>
       </c>
       <c r="L25">
-        <v>1.010610855299135</v>
+        <v>1.042331707301915</v>
+      </c>
+      <c r="M25">
+        <v>1.054670503632368</v>
       </c>
       <c r="N25">
-        <v>1.015900943455919</v>
+        <v>1.016702483696514</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.05184033939951</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.030015940391941</v>
+        <v>1.045323419382978</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_1/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019040600956404</v>
+        <v>1.017933924974106</v>
       </c>
       <c r="D2">
-        <v>1.039291936968012</v>
+        <v>1.037452490849741</v>
       </c>
       <c r="E2">
-        <v>1.033566015885498</v>
+        <v>1.032541315757822</v>
       </c>
       <c r="F2">
-        <v>1.045947579204553</v>
+        <v>1.044746164316148</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.057425463139092</v>
+        <v>1.056441821009835</v>
       </c>
       <c r="J2">
-        <v>1.040666352005827</v>
+        <v>1.039591154144866</v>
       </c>
       <c r="K2">
-        <v>1.050229723685538</v>
+        <v>1.048413592663016</v>
       </c>
       <c r="L2">
-        <v>1.044576720126875</v>
+        <v>1.04356517585128</v>
       </c>
       <c r="M2">
-        <v>1.056801859002528</v>
+        <v>1.055615419930906</v>
       </c>
       <c r="N2">
-        <v>1.017387091933935</v>
+        <v>1.017651692897567</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.053527136381266</v>
+        <v>1.052588165396152</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.046587007682587</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.045311555629786</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02487136699611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022222178506418</v>
+        <v>1.021018598751483</v>
       </c>
       <c r="D3">
-        <v>1.041429850419536</v>
+        <v>1.039458259995639</v>
       </c>
       <c r="E3">
-        <v>1.035990814823534</v>
+        <v>1.034878098859328</v>
       </c>
       <c r="F3">
-        <v>1.048277440255041</v>
+        <v>1.046985113752087</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.05823519648247</v>
+        <v>1.057175014654876</v>
       </c>
       <c r="J3">
-        <v>1.042124845806073</v>
+        <v>1.040952225814053</v>
       </c>
       <c r="K3">
-        <v>1.051558712347278</v>
+        <v>1.049609981359178</v>
       </c>
       <c r="L3">
-        <v>1.046183000322007</v>
+        <v>1.045083340575127</v>
       </c>
       <c r="M3">
-        <v>1.058327732357383</v>
+        <v>1.057050137043386</v>
       </c>
       <c r="N3">
-        <v>1.017877386266501</v>
+        <v>1.018014696933233</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.054734740553169</v>
+        <v>1.053723628309808</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.047524060316341</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.04615457755929</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025093219409746</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024249349250888</v>
+        <v>1.022984487246103</v>
       </c>
       <c r="D4">
-        <v>1.042795792174699</v>
+        <v>1.040740284120584</v>
       </c>
       <c r="E4">
-        <v>1.037541418662536</v>
+        <v>1.036372973383355</v>
       </c>
       <c r="F4">
-        <v>1.049767848287503</v>
+        <v>1.048417876620878</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.058742910150015</v>
+        <v>1.057634049806558</v>
       </c>
       <c r="J4">
-        <v>1.043052456639351</v>
+        <v>1.041817977186982</v>
       </c>
       <c r="K4">
-        <v>1.052403753612854</v>
+        <v>1.050370669933343</v>
       </c>
       <c r="L4">
-        <v>1.047206919352071</v>
+        <v>1.046051366872605</v>
       </c>
       <c r="M4">
-        <v>1.059300550134616</v>
+        <v>1.057965054926142</v>
       </c>
       <c r="N4">
-        <v>1.018189274792223</v>
+        <v>1.018245675889932</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.055504645389015</v>
+        <v>1.054447711153581</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.04812244937176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.046693407376426</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025232051611539</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025096703885108</v>
+        <v>1.023806327526877</v>
       </c>
       <c r="D5">
-        <v>1.043369423654775</v>
+        <v>1.041278957361923</v>
       </c>
       <c r="E5">
-        <v>1.038191327101152</v>
+        <v>1.036999668805574</v>
       </c>
       <c r="F5">
-        <v>1.050392785375392</v>
+        <v>1.04901880377079</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.058954470179815</v>
+        <v>1.057825302758012</v>
       </c>
       <c r="J5">
-        <v>1.04344106798788</v>
+        <v>1.042180780618754</v>
       </c>
       <c r="K5">
-        <v>1.052758944418609</v>
+        <v>1.050690688661904</v>
       </c>
       <c r="L5">
-        <v>1.047636063927537</v>
+        <v>1.046457208399347</v>
       </c>
       <c r="M5">
-        <v>1.059708476117422</v>
+        <v>1.058348842855525</v>
       </c>
       <c r="N5">
-        <v>1.018320220605798</v>
+        <v>1.018342697840297</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.05582748484421</v>
+        <v>1.054751447775267</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.048380683844607</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.046927483934661</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02529036555823</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025241584580902</v>
+        <v>1.023946847323085</v>
       </c>
       <c r="D6">
-        <v>1.043469733168212</v>
+        <v>1.041373359198239</v>
       </c>
       <c r="E6">
-        <v>1.038303050198004</v>
+        <v>1.03710742767007</v>
       </c>
       <c r="F6">
-        <v>1.050500390166448</v>
+        <v>1.049122332470143</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.05899215199467</v>
+        <v>1.057859537739905</v>
       </c>
       <c r="J6">
-        <v>1.043509059835752</v>
+        <v>1.042244361322838</v>
       </c>
       <c r="K6">
-        <v>1.052822565857439</v>
+        <v>1.050748365157685</v>
       </c>
       <c r="L6">
-        <v>1.047710728566107</v>
+        <v>1.046527893246741</v>
       </c>
       <c r="M6">
-        <v>1.059779648740752</v>
+        <v>1.058415917193956</v>
       </c>
       <c r="N6">
-        <v>1.01834346072552</v>
+        <v>1.018359955386457</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.055883812036371</v>
+        <v>1.054804531592152</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.048434315410396</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.046977780183228</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025301388921012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024268841788764</v>
+        <v>1.023009644077629</v>
       </c>
       <c r="D7">
-        <v>1.04281480604089</v>
+        <v>1.040763073460177</v>
       </c>
       <c r="E7">
-        <v>1.037557773656845</v>
+        <v>1.03639393690957</v>
       </c>
       <c r="F7">
-        <v>1.049784009768475</v>
+        <v>1.048437497546737</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.058752137596863</v>
+        <v>1.057646145796184</v>
       </c>
       <c r="J7">
-        <v>1.043065610368448</v>
+        <v>1.041836646381406</v>
       </c>
       <c r="K7">
-        <v>1.052419723098175</v>
+        <v>1.050390365161678</v>
       </c>
       <c r="L7">
-        <v>1.047220237536333</v>
+        <v>1.046069237895696</v>
       </c>
       <c r="M7">
-        <v>1.059313726101495</v>
+        <v>1.057981647846895</v>
       </c>
       <c r="N7">
-        <v>1.01819459990847</v>
+        <v>1.018277083838759</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.055515073072029</v>
+        <v>1.054460843089927</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.048153628514919</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.046729218027548</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025237681413813</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020132584021978</v>
+        <v>1.019011706429001</v>
       </c>
       <c r="D8">
-        <v>1.040032072236245</v>
+        <v>1.038160910866658</v>
       </c>
       <c r="E8">
-        <v>1.034398870007013</v>
+        <v>1.033359642319542</v>
       </c>
       <c r="F8">
-        <v>1.04674820176494</v>
+        <v>1.045527689117588</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.057710372393234</v>
+        <v>1.056710509958851</v>
       </c>
       <c r="J8">
-        <v>1.041172475985893</v>
+        <v>1.040082434499206</v>
       </c>
       <c r="K8">
-        <v>1.05069577054959</v>
+        <v>1.048847636160604</v>
       </c>
       <c r="L8">
-        <v>1.045132205988629</v>
+        <v>1.04410592860327</v>
       </c>
       <c r="M8">
-        <v>1.057330091774744</v>
+        <v>1.056124348966276</v>
       </c>
       <c r="N8">
-        <v>1.017558380134057</v>
+        <v>1.017861792853733</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.053945189707959</v>
+        <v>1.052990941888418</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.046939191354186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.045643377208486</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024955845272028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.012580846428425</v>
+        <v>1.011695590471524</v>
       </c>
       <c r="D9">
-        <v>1.034973205566912</v>
+        <v>1.033419108844751</v>
       </c>
       <c r="E9">
-        <v>1.028674752980116</v>
+        <v>1.027848816329518</v>
       </c>
       <c r="F9">
-        <v>1.041250746430632</v>
+        <v>1.040249393829981</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.055738083035235</v>
+        <v>1.054921746688358</v>
       </c>
       <c r="J9">
-        <v>1.037697032787753</v>
+        <v>1.036842001222103</v>
       </c>
       <c r="K9">
-        <v>1.047523252206095</v>
+        <v>1.04599229333426</v>
       </c>
       <c r="L9">
-        <v>1.041319123614355</v>
+        <v>1.040505665186784</v>
       </c>
       <c r="M9">
-        <v>1.053708223386654</v>
+        <v>1.052721541825561</v>
       </c>
       <c r="N9">
-        <v>1.016389403720052</v>
+        <v>1.017006648605762</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.05107877045623</v>
+        <v>1.050297888991632</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.044692920354108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.043621079342412</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024412553778238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.007407938061314</v>
+        <v>1.006712044840227</v>
       </c>
       <c r="D10">
-        <v>1.03154902384844</v>
+        <v>1.030230516467964</v>
       </c>
       <c r="E10">
-        <v>1.024809835914185</v>
+        <v>1.024152331148104</v>
       </c>
       <c r="F10">
-        <v>1.037577588768751</v>
+        <v>1.03674347543588</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.054365839531409</v>
+        <v>1.05368837911248</v>
       </c>
       <c r="J10">
-        <v>1.035330693932132</v>
+        <v>1.034661866575965</v>
       </c>
       <c r="K10">
-        <v>1.04537109414728</v>
+        <v>1.044074590127036</v>
       </c>
       <c r="L10">
-        <v>1.038745138082557</v>
+        <v>1.038098783708806</v>
       </c>
       <c r="M10">
-        <v>1.051299969975319</v>
+        <v>1.050479560754508</v>
       </c>
       <c r="N10">
-        <v>1.01559809170883</v>
+        <v>1.016544744408631</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.049223600709562</v>
+        <v>1.048574348742126</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.043187879222651</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.042283482673837</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024043855317402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.005450277969986</v>
+        <v>1.004849334797098</v>
       </c>
       <c r="D11">
-        <v>1.030397856467636</v>
+        <v>1.029177480372797</v>
       </c>
       <c r="E11">
-        <v>1.023542155603758</v>
+        <v>1.022964300293297</v>
       </c>
       <c r="F11">
-        <v>1.036659018425292</v>
+        <v>1.035899330247608</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.053986580279953</v>
+        <v>1.053370790652536</v>
       </c>
       <c r="J11">
-        <v>1.03459806372062</v>
+        <v>1.034021758087839</v>
       </c>
       <c r="K11">
-        <v>1.04476841321441</v>
+        <v>1.043569359507085</v>
       </c>
       <c r="L11">
-        <v>1.038033350727398</v>
+        <v>1.037465759710889</v>
       </c>
       <c r="M11">
-        <v>1.050921200817051</v>
+        <v>1.050174571780363</v>
       </c>
       <c r="N11">
-        <v>1.015387066311509</v>
+        <v>1.0166254664995</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.049354651876338</v>
+        <v>1.048764077729248</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.042794269667602</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.041961986773179</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023985664699227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.004828267672657</v>
+        <v>1.004254491737074</v>
       </c>
       <c r="D12">
-        <v>1.030084932997003</v>
+        <v>1.028890290018475</v>
       </c>
       <c r="E12">
-        <v>1.023217189264317</v>
+        <v>1.022660539540979</v>
       </c>
       <c r="F12">
-        <v>1.036561409882244</v>
+        <v>1.035821812462281</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.053922267946464</v>
+        <v>1.053323296033672</v>
       </c>
       <c r="J12">
-        <v>1.034429682937646</v>
+        <v>1.03387987891362</v>
       </c>
       <c r="K12">
-        <v>1.04465759207884</v>
+        <v>1.043484166918557</v>
       </c>
       <c r="L12">
-        <v>1.037912704153967</v>
+        <v>1.037366106230463</v>
       </c>
       <c r="M12">
-        <v>1.051020143918623</v>
+        <v>1.050293463122584</v>
       </c>
       <c r="N12">
-        <v>1.015357044848001</v>
+        <v>1.016706662180618</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.049755629322875</v>
+        <v>1.049181024258432</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.04271591706007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.041901755140405</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023996102767221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.005203830995843</v>
+        <v>1.004598054366237</v>
       </c>
       <c r="D13">
-        <v>1.030411615466078</v>
+        <v>1.029182493965781</v>
       </c>
       <c r="E13">
-        <v>1.023607519570107</v>
+        <v>1.023021561009761</v>
       </c>
       <c r="F13">
-        <v>1.037108435082689</v>
+        <v>1.036343041936973</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.054109728349106</v>
+        <v>1.053489684706869</v>
       </c>
       <c r="J13">
-        <v>1.034697754710775</v>
+        <v>1.03411716882959</v>
       </c>
       <c r="K13">
-        <v>1.044936324678749</v>
+        <v>1.043728943664416</v>
       </c>
       <c r="L13">
-        <v>1.038253430125241</v>
+        <v>1.037678007229593</v>
       </c>
       <c r="M13">
-        <v>1.051515863788566</v>
+        <v>1.050763775553534</v>
       </c>
       <c r="N13">
-        <v>1.015470104304432</v>
+        <v>1.016762782806452</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.050421500377913</v>
+        <v>1.049826951682548</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.042910519636174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.042072104647448</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024065051844941</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.005919863143914</v>
+        <v>1.005265490238954</v>
       </c>
       <c r="D14">
-        <v>1.030931677755966</v>
+        <v>1.029651656347326</v>
       </c>
       <c r="E14">
-        <v>1.024205355751062</v>
+        <v>1.023576672095053</v>
       </c>
       <c r="F14">
-        <v>1.037784269372285</v>
+        <v>1.036980532683289</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.054355468227715</v>
+        <v>1.053703840296492</v>
       </c>
       <c r="J14">
-        <v>1.035083731171145</v>
+        <v>1.034456191014279</v>
       </c>
       <c r="K14">
-        <v>1.045309164262682</v>
+        <v>1.044051508101406</v>
       </c>
       <c r="L14">
-        <v>1.038701179164815</v>
+        <v>1.038083659145222</v>
       </c>
       <c r="M14">
-        <v>1.052043236243294</v>
+        <v>1.051253295834847</v>
       </c>
       <c r="N14">
-        <v>1.015614350215626</v>
+        <v>1.016792216801031</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.051010198456026</v>
+        <v>1.050385809595336</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.043175533956055</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.042301707883685</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024140391512776</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.006315579545782</v>
+        <v>1.005636807297637</v>
       </c>
       <c r="D15">
-        <v>1.031204604089819</v>
+        <v>1.029899154249371</v>
       </c>
       <c r="E15">
-        <v>1.024513728267523</v>
+        <v>1.023863926759625</v>
       </c>
       <c r="F15">
-        <v>1.03810137084214</v>
+        <v>1.037278464485905</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.054474716456778</v>
+        <v>1.053807237623974</v>
       </c>
       <c r="J15">
-        <v>1.035278448896669</v>
+        <v>1.03462727237005</v>
       </c>
       <c r="K15">
-        <v>1.045492303931229</v>
+        <v>1.044209493626747</v>
       </c>
       <c r="L15">
-        <v>1.038918254149191</v>
+        <v>1.038279903971305</v>
       </c>
       <c r="M15">
-        <v>1.052270685028348</v>
+        <v>1.051461797345154</v>
       </c>
       <c r="N15">
-        <v>1.01568294266227</v>
+        <v>1.016798540893862</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.051227214660328</v>
+        <v>1.050587866058364</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.043310826354418</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.042419784880985</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024173898098982</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.00843237134864</v>
+        <v>1.007639016166194</v>
       </c>
       <c r="D16">
-        <v>1.032596855626875</v>
+        <v>1.031169786309181</v>
       </c>
       <c r="E16">
-        <v>1.026078208002621</v>
+        <v>1.02533018071319</v>
       </c>
       <c r="F16">
-        <v>1.039576809620459</v>
+        <v>1.03866289099245</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.055038003948437</v>
+        <v>1.054294967418874</v>
       </c>
       <c r="J16">
-        <v>1.03623965132487</v>
+        <v>1.035476970028504</v>
       </c>
       <c r="K16">
-        <v>1.046366465906088</v>
+        <v>1.044963083403073</v>
       </c>
       <c r="L16">
-        <v>1.039956708680342</v>
+        <v>1.039221291009194</v>
       </c>
       <c r="M16">
-        <v>1.053231768825802</v>
+        <v>1.052332749340709</v>
       </c>
       <c r="N16">
-        <v>1.016000427768509</v>
+        <v>1.016816099043832</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.051948453006411</v>
+        <v>1.05123784389254</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.043932012787276</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.042956024258063</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024316275503168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,105 +1369,123 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.009683281961035</v>
+        <v>1.008834120399344</v>
       </c>
       <c r="D17">
-        <v>1.033393846012458</v>
+        <v>1.031904718552451</v>
       </c>
       <c r="E17">
-        <v>1.026966697343574</v>
+        <v>1.026170871218614</v>
       </c>
       <c r="F17">
-        <v>1.040351553524935</v>
+        <v>1.0393919195856</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.055338868346042</v>
+        <v>1.054557764988235</v>
       </c>
       <c r="J17">
-        <v>1.036774365210657</v>
+        <v>1.035956998754296</v>
       </c>
       <c r="K17">
-        <v>1.046840642800227</v>
+        <v>1.045375548895869</v>
       </c>
       <c r="L17">
-        <v>1.040517865318297</v>
+        <v>1.03973507966507</v>
       </c>
       <c r="M17">
-        <v>1.053687225064935</v>
+        <v>1.052742804648703</v>
       </c>
       <c r="N17">
-        <v>1.016168173636774</v>
+        <v>1.01684235972972</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.052180528155815</v>
+        <v>1.051433959660962</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.044269828940008</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.043250456949754</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024386254359911</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C18">
-        <v>1.010296614989336</v>
+        <v>1.00942959426709</v>
       </c>
       <c r="D18">
-        <v>1.033733383658372</v>
+        <v>1.032223063737104</v>
       </c>
       <c r="E18">
-        <v>1.027335065912811</v>
+        <v>1.026524521895009</v>
       </c>
       <c r="F18">
-        <v>1.040558174506773</v>
+        <v>1.039583174654142</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.055430781794463</v>
+        <v>1.054636818607558</v>
       </c>
       <c r="J18">
-        <v>1.036976193931656</v>
+        <v>1.036141035883579</v>
       </c>
       <c r="K18">
-        <v>1.04699417633374</v>
+        <v>1.045507837396327</v>
       </c>
       <c r="L18">
-        <v>1.040698071789966</v>
+        <v>1.039900592920091</v>
       </c>
       <c r="M18">
-        <v>1.053711712247134</v>
+        <v>1.052751924748053</v>
       </c>
       <c r="N18">
-        <v>1.01621596910208</v>
+        <v>1.016836809097847</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.051964506152659</v>
+        <v>1.051205634575893</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.044366867607193</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.043331340183429</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024392912226912</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.010337923227231</v>
+        <v>1.009482642496996</v>
       </c>
       <c r="D19">
-        <v>1.033668898487524</v>
+        <v>1.032171343156677</v>
       </c>
       <c r="E19">
-        <v>1.027235189315402</v>
+        <v>1.026436090184256</v>
       </c>
       <c r="F19">
-        <v>1.040253393102796</v>
+        <v>1.039287698643095</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.055340712102965</v>
+        <v>1.054554411182577</v>
       </c>
       <c r="J19">
-        <v>1.03688360679892</v>
+        <v>1.036059569891747</v>
       </c>
       <c r="K19">
-        <v>1.046869145667099</v>
+        <v>1.045395245590132</v>
       </c>
       <c r="L19">
-        <v>1.040537689000802</v>
+        <v>1.039751404929981</v>
       </c>
       <c r="M19">
-        <v>1.053350664646683</v>
+        <v>1.052399968440829</v>
       </c>
       <c r="N19">
-        <v>1.01616019021899</v>
+        <v>1.016786514283003</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.051357128601772</v>
+        <v>1.050605204770474</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.044284795791685</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.043258687469743</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024345676750936</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.008767200536705</v>
+        <v>1.008003874720892</v>
       </c>
       <c r="D20">
-        <v>1.032462030230044</v>
+        <v>1.031069595091299</v>
       </c>
       <c r="E20">
-        <v>1.025828047669021</v>
+        <v>1.025111719202098</v>
       </c>
       <c r="F20">
-        <v>1.038547787512597</v>
+        <v>1.03765870084644</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.054740419024287</v>
+        <v>1.054017531896273</v>
       </c>
       <c r="J20">
-        <v>1.035964295029898</v>
+        <v>1.035229709226937</v>
       </c>
       <c r="K20">
-        <v>1.045957120074344</v>
+        <v>1.044587271222874</v>
       </c>
       <c r="L20">
-        <v>1.039431452680544</v>
+        <v>1.038726927834834</v>
       </c>
       <c r="M20">
-        <v>1.051945073142759</v>
+        <v>1.051070183249522</v>
       </c>
       <c r="N20">
-        <v>1.015812702772913</v>
+        <v>1.016599585540443</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.049723711118798</v>
+        <v>1.049031336272679</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.043643849111855</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.042691696863473</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024145377518389</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.004830786404262</v>
+        <v>1.004299554794845</v>
       </c>
       <c r="D21">
-        <v>1.029835118394689</v>
+        <v>1.028685017246458</v>
       </c>
       <c r="E21">
-        <v>1.022861743666727</v>
+        <v>1.022346596793781</v>
       </c>
       <c r="F21">
-        <v>1.035673962784843</v>
+        <v>1.034968341179075</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.053651746149892</v>
+        <v>1.053080097336919</v>
       </c>
       <c r="J21">
-        <v>1.034127913754824</v>
+        <v>1.033618606829365</v>
       </c>
       <c r="K21">
-        <v>1.04427247436777</v>
+        <v>1.043142586244467</v>
       </c>
       <c r="L21">
-        <v>1.037422562665723</v>
+        <v>1.036916623185785</v>
       </c>
       <c r="M21">
-        <v>1.050009596938229</v>
+        <v>1.049316189474353</v>
       </c>
       <c r="N21">
-        <v>1.015192246955193</v>
+        <v>1.016582998721165</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.048151592014068</v>
+        <v>1.047602812040024</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.042455954460747</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.041673786834421</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023863589105083</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.002325722744493</v>
+        <v>1.001939966690357</v>
       </c>
       <c r="D22">
-        <v>1.028171715536657</v>
+        <v>1.02717359604933</v>
       </c>
       <c r="E22">
-        <v>1.020991564188131</v>
+        <v>1.020602568910622</v>
       </c>
       <c r="F22">
-        <v>1.033880417602086</v>
+        <v>1.033289964776895</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.052956127473325</v>
+        <v>1.052478999821149</v>
       </c>
       <c r="J22">
-        <v>1.032964175671502</v>
+        <v>1.032595248040903</v>
       </c>
       <c r="K22">
-        <v>1.04320500811888</v>
+        <v>1.042225298273268</v>
       </c>
       <c r="L22">
-        <v>1.036158336937532</v>
+        <v>1.035776643185409</v>
       </c>
       <c r="M22">
-        <v>1.0488093055857</v>
+        <v>1.04822958176398</v>
       </c>
       <c r="N22">
-        <v>1.014800000944778</v>
+        <v>1.016565888497925</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.047201651221383</v>
+        <v>1.046742842757513</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.041687853099489</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.041010564563869</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023683466309913</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.003650338357008</v>
+        <v>1.00317783842796</v>
       </c>
       <c r="D23">
-        <v>1.029045771109199</v>
+        <v>1.027960233215563</v>
       </c>
       <c r="E23">
-        <v>1.02197832318119</v>
+        <v>1.021514501665227</v>
       </c>
       <c r="F23">
-        <v>1.03482645618998</v>
+        <v>1.034168835067956</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.053321156631309</v>
+        <v>1.052788958415077</v>
       </c>
       <c r="J23">
-        <v>1.033575958841048</v>
+        <v>1.033123479197962</v>
       </c>
       <c r="K23">
-        <v>1.043762966114749</v>
+        <v>1.042696948710081</v>
       </c>
       <c r="L23">
-        <v>1.036823575798381</v>
+        <v>1.036368239110914</v>
       </c>
       <c r="M23">
-        <v>1.049440595712084</v>
+        <v>1.048794623020756</v>
       </c>
       <c r="N23">
-        <v>1.015005244770884</v>
+        <v>1.016531118572178</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.047701270271637</v>
+        <v>1.047190031062311</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.042072808555805</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.041333555949222</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023774155781729</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.008788719351419</v>
+        <v>1.008026138799646</v>
       </c>
       <c r="D24">
-        <v>1.032455067434425</v>
+        <v>1.031063219900841</v>
       </c>
       <c r="E24">
-        <v>1.025823571593902</v>
+        <v>1.025108087020058</v>
       </c>
       <c r="F24">
-        <v>1.038514839321518</v>
+        <v>1.037626275373873</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.054726171768082</v>
+        <v>1.054003685458646</v>
       </c>
       <c r="J24">
-        <v>1.03595260223616</v>
+        <v>1.035218691651449</v>
       </c>
       <c r="K24">
-        <v>1.045935239123694</v>
+        <v>1.044565939876652</v>
       </c>
       <c r="L24">
-        <v>1.039411880958234</v>
+        <v>1.038708171130184</v>
       </c>
       <c r="M24">
-        <v>1.051897743898245</v>
+        <v>1.051023351426463</v>
       </c>
       <c r="N24">
-        <v>1.01580430658382</v>
+        <v>1.01658952737898</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.049645916588001</v>
+        <v>1.048953901887775</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.043601256195377</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.042646820307732</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024135744077763</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.014576912237285</v>
+        <v>1.013621184116854</v>
       </c>
       <c r="D25">
-        <v>1.036315430443237</v>
+        <v>1.034672098114301</v>
       </c>
       <c r="E25">
-        <v>1.030184570327555</v>
+        <v>1.029295558701453</v>
       </c>
       <c r="F25">
-        <v>1.042700775875183</v>
+        <v>1.041636442082768</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.056273146317765</v>
+        <v>1.055404306697026</v>
       </c>
       <c r="J25">
-        <v>1.038623470183979</v>
+        <v>1.037698678501657</v>
       </c>
       <c r="K25">
-        <v>1.048374989329401</v>
+        <v>1.046755002865076</v>
       </c>
       <c r="L25">
-        <v>1.042331707301915</v>
+        <v>1.041455504752729</v>
       </c>
       <c r="M25">
-        <v>1.054670503632368</v>
+        <v>1.05362104665696</v>
       </c>
       <c r="N25">
-        <v>1.016702483696514</v>
+        <v>1.017203567649639</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.05184033939951</v>
+        <v>1.051009776909922</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.045323419382978</v>
+        <v>1.044191435909855</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024561190624573</v>
       </c>
     </row>
   </sheetData>
